--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66497064-CFD4-4026-8655-EA1BBBEFD652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456881FA-7F14-40D7-9DC7-49C0DEA32233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -136,16 +136,16 @@
     <t>Patryk Bronka, Justin van de Ven, Ashley Burdett</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COEFFICIENTS</t>
-  </si>
-  <si>
     <t>HUA</t>
   </si>
   <si>
     <t>HUB</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COEFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DB64B-6F99-4129-B256-11AD33B73F9E}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,10 +581,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -621,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -1307,7 +1309,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>5.0284358963410429E-2</v>
@@ -1363,7 +1365,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2.4999851143168168E-2</v>
@@ -1538,7 +1540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788015EB-E238-46AC-B27E-C751956EB3CE}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1548,10 +1552,10 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1602,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
         <v>18</v>
@@ -2704,7 +2708,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>0.10999626603410458</v>
@@ -2772,7 +2776,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>2.4992098919124767E-2</v>

--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456881FA-7F14-40D7-9DC7-49C0DEA32233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C1C60-4ACA-4C94-A9F5-5705E55FAF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DB64B-6F99-4129-B256-11AD33B73F9E}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788015EB-E238-46AC-B27E-C751956EB3CE}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74C207-4E7A-40F5-BB4E-B44FB25D660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA2477-9ADA-44FD-B79E-BE4D42D05B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4320" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="R1a" sheetId="3" r:id="rId2"/>
-    <sheet name="R1b" sheetId="4" r:id="rId3"/>
+    <sheet name="PL_R1a" sheetId="3" r:id="rId2"/>
+    <sheet name="PL_R1b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1790,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3234,9 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725640F-9FFD-468C-A805-4EDE48E612E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85311DCE-839B-47BC-B6A3-FAD3402A7AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -167,6 +167,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,11 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,9 +560,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -581,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -589,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -606,14 +611,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -687,1632 +692,1632 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-5.3044394745937709E-2</v>
+      <c r="B2" s="4">
+        <v>1.7722082359811469E-2</v>
       </c>
       <c r="C2">
-        <v>5.9642020743216435E-3</v>
+        <v>5.8825029149452389E-3</v>
       </c>
       <c r="D2">
-        <v>-3.1684191103954068E-4</v>
+        <v>-3.7544107533667073E-4</v>
       </c>
       <c r="E2">
-        <v>2.1568768229512659E-6</v>
+        <v>2.5872154138792874E-6</v>
       </c>
       <c r="F2">
-        <v>-5.3782258888544054E-3</v>
+        <v>-5.0384560641057573E-3</v>
       </c>
       <c r="G2">
-        <v>-4.1942042224686078E-3</v>
+        <v>-4.0691593122631027E-3</v>
       </c>
       <c r="H2">
-        <v>-8.4128219396590459E-5</v>
+        <v>-2.166880584036808E-4</v>
       </c>
       <c r="I2">
-        <v>-1.2405207360564191E-4</v>
+        <v>-1.4536888978892559E-4</v>
       </c>
       <c r="J2">
-        <v>2.6760272573679387E-3</v>
+        <v>2.7793533886539649E-3</v>
       </c>
       <c r="K2">
-        <v>3.9198255142228319E-4</v>
+        <v>5.3453977975668609E-4</v>
       </c>
       <c r="L2">
-        <v>-3.1687503605130549E-5</v>
+        <v>-3.3443082325673376E-5</v>
       </c>
       <c r="M2">
-        <v>-6.9564620122074413E-4</v>
+        <v>-6.7003445587537967E-4</v>
       </c>
       <c r="N2">
-        <v>-3.041829037217763E-4</v>
+        <v>-1.007635141395723E-4</v>
       </c>
       <c r="O2">
-        <v>-3.5021509570169621E-4</v>
+        <v>-2.919662186859997E-4</v>
       </c>
       <c r="P2">
-        <v>-6.4065031438263395E-4</v>
+        <v>-7.3729330965413564E-4</v>
       </c>
       <c r="Q2">
-        <v>-4.4198315089971369E-4</v>
+        <v>-4.9601233451125864E-4</v>
       </c>
       <c r="R2">
-        <v>-1.7636704690959532E-4</v>
+        <v>-1.2892260565320213E-4</v>
       </c>
       <c r="S2">
-        <v>-1.1553861672028952E-5</v>
+        <v>-1.3266363899576677E-4</v>
       </c>
       <c r="T2">
-        <v>-1.5036897483256548E-4</v>
+        <v>-2.2851379501852374E-4</v>
       </c>
       <c r="U2">
-        <v>-1.0933655844851434E-5</v>
+        <v>-9.9323017297451514E-6</v>
       </c>
       <c r="V2">
-        <v>-1.5779986806796703E-4</v>
+        <v>-1.9632678899723314E-4</v>
       </c>
       <c r="W2">
-        <v>7.3166482490101201E-5</v>
+        <v>2.0660432482901524E-5</v>
       </c>
       <c r="X2">
-        <v>8.9293733715270496E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.0783702154524372E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.30597086972573673</v>
+      <c r="B3" s="4">
+        <v>0.28663680124379592</v>
       </c>
       <c r="C3">
-        <v>-3.1684191103954068E-4</v>
+        <v>-3.7544107533667073E-4</v>
       </c>
       <c r="D3">
-        <v>2.9443933716453499E-3</v>
+        <v>2.6421842336397661E-3</v>
       </c>
       <c r="E3">
-        <v>-2.1226336836296651E-5</v>
+        <v>-1.9062973119710871E-5</v>
       </c>
       <c r="F3">
-        <v>-3.2200977026142219E-4</v>
+        <v>-3.059462118186352E-4</v>
       </c>
       <c r="G3">
-        <v>-1.5847108297270089E-3</v>
+        <v>-1.3521763703389887E-3</v>
       </c>
       <c r="H3">
-        <v>-1.5687038334970607E-4</v>
+        <v>-1.2030703866858922E-4</v>
       </c>
       <c r="I3">
-        <v>-4.7549947153516237E-5</v>
+        <v>-1.6748057346208101E-5</v>
       </c>
       <c r="J3">
-        <v>-3.7103393474462731E-3</v>
+        <v>-3.374583836057661E-3</v>
       </c>
       <c r="K3">
-        <v>1.9056158645207669E-4</v>
+        <v>1.1888360547385591E-4</v>
       </c>
       <c r="L3">
-        <v>-7.4786350828682374E-5</v>
+        <v>-1.0824138164551925E-4</v>
       </c>
       <c r="M3">
-        <v>-8.9801277143390298E-5</v>
+        <v>-8.5712657421799232E-5</v>
       </c>
       <c r="N3">
-        <v>1.4769397582579252E-4</v>
+        <v>4.6125006345605624E-5</v>
       </c>
       <c r="O3">
-        <v>-9.6368787700598646E-5</v>
+        <v>-8.4638066596465916E-5</v>
       </c>
       <c r="P3">
-        <v>-3.9430331967277516E-4</v>
+        <v>-3.3552286101339382E-4</v>
       </c>
       <c r="Q3">
-        <v>4.0924230923189767E-4</v>
+        <v>3.9125069275913055E-4</v>
       </c>
       <c r="R3">
-        <v>2.1569564486073264E-4</v>
+        <v>1.865269398708333E-4</v>
       </c>
       <c r="S3">
-        <v>1.5420726809141708E-4</v>
+        <v>1.5372246298674119E-4</v>
       </c>
       <c r="T3">
-        <v>5.2183238783416394E-4</v>
+        <v>4.8982123290420426E-4</v>
       </c>
       <c r="U3">
-        <v>-9.6439449084550176E-6</v>
+        <v>-1.5254634749021058E-5</v>
       </c>
       <c r="V3">
-        <v>2.4784569432044837E-5</v>
+        <v>4.9161559608887698E-5</v>
       </c>
       <c r="W3">
-        <v>-2.415211819462651E-4</v>
+        <v>-1.8329664107776672E-4</v>
       </c>
       <c r="X3">
-        <v>-9.73878326461175E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-8.7127439931732331E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-2.2896572527219767E-3</v>
+      <c r="B4" s="4">
+        <v>-2.1528827251338367E-3</v>
       </c>
       <c r="C4">
-        <v>2.1568768229512659E-6</v>
+        <v>2.5872154138792874E-6</v>
       </c>
       <c r="D4">
-        <v>-2.1226336836296651E-5</v>
+        <v>-1.9062973119710871E-5</v>
       </c>
       <c r="E4">
-        <v>1.5374049605945393E-7</v>
+        <v>1.3822949884227545E-7</v>
       </c>
       <c r="F4">
-        <v>2.8389153996971806E-6</v>
+        <v>2.640204109234358E-6</v>
       </c>
       <c r="G4">
-        <v>1.1410820006767553E-5</v>
+        <v>9.7766738120029343E-6</v>
       </c>
       <c r="H4">
-        <v>1.1937423818030859E-6</v>
+        <v>9.6143927009014396E-7</v>
       </c>
       <c r="I4">
-        <v>1.7316657163648878E-7</v>
+        <v>-4.9544946845473878E-8</v>
       </c>
       <c r="J4">
-        <v>2.5682518911711685E-5</v>
+        <v>2.3314436135322763E-5</v>
       </c>
       <c r="K4">
-        <v>-1.699867175415133E-6</v>
+        <v>-1.1616912298507452E-6</v>
       </c>
       <c r="L4">
-        <v>4.8044388551326167E-7</v>
+        <v>7.6493288119831014E-7</v>
       </c>
       <c r="M4">
-        <v>7.4943235546737555E-7</v>
+        <v>7.3832163119799861E-7</v>
       </c>
       <c r="N4">
-        <v>-7.9493183405404395E-7</v>
+        <v>-7.2991716703382087E-8</v>
       </c>
       <c r="O4">
-        <v>8.9683883602154459E-7</v>
+        <v>8.3236984471848484E-7</v>
       </c>
       <c r="P4">
-        <v>3.0757282645712679E-6</v>
+        <v>2.6441202558922773E-6</v>
       </c>
       <c r="Q4">
-        <v>-2.8938401311844161E-6</v>
+        <v>-2.7559592374219526E-6</v>
       </c>
       <c r="R4">
-        <v>-1.6945935457761147E-6</v>
+        <v>-1.5018339150614599E-6</v>
       </c>
       <c r="S4">
-        <v>-1.2932031001995842E-6</v>
+        <v>-1.2685508911801553E-6</v>
       </c>
       <c r="T4">
-        <v>-3.7611036375245944E-6</v>
+        <v>-3.5253048173679993E-6</v>
       </c>
       <c r="U4">
-        <v>7.0947291537163046E-8</v>
+        <v>1.1307957269849284E-7</v>
       </c>
       <c r="V4">
-        <v>-1.4970277238094028E-7</v>
+        <v>-3.280179314913418E-7</v>
       </c>
       <c r="W4">
-        <v>1.6962515893617354E-6</v>
+        <v>1.2855788957170195E-6</v>
       </c>
       <c r="X4">
-        <v>6.9984862431739583E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6.2639111567773E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>-5.2769609573459698E-2</v>
+      <c r="B5" s="4">
+        <v>-5.2128542141932965E-2</v>
       </c>
       <c r="C5">
-        <v>-5.3782258888544054E-3</v>
+        <v>-5.0384560641057573E-3</v>
       </c>
       <c r="D5">
-        <v>-3.2200977026142219E-4</v>
+        <v>-3.059462118186352E-4</v>
       </c>
       <c r="E5">
-        <v>2.8389153996971806E-6</v>
+        <v>2.640204109234358E-6</v>
       </c>
       <c r="F5">
-        <v>1.7139319294794671E-2</v>
+        <v>1.6392337108493683E-2</v>
       </c>
       <c r="G5">
-        <v>4.7697677163230376E-3</v>
+        <v>4.4766652568099165E-3</v>
       </c>
       <c r="H5">
-        <v>6.1094335690270517E-4</v>
+        <v>4.0507013544634554E-4</v>
       </c>
       <c r="I5">
-        <v>6.8507007917468967E-4</v>
+        <v>3.7429197340375139E-4</v>
       </c>
       <c r="J5">
-        <v>-2.9531974520717024E-3</v>
+        <v>-2.7369444230536224E-3</v>
       </c>
       <c r="K5">
-        <v>-5.1545261843968771E-4</v>
+        <v>-4.5308247906688859E-4</v>
       </c>
       <c r="L5">
-        <v>2.4529173715185856E-4</v>
+        <v>1.9970437123117361E-4</v>
       </c>
       <c r="M5">
-        <v>3.2065914173381354E-4</v>
+        <v>2.5042433215220089E-4</v>
       </c>
       <c r="N5">
-        <v>1.2962883757312586E-3</v>
+        <v>1.0024272990489251E-3</v>
       </c>
       <c r="O5">
-        <v>7.1439571055820369E-4</v>
+        <v>5.2428158734763963E-4</v>
       </c>
       <c r="P5">
-        <v>-2.1389763440404948E-4</v>
+        <v>-2.645430599695236E-4</v>
       </c>
       <c r="Q5">
-        <v>1.2749372073229898E-3</v>
+        <v>9.4024186133445393E-4</v>
       </c>
       <c r="R5">
-        <v>1.1938176194656487E-4</v>
+        <v>-1.7939162042436953E-4</v>
       </c>
       <c r="S5">
-        <v>-2.687201656583235E-4</v>
+        <v>-3.9126888748946924E-4</v>
       </c>
       <c r="T5">
-        <v>-3.369556243247179E-4</v>
+        <v>-4.923249097664302E-4</v>
       </c>
       <c r="U5">
-        <v>-8.0261800931462804E-5</v>
+        <v>-6.7191372429289801E-5</v>
       </c>
       <c r="V5">
-        <v>2.8647713857398067E-4</v>
+        <v>2.5708866839318958E-4</v>
       </c>
       <c r="W5">
-        <v>2.1360342948670069E-4</v>
+        <v>1.6164523672159131E-4</v>
       </c>
       <c r="X5">
-        <v>1.1962336838040738E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.1818647185510511E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0.66691949800268879</v>
+      <c r="B6" s="4">
+        <v>0.60522173365420662</v>
       </c>
       <c r="C6">
-        <v>-4.1942042224686078E-3</v>
+        <v>-4.0691593122631027E-3</v>
       </c>
       <c r="D6">
-        <v>-1.5847108297270089E-3</v>
+        <v>-1.3521763703389887E-3</v>
       </c>
       <c r="E6">
-        <v>1.1410820006767553E-5</v>
+        <v>9.7766738120029343E-6</v>
       </c>
       <c r="F6">
-        <v>4.7697677163230376E-3</v>
+        <v>4.4766652568099165E-3</v>
       </c>
       <c r="G6">
-        <v>1.3008978357161725E-2</v>
+        <v>1.2506360099524671E-2</v>
       </c>
       <c r="H6">
-        <v>-1.1112876776940995E-4</v>
+        <v>1.0872035746812073E-5</v>
       </c>
       <c r="I6">
-        <v>1.0461685083552712E-4</v>
+        <v>1.2954459987147941E-4</v>
       </c>
       <c r="J6">
-        <v>7.3883900082470991E-4</v>
+        <v>4.2760923420148353E-4</v>
       </c>
       <c r="K6">
-        <v>-2.8125097247012117E-4</v>
+        <v>-3.5507973778009402E-4</v>
       </c>
       <c r="L6">
-        <v>2.6577408629179389E-4</v>
+        <v>3.1025187710442218E-4</v>
       </c>
       <c r="M6">
-        <v>4.661396359661933E-4</v>
+        <v>5.8186064492870681E-4</v>
       </c>
       <c r="N6">
-        <v>2.1697883645753653E-4</v>
+        <v>2.2862239436779314E-4</v>
       </c>
       <c r="O6">
-        <v>2.5187563841354635E-4</v>
+        <v>3.2185068235405546E-4</v>
       </c>
       <c r="P6">
-        <v>2.6084740566713371E-4</v>
+        <v>4.1035737725566906E-4</v>
       </c>
       <c r="Q6">
-        <v>1.5182956852036883E-4</v>
+        <v>1.6436813540821049E-4</v>
       </c>
       <c r="R6">
-        <v>1.9383425685837782E-4</v>
+        <v>1.4278049154539414E-4</v>
       </c>
       <c r="S6">
-        <v>-3.928232583332936E-4</v>
+        <v>-2.5382060313675243E-4</v>
       </c>
       <c r="T6">
-        <v>-5.704415969729074E-4</v>
+        <v>-4.9284608981375812E-4</v>
       </c>
       <c r="U6">
-        <v>-2.3521733328035429E-5</v>
+        <v>-1.9382021228490725E-5</v>
       </c>
       <c r="V6">
-        <v>-1.0624460259007389E-4</v>
+        <v>-6.8036805559256721E-5</v>
       </c>
       <c r="W6">
-        <v>5.0534490995465635E-4</v>
+        <v>4.6339896374456534E-4</v>
       </c>
       <c r="X6">
-        <v>5.4142680783217711E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4.6071116363916753E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>-1.4827711901225196E-2</v>
+      <c r="B7" s="4">
+        <v>-4.0422784764187127E-2</v>
       </c>
       <c r="C7">
-        <v>-8.4128219396590459E-5</v>
+        <v>-2.166880584036808E-4</v>
       </c>
       <c r="D7">
-        <v>-1.5687038334970607E-4</v>
+        <v>-1.2030703866858922E-4</v>
       </c>
       <c r="E7">
-        <v>1.1937423818030859E-6</v>
+        <v>9.6143927009014396E-7</v>
       </c>
       <c r="F7">
-        <v>6.1094335690270517E-4</v>
+        <v>4.0507013544634554E-4</v>
       </c>
       <c r="G7">
-        <v>-1.1112876776940995E-4</v>
+        <v>1.0872035746812073E-5</v>
       </c>
       <c r="H7">
-        <v>6.5979278879292943E-3</v>
+        <v>6.5737785294825279E-3</v>
       </c>
       <c r="I7">
-        <v>6.2961770998528101E-3</v>
+        <v>6.2278332285802731E-3</v>
       </c>
       <c r="J7">
-        <v>1.8292813014928605E-4</v>
+        <v>1.2880360269454903E-4</v>
       </c>
       <c r="K7">
-        <v>-3.3761898681176417E-4</v>
+        <v>-4.2243766605006862E-4</v>
       </c>
       <c r="L7">
-        <v>-1.3898927508314003E-4</v>
+        <v>-6.8248805604730306E-5</v>
       </c>
       <c r="M7">
-        <v>3.1847814431955215E-4</v>
+        <v>3.6540302231420608E-4</v>
       </c>
       <c r="N7">
-        <v>9.0272661903741775E-4</v>
+        <v>8.8248352257172861E-4</v>
       </c>
       <c r="O7">
-        <v>3.2820874842185007E-3</v>
+        <v>3.3111393824396792E-3</v>
       </c>
       <c r="P7">
-        <v>-1.1765117982028605E-4</v>
+        <v>-3.8720272343435247E-5</v>
       </c>
       <c r="Q7">
-        <v>1.9727089280527224E-4</v>
+        <v>2.5398857446594543E-4</v>
       </c>
       <c r="R7">
-        <v>6.287207028677212E-5</v>
+        <v>-1.2078008725447493E-4</v>
       </c>
       <c r="S7">
-        <v>2.3389306922094472E-6</v>
+        <v>4.0223237689096308E-5</v>
       </c>
       <c r="T7">
-        <v>1.9666495703481298E-5</v>
+        <v>9.4736935474828835E-5</v>
       </c>
       <c r="U7">
-        <v>1.4059171899042061E-5</v>
+        <v>1.2395566764093542E-5</v>
       </c>
       <c r="V7">
-        <v>-5.4909673983190342E-6</v>
+        <v>1.2860831907954913E-5</v>
       </c>
       <c r="W7">
-        <v>8.3678429365215481E-5</v>
+        <v>6.8235157832200691E-5</v>
       </c>
       <c r="X7">
-        <v>-1.375212922351321E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-2.6249815077193511E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>-0.2176890745710035</v>
+      <c r="B8" s="4">
+        <v>-0.23957208704694913</v>
       </c>
       <c r="C8">
-        <v>-1.2405207360564191E-4</v>
+        <v>-1.4536888978892559E-4</v>
       </c>
       <c r="D8">
-        <v>-4.7549947153516237E-5</v>
+        <v>-1.6748057346208101E-5</v>
       </c>
       <c r="E8">
-        <v>1.7316657163648878E-7</v>
+        <v>-4.9544946845473878E-8</v>
       </c>
       <c r="F8">
-        <v>6.8507007917468967E-4</v>
+        <v>3.7429197340375139E-4</v>
       </c>
       <c r="G8">
-        <v>1.0461685083552712E-4</v>
+        <v>1.2954459987147941E-4</v>
       </c>
       <c r="H8">
-        <v>6.2961770998528101E-3</v>
+        <v>6.2278332285802731E-3</v>
       </c>
       <c r="I8">
-        <v>8.5039288452713399E-3</v>
+        <v>8.3187636650153586E-3</v>
       </c>
       <c r="J8">
-        <v>1.2690298739198753E-4</v>
+        <v>1.7124789866031481E-4</v>
       </c>
       <c r="K8">
-        <v>-6.3899584278305597E-4</v>
+        <v>-6.7623655337120333E-4</v>
       </c>
       <c r="L8">
-        <v>-2.7477672009393979E-4</v>
+        <v>-2.5889887864784938E-4</v>
       </c>
       <c r="M8">
-        <v>5.0317800037020686E-4</v>
+        <v>4.5431020751478344E-4</v>
       </c>
       <c r="N8">
-        <v>1.1739207617904712E-3</v>
+        <v>1.1504321310121242E-3</v>
       </c>
       <c r="O8">
-        <v>3.6171678351952204E-3</v>
+        <v>3.5582184484146415E-3</v>
       </c>
       <c r="P8">
-        <v>-6.8727755904638018E-5</v>
+        <v>-2.9352034279163234E-5</v>
       </c>
       <c r="Q8">
-        <v>2.3378336011610685E-4</v>
+        <v>2.2665681087008374E-4</v>
       </c>
       <c r="R8">
-        <v>1.200629595780444E-4</v>
+        <v>-1.1577742665973365E-4</v>
       </c>
       <c r="S8">
-        <v>-9.0812877182636434E-5</v>
+        <v>-8.6279396441875291E-5</v>
       </c>
       <c r="T8">
-        <v>-2.5024668369710823E-5</v>
+        <v>-8.8818734363325632E-6</v>
       </c>
       <c r="U8">
-        <v>4.0483140191128195E-5</v>
+        <v>3.176656435179096E-5</v>
       </c>
       <c r="V8">
-        <v>1.8198777258890365E-5</v>
+        <v>4.2851523993659986E-5</v>
       </c>
       <c r="W8">
-        <v>1.1583676151310715E-4</v>
+        <v>1.1291267273797184E-4</v>
       </c>
       <c r="X8">
-        <v>-4.9205882753812491E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-5.6712205715950953E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1.3441539327423324</v>
+      <c r="B9" s="4">
+        <v>1.3713332616074203</v>
       </c>
       <c r="C9">
-        <v>2.6760272573679387E-3</v>
+        <v>2.7793533886539649E-3</v>
       </c>
       <c r="D9">
-        <v>-3.7103393474462731E-3</v>
+        <v>-3.374583836057661E-3</v>
       </c>
       <c r="E9">
-        <v>2.5682518911711685E-5</v>
+        <v>2.3314436135322763E-5</v>
       </c>
       <c r="F9">
-        <v>-2.9531974520717024E-3</v>
+        <v>-2.7369444230536224E-3</v>
       </c>
       <c r="G9">
-        <v>7.3883900082470991E-4</v>
+        <v>4.2760923420148353E-4</v>
       </c>
       <c r="H9">
-        <v>1.8292813014928605E-4</v>
+        <v>1.2880360269454903E-4</v>
       </c>
       <c r="I9">
-        <v>1.2690298739198753E-4</v>
+        <v>1.7124789866031481E-4</v>
       </c>
       <c r="J9">
-        <v>9.6634063021026548E-3</v>
+        <v>9.2310925212973557E-3</v>
       </c>
       <c r="K9">
-        <v>-3.1245754081064316E-4</v>
+        <v>-2.209798693454158E-4</v>
       </c>
       <c r="L9">
-        <v>2.2021433747273188E-4</v>
+        <v>2.3572196629543032E-4</v>
       </c>
       <c r="M9">
-        <v>1.6256558945022988E-4</v>
+        <v>1.3982235156289984E-4</v>
       </c>
       <c r="N9">
-        <v>-2.2349008461519312E-4</v>
+        <v>-1.0278881824818745E-4</v>
       </c>
       <c r="O9">
-        <v>-8.0872778885840435E-7</v>
+        <v>-1.5576676541334891E-5</v>
       </c>
       <c r="P9">
-        <v>7.2915827386469019E-4</v>
+        <v>6.2837717319054638E-4</v>
       </c>
       <c r="Q9">
-        <v>-9.1271173370451736E-4</v>
+        <v>-9.3196830171448156E-4</v>
       </c>
       <c r="R9">
-        <v>1.2971847178312734E-4</v>
+        <v>1.5463866083715444E-5</v>
       </c>
       <c r="S9">
-        <v>1.0152309378044441E-4</v>
+        <v>-4.3249517570238816E-6</v>
       </c>
       <c r="T9">
-        <v>-5.0149951320655438E-4</v>
+        <v>-5.5548646894243913E-4</v>
       </c>
       <c r="U9">
-        <v>1.5812837475493498E-5</v>
+        <v>2.2053213297827494E-5</v>
       </c>
       <c r="V9">
-        <v>-4.2188299647090421E-5</v>
+        <v>-7.8411061894769277E-5</v>
       </c>
       <c r="W9">
-        <v>6.0601987023926884E-4</v>
+        <v>5.3990481069703805E-4</v>
       </c>
       <c r="X9">
-        <v>0.12313134736725684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.11166785825601511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>1.7997510035759424E-2</v>
+      <c r="B10" s="4">
+        <v>1.2607630902177897E-2</v>
       </c>
       <c r="C10">
-        <v>3.9198255142228319E-4</v>
+        <v>5.3453977975668609E-4</v>
       </c>
       <c r="D10">
-        <v>1.9056158645207669E-4</v>
+        <v>1.1888360547385591E-4</v>
       </c>
       <c r="E10">
-        <v>-1.699867175415133E-6</v>
+        <v>-1.1616912298507452E-6</v>
       </c>
       <c r="F10">
-        <v>-5.1545261843968771E-4</v>
+        <v>-4.5308247906688859E-4</v>
       </c>
       <c r="G10">
-        <v>-2.8125097247012117E-4</v>
+        <v>-3.5507973778009402E-4</v>
       </c>
       <c r="H10">
-        <v>-3.3761898681176417E-4</v>
+        <v>-4.2243766605006862E-4</v>
       </c>
       <c r="I10">
-        <v>-6.3899584278305597E-4</v>
+        <v>-6.7623655337120333E-4</v>
       </c>
       <c r="J10">
-        <v>-3.1245754081064316E-4</v>
+        <v>-2.209798693454158E-4</v>
       </c>
       <c r="K10">
-        <v>8.8569726936161587E-3</v>
+        <v>8.5499573260642437E-3</v>
       </c>
       <c r="L10">
-        <v>1.3116079227006017E-4</v>
+        <v>7.9976941357492223E-5</v>
       </c>
       <c r="M10">
-        <v>3.9777446762452959E-3</v>
+        <v>3.5955098312008211E-3</v>
       </c>
       <c r="N10">
-        <v>7.161464102304279E-3</v>
+        <v>6.9505485543036672E-3</v>
       </c>
       <c r="O10">
-        <v>7.4926167685502535E-3</v>
+        <v>7.2175385550005185E-3</v>
       </c>
       <c r="P10">
-        <v>-1.5807874724827334E-3</v>
+        <v>-1.4864714879321559E-3</v>
       </c>
       <c r="Q10">
-        <v>3.215699914226888E-4</v>
+        <v>2.2308026036150022E-4</v>
       </c>
       <c r="R10">
-        <v>-1.2180912457586629E-4</v>
+        <v>-2.3301673196117652E-5</v>
       </c>
       <c r="S10">
-        <v>8.2965265214517614E-5</v>
+        <v>1.2161193148092016E-4</v>
       </c>
       <c r="T10">
-        <v>3.127075983357475E-4</v>
+        <v>3.2327335744251169E-4</v>
       </c>
       <c r="U10">
-        <v>1.0208495175655679E-4</v>
+        <v>9.4999715130550063E-5</v>
       </c>
       <c r="V10">
-        <v>-6.873572121928812E-4</v>
+        <v>-7.0744581087328379E-4</v>
       </c>
       <c r="W10">
-        <v>-5.0039114065333575E-4</v>
+        <v>-5.1888654528458537E-4</v>
       </c>
       <c r="X10">
-        <v>-1.4316265423663418E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1.1601368250058954E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>-3.1075648612347778E-2</v>
+      <c r="B11" s="4">
+        <v>-1.5613660979648848E-2</v>
       </c>
       <c r="C11">
-        <v>-3.1687503605130549E-5</v>
+        <v>-3.3443082325673376E-5</v>
       </c>
       <c r="D11">
-        <v>-7.4786350828682374E-5</v>
+        <v>-1.0824138164551925E-4</v>
       </c>
       <c r="E11">
-        <v>4.8044388551326167E-7</v>
+        <v>7.6493288119831014E-7</v>
       </c>
       <c r="F11">
-        <v>2.4529173715185856E-4</v>
+        <v>1.9970437123117361E-4</v>
       </c>
       <c r="G11">
-        <v>2.6577408629179389E-4</v>
+        <v>3.1025187710442218E-4</v>
       </c>
       <c r="H11">
-        <v>-1.3898927508314003E-4</v>
+        <v>-6.8248805604730306E-5</v>
       </c>
       <c r="I11">
-        <v>-2.7477672009393979E-4</v>
+        <v>-2.5889887864784938E-4</v>
       </c>
       <c r="J11">
-        <v>2.2021433747273188E-4</v>
+        <v>2.3572196629543032E-4</v>
       </c>
       <c r="K11">
-        <v>1.3116079227006017E-4</v>
+        <v>7.9976941357492223E-5</v>
       </c>
       <c r="L11">
-        <v>3.0019700267165323E-3</v>
+        <v>2.8754122856715137E-3</v>
       </c>
       <c r="M11">
-        <v>1.5828749624631725E-3</v>
+        <v>1.5691852073724702E-3</v>
       </c>
       <c r="N11">
-        <v>1.6031831730564116E-3</v>
+        <v>1.5701092234463073E-3</v>
       </c>
       <c r="O11">
-        <v>1.5375262722162478E-3</v>
+        <v>1.5259198445178499E-3</v>
       </c>
       <c r="P11">
-        <v>-5.631719670858308E-5</v>
+        <v>-1.2556718812812813E-4</v>
       </c>
       <c r="Q11">
-        <v>1.2848823989193543E-4</v>
+        <v>-4.872163071046779E-5</v>
       </c>
       <c r="R11">
-        <v>1.0865390190596609E-4</v>
+        <v>-1.7860889959046418E-4</v>
       </c>
       <c r="S11">
-        <v>5.2962366395451128E-5</v>
+        <v>-4.7147523527069069E-5</v>
       </c>
       <c r="T11">
-        <v>4.8473213451991022E-5</v>
+        <v>-2.4625772987051109E-4</v>
       </c>
       <c r="U11">
-        <v>-2.5766781289043895E-5</v>
+        <v>-1.3387814879522479E-5</v>
       </c>
       <c r="V11">
-        <v>1.5830159865196935E-4</v>
+        <v>1.3475971650877148E-4</v>
       </c>
       <c r="W11">
-        <v>1.7887850421602922E-4</v>
+        <v>1.3497348424807695E-4</v>
       </c>
       <c r="X11">
-        <v>1.5094000418874008E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2.4392711319369828E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>0.20741287307070438</v>
+      <c r="B12" s="4">
+        <v>0.19848529360381154</v>
       </c>
       <c r="C12">
-        <v>-6.9564620122074413E-4</v>
+        <v>-6.7003445587537967E-4</v>
       </c>
       <c r="D12">
-        <v>-8.9801277143390298E-5</v>
+        <v>-8.5712657421799232E-5</v>
       </c>
       <c r="E12">
-        <v>7.4943235546737555E-7</v>
+        <v>7.3832163119799861E-7</v>
       </c>
       <c r="F12">
-        <v>3.2065914173381354E-4</v>
+        <v>2.5042433215220089E-4</v>
       </c>
       <c r="G12">
-        <v>4.661396359661933E-4</v>
+        <v>5.8186064492870681E-4</v>
       </c>
       <c r="H12">
-        <v>3.1847814431955215E-4</v>
+        <v>3.6540302231420608E-4</v>
       </c>
       <c r="I12">
-        <v>5.0317800037020686E-4</v>
+        <v>4.5431020751478344E-4</v>
       </c>
       <c r="J12">
-        <v>1.6256558945022988E-4</v>
+        <v>1.3982235156289984E-4</v>
       </c>
       <c r="K12">
-        <v>3.9777446762452959E-3</v>
+        <v>3.5955098312008211E-3</v>
       </c>
       <c r="L12">
-        <v>1.5828749624631725E-3</v>
+        <v>1.5691852073724702E-3</v>
       </c>
       <c r="M12">
-        <v>6.5850692451127468E-3</v>
+        <v>6.1812112314952837E-3</v>
       </c>
       <c r="N12">
-        <v>5.736822474925761E-3</v>
+        <v>5.3334927560421659E-3</v>
       </c>
       <c r="O12">
-        <v>6.0488072933918783E-3</v>
+        <v>5.6185749146544593E-3</v>
       </c>
       <c r="P12">
-        <v>9.8338544572999277E-5</v>
+        <v>1.0275816612004892E-4</v>
       </c>
       <c r="Q12">
-        <v>9.1463912598182965E-5</v>
+        <v>-1.1719781908737939E-5</v>
       </c>
       <c r="R12">
-        <v>-3.2035131985934774E-4</v>
+        <v>-4.4692338083159922E-4</v>
       </c>
       <c r="S12">
-        <v>-2.3761039940304804E-4</v>
+        <v>-1.7130172425924655E-4</v>
       </c>
       <c r="T12">
-        <v>-2.3603739587214727E-4</v>
+        <v>-3.0007845183591922E-4</v>
       </c>
       <c r="U12">
-        <v>5.3009710613449886E-6</v>
+        <v>1.2734186791591198E-5</v>
       </c>
       <c r="V12">
-        <v>1.1668934347416231E-4</v>
+        <v>1.1351065316654926E-4</v>
       </c>
       <c r="W12">
-        <v>-1.7580873862736409E-4</v>
+        <v>-1.8324746819081607E-4</v>
       </c>
       <c r="X12">
-        <v>-3.3403694975599474E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-3.2262296051129014E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>1.9538272936224801E-2</v>
+      <c r="B13" s="4">
+        <v>-3.8473522180836529E-2</v>
       </c>
       <c r="C13">
-        <v>-3.041829037217763E-4</v>
+        <v>-1.007635141395723E-4</v>
       </c>
       <c r="D13">
-        <v>1.4769397582579252E-4</v>
+        <v>4.6125006345605624E-5</v>
       </c>
       <c r="E13">
-        <v>-7.9493183405404395E-7</v>
+        <v>-7.2991716703382087E-8</v>
       </c>
       <c r="F13">
-        <v>1.2962883757312586E-3</v>
+        <v>1.0024272990489251E-3</v>
       </c>
       <c r="G13">
-        <v>2.1697883645753653E-4</v>
+        <v>2.2862239436779314E-4</v>
       </c>
       <c r="H13">
-        <v>9.0272661903741775E-4</v>
+        <v>8.8248352257172861E-4</v>
       </c>
       <c r="I13">
-        <v>1.1739207617904712E-3</v>
+        <v>1.1504321310121242E-3</v>
       </c>
       <c r="J13">
-        <v>-2.2349008461519312E-4</v>
+        <v>-1.0278881824818745E-4</v>
       </c>
       <c r="K13">
-        <v>7.161464102304279E-3</v>
+        <v>6.9505485543036672E-3</v>
       </c>
       <c r="L13">
-        <v>1.6031831730564116E-3</v>
+        <v>1.5701092234463073E-3</v>
       </c>
       <c r="M13">
-        <v>5.736822474925761E-3</v>
+        <v>5.3334927560421659E-3</v>
       </c>
       <c r="N13">
-        <v>1.211603911918605E-2</v>
+        <v>1.1860552869408091E-2</v>
       </c>
       <c r="O13">
-        <v>9.6860934630726599E-3</v>
+        <v>9.4089621490571831E-3</v>
       </c>
       <c r="P13">
-        <v>-4.3335710076920038E-5</v>
+        <v>-6.3111305203984508E-5</v>
       </c>
       <c r="Q13">
-        <v>4.8666737179154816E-4</v>
+        <v>3.1750621008889502E-4</v>
       </c>
       <c r="R13">
-        <v>-4.9033344105423819E-4</v>
+        <v>-6.308234092147545E-4</v>
       </c>
       <c r="S13">
-        <v>3.3776485892773184E-5</v>
+        <v>7.2770574409259953E-5</v>
       </c>
       <c r="T13">
-        <v>-2.5649831239308056E-5</v>
+        <v>-1.8518667670996172E-4</v>
       </c>
       <c r="U13">
-        <v>-1.7459538060697475E-5</v>
+        <v>-1.4024374543686173E-5</v>
       </c>
       <c r="V13">
-        <v>-4.125648761916104E-4</v>
+        <v>-4.4745405114244023E-4</v>
       </c>
       <c r="W13">
-        <v>-1.259588145052842E-4</v>
+        <v>-1.3694059966879672E-4</v>
       </c>
       <c r="X13">
-        <v>-1.5486013395481835E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1.1761518820162215E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>-0.1054165170294729</v>
+      <c r="B14" s="4">
+        <v>-0.16438585626479282</v>
       </c>
       <c r="C14">
-        <v>-3.5021509570169621E-4</v>
+        <v>-2.919662186859997E-4</v>
       </c>
       <c r="D14">
-        <v>-9.6368787700598646E-5</v>
+        <v>-8.4638066596465916E-5</v>
       </c>
       <c r="E14">
-        <v>8.9683883602154459E-7</v>
+        <v>8.3236984471848484E-7</v>
       </c>
       <c r="F14">
-        <v>7.1439571055820369E-4</v>
+        <v>5.2428158734763963E-4</v>
       </c>
       <c r="G14">
-        <v>2.5187563841354635E-4</v>
+        <v>3.2185068235405546E-4</v>
       </c>
       <c r="H14">
-        <v>3.2820874842185007E-3</v>
+        <v>3.3111393824396792E-3</v>
       </c>
       <c r="I14">
-        <v>3.6171678351952204E-3</v>
+        <v>3.5582184484146415E-3</v>
       </c>
       <c r="J14">
-        <v>-8.0872778885840435E-7</v>
+        <v>-1.5576676541334891E-5</v>
       </c>
       <c r="K14">
-        <v>7.4926167685502535E-3</v>
+        <v>7.2175385550005185E-3</v>
       </c>
       <c r="L14">
-        <v>1.5375262722162478E-3</v>
+        <v>1.5259198445178499E-3</v>
       </c>
       <c r="M14">
-        <v>6.0488072933918783E-3</v>
+        <v>5.6185749146544593E-3</v>
       </c>
       <c r="N14">
-        <v>9.6860934630726599E-3</v>
+        <v>9.4089621490571831E-3</v>
       </c>
       <c r="O14">
-        <v>1.5501240945876404E-2</v>
+        <v>1.5185948170998206E-2</v>
       </c>
       <c r="P14">
-        <v>-9.595164708949992E-5</v>
+        <v>-9.407348772804509E-5</v>
       </c>
       <c r="Q14">
-        <v>3.0837631466856504E-4</v>
+        <v>2.2028438066903043E-4</v>
       </c>
       <c r="R14">
-        <v>-3.578430166608533E-4</v>
+        <v>-5.4323179441411297E-4</v>
       </c>
       <c r="S14">
-        <v>-9.8149598666172691E-5</v>
+        <v>7.2240279106912386E-6</v>
       </c>
       <c r="T14">
-        <v>-2.2706009558987657E-5</v>
+        <v>-4.683785720037306E-5</v>
       </c>
       <c r="U14">
-        <v>4.959420075112029E-6</v>
+        <v>6.8723960946877544E-6</v>
       </c>
       <c r="V14">
-        <v>-4.000148450884998E-4</v>
+        <v>-4.1979558071600273E-4</v>
       </c>
       <c r="W14">
-        <v>-1.2196581718429411E-4</v>
+        <v>-1.9378265246653131E-4</v>
       </c>
       <c r="X14">
-        <v>-9.9903396428518421E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1.0150647378425581E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>0.15045070597939522</v>
+      <c r="B15" s="4">
+        <v>0.10258447425811626</v>
       </c>
       <c r="C15">
-        <v>-6.4065031438263395E-4</v>
+        <v>-7.3729330965413564E-4</v>
       </c>
       <c r="D15">
-        <v>-3.9430331967277516E-4</v>
+        <v>-3.3552286101339382E-4</v>
       </c>
       <c r="E15">
-        <v>3.0757282645712679E-6</v>
+        <v>2.6441202558922773E-6</v>
       </c>
       <c r="F15">
-        <v>-2.1389763440404948E-4</v>
+        <v>-2.645430599695236E-4</v>
       </c>
       <c r="G15">
-        <v>2.6084740566713371E-4</v>
+        <v>4.1035737725566906E-4</v>
       </c>
       <c r="H15">
-        <v>-1.1765117982028605E-4</v>
+        <v>-3.8720272343435247E-5</v>
       </c>
       <c r="I15">
-        <v>-6.8727755904638018E-5</v>
+        <v>-2.9352034279163234E-5</v>
       </c>
       <c r="J15">
-        <v>7.2915827386469019E-4</v>
+        <v>6.2837717319054638E-4</v>
       </c>
       <c r="K15">
-        <v>-1.5807874724827334E-3</v>
+        <v>-1.4864714879321559E-3</v>
       </c>
       <c r="L15">
-        <v>-5.631719670858308E-5</v>
+        <v>-1.2556718812812813E-4</v>
       </c>
       <c r="M15">
-        <v>9.8338544572999277E-5</v>
+        <v>1.0275816612004892E-4</v>
       </c>
       <c r="N15">
-        <v>-4.3335710076920038E-5</v>
+        <v>-6.3111305203984508E-5</v>
       </c>
       <c r="O15">
-        <v>-9.595164708949992E-5</v>
+        <v>-9.407348772804509E-5</v>
       </c>
       <c r="P15">
-        <v>3.8747933394425319E-3</v>
+        <v>3.8210699543895672E-3</v>
       </c>
       <c r="Q15">
-        <v>-8.69170225949932E-6</v>
+        <v>5.2467963386592476E-5</v>
       </c>
       <c r="R15">
-        <v>1.7220323129332719E-4</v>
+        <v>1.1735055235365157E-4</v>
       </c>
       <c r="S15">
-        <v>1.6870099023357611E-4</v>
+        <v>2.3317194248204166E-4</v>
       </c>
       <c r="T15">
-        <v>-1.3798804099159154E-4</v>
+        <v>-1.035397939375107E-4</v>
       </c>
       <c r="U15">
-        <v>-3.8677842650075092E-5</v>
+        <v>-3.8382763701092247E-5</v>
       </c>
       <c r="V15">
-        <v>2.3762019357763338E-4</v>
+        <v>2.4276933087230245E-4</v>
       </c>
       <c r="W15">
-        <v>1.4447808283777979E-4</v>
+        <v>1.7973121089049119E-4</v>
       </c>
       <c r="X15">
-        <v>1.3070286186235524E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.1105535904864475E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>6.9976335996263656E-2</v>
+      <c r="B16" s="4">
+        <v>3.2911186249394861E-2</v>
       </c>
       <c r="C16">
-        <v>-4.4198315089971369E-4</v>
+        <v>-4.9601233451125864E-4</v>
       </c>
       <c r="D16">
-        <v>4.0924230923189767E-4</v>
+        <v>3.9125069275913055E-4</v>
       </c>
       <c r="E16">
-        <v>-2.8938401311844161E-6</v>
+        <v>-2.7559592374219526E-6</v>
       </c>
       <c r="F16">
-        <v>1.2749372073229898E-3</v>
+        <v>9.4024186133445393E-4</v>
       </c>
       <c r="G16">
-        <v>1.5182956852036883E-4</v>
+        <v>1.6436813540821049E-4</v>
       </c>
       <c r="H16">
-        <v>1.9727089280527224E-4</v>
+        <v>2.5398857446594543E-4</v>
       </c>
       <c r="I16">
-        <v>2.3378336011610685E-4</v>
+        <v>2.2665681087008374E-4</v>
       </c>
       <c r="J16">
-        <v>-9.1271173370451736E-4</v>
+        <v>-9.3196830171448156E-4</v>
       </c>
       <c r="K16">
-        <v>3.215699914226888E-4</v>
+        <v>2.2308026036150022E-4</v>
       </c>
       <c r="L16">
-        <v>1.2848823989193543E-4</v>
+        <v>-4.872163071046779E-5</v>
       </c>
       <c r="M16">
-        <v>9.1463912598182965E-5</v>
+        <v>-1.1719781908737939E-5</v>
       </c>
       <c r="N16">
-        <v>4.8666737179154816E-4</v>
+        <v>3.1750621008889502E-4</v>
       </c>
       <c r="O16">
-        <v>3.0837631466856504E-4</v>
+        <v>2.2028438066903043E-4</v>
       </c>
       <c r="P16">
-        <v>-8.69170225949932E-6</v>
+        <v>5.2467963386592476E-5</v>
       </c>
       <c r="Q16">
-        <v>4.8414265249517776E-3</v>
+        <v>4.5688696659614992E-3</v>
       </c>
       <c r="R16">
-        <v>2.3822380602463006E-3</v>
+        <v>2.2143310057736471E-3</v>
       </c>
       <c r="S16">
-        <v>2.4058936477079078E-3</v>
+        <v>2.2332507293568067E-3</v>
       </c>
       <c r="T16">
-        <v>2.4274322487400279E-3</v>
+        <v>2.248053178602051E-3</v>
       </c>
       <c r="U16">
-        <v>1.2413103834094115E-5</v>
+        <v>6.666626220247556E-6</v>
       </c>
       <c r="V16">
-        <v>-6.3071463053080437E-5</v>
+        <v>-4.9166725931119886E-5</v>
       </c>
       <c r="W16">
-        <v>-1.6356510795768108E-4</v>
+        <v>-1.4968952922055832E-4</v>
       </c>
       <c r="X16">
-        <v>-1.6629976869968179E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1.5614322326096533E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>0.16062363500117935</v>
+      <c r="B17" s="4">
+        <v>0.13708443272794865</v>
       </c>
       <c r="C17">
-        <v>-1.7636704690959532E-4</v>
+        <v>-1.2892260565320213E-4</v>
       </c>
       <c r="D17">
-        <v>2.1569564486073264E-4</v>
+        <v>1.865269398708333E-4</v>
       </c>
       <c r="E17">
-        <v>-1.6945935457761147E-6</v>
+        <v>-1.5018339150614599E-6</v>
       </c>
       <c r="F17">
-        <v>1.1938176194656487E-4</v>
+        <v>-1.7939162042436953E-4</v>
       </c>
       <c r="G17">
-        <v>1.9383425685837782E-4</v>
+        <v>1.4278049154539414E-4</v>
       </c>
       <c r="H17">
-        <v>6.287207028677212E-5</v>
+        <v>-1.2078008725447493E-4</v>
       </c>
       <c r="I17">
-        <v>1.200629595780444E-4</v>
+        <v>-1.1577742665973365E-4</v>
       </c>
       <c r="J17">
-        <v>1.2971847178312734E-4</v>
+        <v>1.5463866083715444E-5</v>
       </c>
       <c r="K17">
-        <v>-1.2180912457586629E-4</v>
+        <v>-2.3301673196117652E-5</v>
       </c>
       <c r="L17">
-        <v>1.0865390190596609E-4</v>
+        <v>-1.7860889959046418E-4</v>
       </c>
       <c r="M17">
-        <v>-3.2035131985934774E-4</v>
+        <v>-4.4692338083159922E-4</v>
       </c>
       <c r="N17">
-        <v>-4.9033344105423819E-4</v>
+        <v>-6.308234092147545E-4</v>
       </c>
       <c r="O17">
-        <v>-3.578430166608533E-4</v>
+        <v>-5.4323179441411297E-4</v>
       </c>
       <c r="P17">
-        <v>1.7220323129332719E-4</v>
+        <v>1.1735055235365157E-4</v>
       </c>
       <c r="Q17">
-        <v>2.3822380602463006E-3</v>
+        <v>2.2143310057736471E-3</v>
       </c>
       <c r="R17">
-        <v>5.9027034608818609E-3</v>
+        <v>5.6908451537292576E-3</v>
       </c>
       <c r="S17">
-        <v>2.4481989576556917E-3</v>
+        <v>2.2693203952862673E-3</v>
       </c>
       <c r="T17">
-        <v>2.5062717548248749E-3</v>
+        <v>2.3137195835338659E-3</v>
       </c>
       <c r="U17">
-        <v>-1.0864254283837821E-5</v>
+        <v>-1.1435547053538426E-5</v>
       </c>
       <c r="V17">
-        <v>1.8863021433051928E-4</v>
+        <v>1.520968128463585E-4</v>
       </c>
       <c r="W17">
-        <v>1.7591633951910399E-4</v>
+        <v>1.6454356707696767E-4</v>
       </c>
       <c r="X17">
-        <v>-9.0345843854489766E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-7.4023172121851725E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <v>7.0163655966846233E-2</v>
+      <c r="B18" s="4">
+        <v>2.0460406608666652E-2</v>
       </c>
       <c r="C18">
-        <v>-1.1553861672028952E-5</v>
+        <v>-1.3266363899576677E-4</v>
       </c>
       <c r="D18">
-        <v>1.5420726809141708E-4</v>
+        <v>1.5372246298674119E-4</v>
       </c>
       <c r="E18">
-        <v>-1.2932031001995842E-6</v>
+        <v>-1.2685508911801553E-6</v>
       </c>
       <c r="F18">
-        <v>-2.687201656583235E-4</v>
+        <v>-3.9126888748946924E-4</v>
       </c>
       <c r="G18">
-        <v>-3.928232583332936E-4</v>
+        <v>-2.5382060313675243E-4</v>
       </c>
       <c r="H18">
-        <v>2.3389306922094472E-6</v>
+        <v>4.0223237689096308E-5</v>
       </c>
       <c r="I18">
-        <v>-9.0812877182636434E-5</v>
+        <v>-8.6279396441875291E-5</v>
       </c>
       <c r="J18">
-        <v>1.0152309378044441E-4</v>
+        <v>-4.3249517570238816E-6</v>
       </c>
       <c r="K18">
-        <v>8.2965265214517614E-5</v>
+        <v>1.2161193148092016E-4</v>
       </c>
       <c r="L18">
-        <v>5.2962366395451128E-5</v>
+        <v>-4.7147523527069069E-5</v>
       </c>
       <c r="M18">
-        <v>-2.3761039940304804E-4</v>
+        <v>-1.7130172425924655E-4</v>
       </c>
       <c r="N18">
-        <v>3.3776485892773184E-5</v>
+        <v>7.2770574409259953E-5</v>
       </c>
       <c r="O18">
-        <v>-9.8149598666172691E-5</v>
+        <v>7.2240279106912386E-6</v>
       </c>
       <c r="P18">
-        <v>1.6870099023357611E-4</v>
+        <v>2.3317194248204166E-4</v>
       </c>
       <c r="Q18">
-        <v>2.4058936477079078E-3</v>
+        <v>2.2332507293568067E-3</v>
       </c>
       <c r="R18">
-        <v>2.4481989576556917E-3</v>
+        <v>2.2693203952862673E-3</v>
       </c>
       <c r="S18">
-        <v>4.8688882780806896E-3</v>
+        <v>4.6510482336836207E-3</v>
       </c>
       <c r="T18">
-        <v>2.4726939992511443E-3</v>
+        <v>2.2897702248369182E-3</v>
       </c>
       <c r="U18">
-        <v>1.2480717813687917E-5</v>
+        <v>3.401977520582654E-6</v>
       </c>
       <c r="V18">
-        <v>6.4746330478943493E-5</v>
+        <v>7.2243824530878001E-5</v>
       </c>
       <c r="W18">
-        <v>-1.1283143403084401E-4</v>
+        <v>-8.1075055758233865E-5</v>
       </c>
       <c r="X18">
-        <v>-7.176040361044779E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-6.8707003913078338E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
-        <v>0.25132385552176945</v>
+      <c r="B19" s="4">
+        <v>0.22130593702114376</v>
       </c>
       <c r="C19">
-        <v>-1.5036897483256548E-4</v>
+        <v>-2.2851379501852374E-4</v>
       </c>
       <c r="D19">
-        <v>5.2183238783416394E-4</v>
+        <v>4.8982123290420426E-4</v>
       </c>
       <c r="E19">
-        <v>-3.7611036375245944E-6</v>
+        <v>-3.5253048173679993E-6</v>
       </c>
       <c r="F19">
-        <v>-3.369556243247179E-4</v>
+        <v>-4.923249097664302E-4</v>
       </c>
       <c r="G19">
-        <v>-5.704415969729074E-4</v>
+        <v>-4.9284608981375812E-4</v>
       </c>
       <c r="H19">
-        <v>1.9666495703481298E-5</v>
+        <v>9.4736935474828835E-5</v>
       </c>
       <c r="I19">
-        <v>-2.5024668369710823E-5</v>
+        <v>-8.8818734363325632E-6</v>
       </c>
       <c r="J19">
-        <v>-5.0149951320655438E-4</v>
+        <v>-5.5548646894243913E-4</v>
       </c>
       <c r="K19">
-        <v>3.127075983357475E-4</v>
+        <v>3.2327335744251169E-4</v>
       </c>
       <c r="L19">
-        <v>4.8473213451991022E-5</v>
+        <v>-2.4625772987051109E-4</v>
       </c>
       <c r="M19">
-        <v>-2.3603739587214727E-4</v>
+        <v>-3.0007845183591922E-4</v>
       </c>
       <c r="N19">
-        <v>-2.5649831239308056E-5</v>
+        <v>-1.8518667670996172E-4</v>
       </c>
       <c r="O19">
-        <v>-2.2706009558987657E-5</v>
+        <v>-4.683785720037306E-5</v>
       </c>
       <c r="P19">
-        <v>-1.3798804099159154E-4</v>
+        <v>-1.035397939375107E-4</v>
       </c>
       <c r="Q19">
-        <v>2.4274322487400279E-3</v>
+        <v>2.248053178602051E-3</v>
       </c>
       <c r="R19">
-        <v>2.5062717548248749E-3</v>
+        <v>2.3137195835338659E-3</v>
       </c>
       <c r="S19">
-        <v>2.4726939992511443E-3</v>
+        <v>2.2897702248369182E-3</v>
       </c>
       <c r="T19">
-        <v>3.8090639079198063E-3</v>
+        <v>3.5991242894419066E-3</v>
       </c>
       <c r="U19">
-        <v>2.6381944098205284E-6</v>
+        <v>-3.275367712241693E-6</v>
       </c>
       <c r="V19">
-        <v>1.6012019342522335E-4</v>
+        <v>1.6549537472598569E-4</v>
       </c>
       <c r="W19">
-        <v>-4.3271715811346069E-5</v>
+        <v>-2.4440428472013434E-5</v>
       </c>
       <c r="X19">
-        <v>-2.0059236757671399E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1.8584910153318594E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>4.1084092688520306E-2</v>
+      <c r="B20" s="4">
+        <v>4.4667027955581126E-2</v>
       </c>
       <c r="C20">
-        <v>-1.0933655844851434E-5</v>
+        <v>-9.9323017297451514E-6</v>
       </c>
       <c r="D20">
-        <v>-9.6439449084550176E-6</v>
+        <v>-1.5254634749021058E-5</v>
       </c>
       <c r="E20">
-        <v>7.0947291537163046E-8</v>
+        <v>1.1307957269849284E-7</v>
       </c>
       <c r="F20">
-        <v>-8.0261800931462804E-5</v>
+        <v>-6.7191372429289801E-5</v>
       </c>
       <c r="G20">
-        <v>-2.3521733328035429E-5</v>
+        <v>-1.9382021228490725E-5</v>
       </c>
       <c r="H20">
-        <v>1.4059171899042061E-5</v>
+        <v>1.2395566764093542E-5</v>
       </c>
       <c r="I20">
-        <v>4.0483140191128195E-5</v>
+        <v>3.176656435179096E-5</v>
       </c>
       <c r="J20">
-        <v>1.5812837475493498E-5</v>
+        <v>2.2053213297827494E-5</v>
       </c>
       <c r="K20">
-        <v>1.0208495175655679E-4</v>
+        <v>9.4999715130550063E-5</v>
       </c>
       <c r="L20">
-        <v>-2.5766781289043895E-5</v>
+        <v>-1.3387814879522479E-5</v>
       </c>
       <c r="M20">
-        <v>5.3009710613449886E-6</v>
+        <v>1.2734186791591198E-5</v>
       </c>
       <c r="N20">
-        <v>-1.7459538060697475E-5</v>
+        <v>-1.4024374543686173E-5</v>
       </c>
       <c r="O20">
-        <v>4.959420075112029E-6</v>
+        <v>6.8723960946877544E-6</v>
       </c>
       <c r="P20">
-        <v>-3.8677842650075092E-5</v>
+        <v>-3.8382763701092247E-5</v>
       </c>
       <c r="Q20">
-        <v>1.2413103834094115E-5</v>
+        <v>6.666626220247556E-6</v>
       </c>
       <c r="R20">
-        <v>-1.0864254283837821E-5</v>
+        <v>-1.1435547053538426E-5</v>
       </c>
       <c r="S20">
-        <v>1.2480717813687917E-5</v>
+        <v>3.401977520582654E-6</v>
       </c>
       <c r="T20">
-        <v>2.6381944098205284E-6</v>
+        <v>-3.275367712241693E-6</v>
       </c>
       <c r="U20">
-        <v>4.1993482802318431E-5</v>
+        <v>4.0111923499208057E-5</v>
       </c>
       <c r="V20">
-        <v>-1.1677838435667158E-4</v>
+        <v>-1.1086397759562282E-4</v>
       </c>
       <c r="W20">
-        <v>-1.5781038485098591E-4</v>
+        <v>-1.5018242474997115E-4</v>
       </c>
       <c r="X20">
-        <v>-4.7373482392129747E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-2.578254835864692E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>0.1134041474749661</v>
+      <c r="B21" s="4">
+        <v>8.2461019493917723E-2</v>
       </c>
       <c r="C21">
-        <v>-1.5779986806796703E-4</v>
+        <v>-1.9632678899723314E-4</v>
       </c>
       <c r="D21">
-        <v>2.4784569432044837E-5</v>
+        <v>4.9161559608887698E-5</v>
       </c>
       <c r="E21">
-        <v>-1.4970277238094028E-7</v>
+        <v>-3.280179314913418E-7</v>
       </c>
       <c r="F21">
-        <v>2.8647713857398067E-4</v>
+        <v>2.5708866839318958E-4</v>
       </c>
       <c r="G21">
-        <v>-1.0624460259007389E-4</v>
+        <v>-6.8036805559256721E-5</v>
       </c>
       <c r="H21">
-        <v>-5.4909673983190342E-6</v>
+        <v>1.2860831907954913E-5</v>
       </c>
       <c r="I21">
-        <v>1.8198777258890365E-5</v>
+        <v>4.2851523993659986E-5</v>
       </c>
       <c r="J21">
-        <v>-4.2188299647090421E-5</v>
+        <v>-7.8411061894769277E-5</v>
       </c>
       <c r="K21">
-        <v>-6.873572121928812E-4</v>
+        <v>-7.0744581087328379E-4</v>
       </c>
       <c r="L21">
-        <v>1.5830159865196935E-4</v>
+        <v>1.3475971650877148E-4</v>
       </c>
       <c r="M21">
-        <v>1.1668934347416231E-4</v>
+        <v>1.1351065316654926E-4</v>
       </c>
       <c r="N21">
-        <v>-4.125648761916104E-4</v>
+        <v>-4.4745405114244023E-4</v>
       </c>
       <c r="O21">
-        <v>-4.000148450884998E-4</v>
+        <v>-4.1979558071600273E-4</v>
       </c>
       <c r="P21">
-        <v>2.3762019357763338E-4</v>
+        <v>2.4276933087230245E-4</v>
       </c>
       <c r="Q21">
-        <v>-6.3071463053080437E-5</v>
+        <v>-4.9166725931119886E-5</v>
       </c>
       <c r="R21">
-        <v>1.8863021433051928E-4</v>
+        <v>1.520968128463585E-4</v>
       </c>
       <c r="S21">
-        <v>6.4746330478943493E-5</v>
+        <v>7.2243824530878001E-5</v>
       </c>
       <c r="T21">
-        <v>1.6012019342522335E-4</v>
+        <v>1.6549537472598569E-4</v>
       </c>
       <c r="U21">
-        <v>-1.1677838435667158E-4</v>
+        <v>-1.1086397759562282E-4</v>
       </c>
       <c r="V21">
-        <v>5.076968666344198E-3</v>
+        <v>4.9434164962082429E-3</v>
       </c>
       <c r="W21">
-        <v>1.0204154252839821E-3</v>
+        <v>9.8854685499960874E-4</v>
       </c>
       <c r="X21">
-        <v>8.5377641150363032E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6.8812576378765589E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>0.30423179005339462</v>
+      <c r="B22" s="4">
+        <v>0.29838404203847918</v>
       </c>
       <c r="C22">
-        <v>7.3166482490101201E-5</v>
+        <v>2.0660432482901524E-5</v>
       </c>
       <c r="D22">
-        <v>-2.415211819462651E-4</v>
+        <v>-1.8329664107776672E-4</v>
       </c>
       <c r="E22">
-        <v>1.6962515893617354E-6</v>
+        <v>1.2855788957170195E-6</v>
       </c>
       <c r="F22">
-        <v>2.1360342948670069E-4</v>
+        <v>1.6164523672159131E-4</v>
       </c>
       <c r="G22">
-        <v>5.0534490995465635E-4</v>
+        <v>4.6339896374456534E-4</v>
       </c>
       <c r="H22">
-        <v>8.3678429365215481E-5</v>
+        <v>6.8235157832200691E-5</v>
       </c>
       <c r="I22">
-        <v>1.1583676151310715E-4</v>
+        <v>1.1291267273797184E-4</v>
       </c>
       <c r="J22">
-        <v>6.0601987023926884E-4</v>
+        <v>5.3990481069703805E-4</v>
       </c>
       <c r="K22">
-        <v>-5.0039114065333575E-4</v>
+        <v>-5.1888654528458537E-4</v>
       </c>
       <c r="L22">
-        <v>1.7887850421602922E-4</v>
+        <v>1.3497348424807695E-4</v>
       </c>
       <c r="M22">
-        <v>-1.7580873862736409E-4</v>
+        <v>-1.8324746819081607E-4</v>
       </c>
       <c r="N22">
-        <v>-1.259588145052842E-4</v>
+        <v>-1.3694059966879672E-4</v>
       </c>
       <c r="O22">
-        <v>-1.2196581718429411E-4</v>
+        <v>-1.9378265246653131E-4</v>
       </c>
       <c r="P22">
-        <v>1.4447808283777979E-4</v>
+        <v>1.7973121089049119E-4</v>
       </c>
       <c r="Q22">
-        <v>-1.6356510795768108E-4</v>
+        <v>-1.4968952922055832E-4</v>
       </c>
       <c r="R22">
-        <v>1.7591633951910399E-4</v>
+        <v>1.6454356707696767E-4</v>
       </c>
       <c r="S22">
-        <v>-1.1283143403084401E-4</v>
+        <v>-8.1075055758233865E-5</v>
       </c>
       <c r="T22">
-        <v>-4.3271715811346069E-5</v>
+        <v>-2.4440428472013434E-5</v>
       </c>
       <c r="U22">
-        <v>-1.5781038485098591E-4</v>
+        <v>-1.5018242474997115E-4</v>
       </c>
       <c r="V22">
-        <v>1.0204154252839821E-3</v>
+        <v>9.8854685499960874E-4</v>
       </c>
       <c r="W22">
-        <v>4.5059866978433751E-3</v>
+        <v>4.3051970237740003E-3</v>
       </c>
       <c r="X22">
-        <v>1.0305579648965557E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8.2648646587906646E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>-13.222217208015779</v>
+      <c r="B23" s="4">
+        <v>-12.554723463788793</v>
       </c>
       <c r="C23">
-        <v>8.9293733715270496E-3</v>
+        <v>1.0783702154524372E-2</v>
       </c>
       <c r="D23">
-        <v>-9.73878326461175E-2</v>
+        <v>-8.7127439931732331E-2</v>
       </c>
       <c r="E23">
-        <v>6.9984862431739583E-4</v>
+        <v>6.2639111567773E-4</v>
       </c>
       <c r="F23">
-        <v>1.1962336838040738E-2</v>
+        <v>1.1818647185510511E-2</v>
       </c>
       <c r="G23">
-        <v>5.4142680783217711E-2</v>
+        <v>4.6071116363916753E-2</v>
       </c>
       <c r="H23">
-        <v>-1.375212922351321E-3</v>
+        <v>-2.6249815077193511E-3</v>
       </c>
       <c r="I23">
-        <v>-4.9205882753812491E-3</v>
+        <v>-5.6712205715950953E-3</v>
       </c>
       <c r="J23">
-        <v>0.12313134736725684</v>
+        <v>0.11166785825601511</v>
       </c>
       <c r="K23">
-        <v>-1.4316265423663418E-2</v>
+        <v>-1.1601368250058954E-2</v>
       </c>
       <c r="L23">
-        <v>1.5094000418874008E-3</v>
+        <v>2.4392711319369828E-3</v>
       </c>
       <c r="M23">
-        <v>-3.3403694975599474E-3</v>
+        <v>-3.2262296051129014E-3</v>
       </c>
       <c r="N23">
-        <v>-1.5486013395481835E-2</v>
+        <v>-1.1761518820162215E-2</v>
       </c>
       <c r="O23">
-        <v>-9.9903396428518421E-3</v>
+        <v>-1.0150647378425581E-2</v>
       </c>
       <c r="P23">
-        <v>1.3070286186235524E-2</v>
+        <v>1.1105535904864475E-2</v>
       </c>
       <c r="Q23">
-        <v>-1.6629976869968179E-2</v>
+        <v>-1.5614322326096533E-2</v>
       </c>
       <c r="R23">
-        <v>-9.0345843854489766E-3</v>
+        <v>-7.4023172121851725E-3</v>
       </c>
       <c r="S23">
-        <v>-7.176040361044779E-3</v>
+        <v>-6.8707003913078338E-3</v>
       </c>
       <c r="T23">
-        <v>-2.0059236757671399E-2</v>
+        <v>-1.8584910153318594E-2</v>
       </c>
       <c r="U23">
-        <v>-4.7373482392129747E-4</v>
+        <v>-2.578254835864692E-4</v>
       </c>
       <c r="V23">
-        <v>8.5377641150363032E-4</v>
+        <v>6.8812576378765589E-6</v>
       </c>
       <c r="W23">
-        <v>1.0305579648965557E-2</v>
+        <v>8.2648646587906646E-3</v>
       </c>
       <c r="X23">
-        <v>3.26242232515159</v>
+        <v>2.913113662418148</v>
       </c>
     </row>
   </sheetData>
@@ -2324,11 +2329,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2420,2580 +2428,2580 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.10632261928102807</v>
+      <c r="B2" s="4">
+        <v>0.11304067059486159</v>
       </c>
       <c r="C2">
-        <v>2.2888674400106312E-3</v>
+        <v>2.3215757564054888E-3</v>
       </c>
       <c r="D2">
-        <v>-5.08900551458492E-4</v>
+        <v>-4.595829724334204E-4</v>
       </c>
       <c r="E2">
-        <v>3.4649346568219222E-6</v>
+        <v>3.1184863250555613E-6</v>
       </c>
       <c r="F2">
-        <v>-1.2676202550448818E-3</v>
+        <v>-1.2737829105291096E-3</v>
       </c>
       <c r="G2">
-        <v>-8.2916784052480396E-4</v>
+        <v>-8.2914671013969911E-4</v>
       </c>
       <c r="H2">
-        <v>-4.8662743274611173E-5</v>
+        <v>-1.137560796917441E-4</v>
       </c>
       <c r="I2">
-        <v>4.639969479123667E-5</v>
+        <v>-1.714630669062613E-5</v>
       </c>
       <c r="J2">
-        <v>1.2957434095696408E-3</v>
+        <v>1.3346979276347248E-3</v>
       </c>
       <c r="K2">
-        <v>4.7339701263625795E-4</v>
+        <v>5.4664358556355476E-4</v>
       </c>
       <c r="L2">
-        <v>8.9440209196926693E-8</v>
+        <v>-7.3656800436919804E-5</v>
       </c>
       <c r="M2">
-        <v>-1.3614030313619351E-4</v>
+        <v>-1.1945490931137035E-4</v>
       </c>
       <c r="N2">
-        <v>-3.3334365063956251E-4</v>
+        <v>-2.2684754990251018E-4</v>
       </c>
       <c r="O2">
-        <v>-3.0067573195240063E-4</v>
+        <v>-3.4075982836438804E-4</v>
       </c>
       <c r="P2">
-        <v>-1.1826826649201196E-4</v>
+        <v>-3.2916046473410157E-5</v>
       </c>
       <c r="Q2">
-        <v>-6.3952410560323659E-4</v>
+        <v>-6.4864614223925175E-4</v>
       </c>
       <c r="R2">
-        <v>-1.6853137957318129E-4</v>
+        <v>-1.9215348374986241E-4</v>
       </c>
       <c r="S2">
-        <v>6.790424769736853E-4</v>
+        <v>7.152169098655185E-4</v>
       </c>
       <c r="T2">
-        <v>6.4948858121870266E-4</v>
+        <v>7.0748871991933241E-4</v>
       </c>
       <c r="U2">
-        <v>-1.0086923028186961E-4</v>
+        <v>-9.4018786993695059E-5</v>
       </c>
       <c r="V2">
-        <v>1.2180537340727602E-4</v>
+        <v>1.2315586087774356E-4</v>
       </c>
       <c r="W2">
-        <v>-1.159646340753933E-4</v>
+        <v>-1.3983304214127269E-4</v>
       </c>
       <c r="X2">
-        <v>9.7853416910361282E-5</v>
+        <v>7.9391890456625698E-5</v>
       </c>
       <c r="Y2">
-        <v>-7.565529291985167E-5</v>
+        <v>-1.0687789952157096E-4</v>
       </c>
       <c r="Z2">
-        <v>-7.1754595291004659E-5</v>
+        <v>-1.4536206869101442E-4</v>
       </c>
       <c r="AA2">
-        <v>2.64821345514978E-5</v>
+        <v>2.5597709760130632E-5</v>
       </c>
       <c r="AB2">
-        <v>-1.4820771282291953E-4</v>
+        <v>-1.4609064984194835E-4</v>
       </c>
       <c r="AC2">
-        <v>-1.4711897741897509E-4</v>
+        <v>-1.449541498768402E-4</v>
       </c>
       <c r="AD2">
-        <v>1.6294074017101971E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.4569300867883279E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.61416627448488315</v>
+      <c r="B3" s="4">
+        <v>0.61717526733596784</v>
       </c>
       <c r="C3">
-        <v>-5.08900551458492E-4</v>
+        <v>-4.595829724334204E-4</v>
       </c>
       <c r="D3">
-        <v>2.7453622773852097E-3</v>
+        <v>2.6585697975464195E-3</v>
       </c>
       <c r="E3">
-        <v>-2.1176770648702749E-5</v>
+        <v>-2.0465034463547123E-5</v>
       </c>
       <c r="F3">
-        <v>-1.7671179520324567E-4</v>
+        <v>-2.1710007740198458E-4</v>
       </c>
       <c r="G3">
-        <v>-4.2116498864658812E-4</v>
+        <v>-4.4092790664254124E-4</v>
       </c>
       <c r="H3">
-        <v>2.8194704805578098E-5</v>
+        <v>1.6795016510407976E-4</v>
       </c>
       <c r="I3">
-        <v>2.0924379247703323E-4</v>
+        <v>3.1784207541556662E-4</v>
       </c>
       <c r="J3">
-        <v>-8.3434267970417561E-4</v>
+        <v>-8.2859175171225131E-4</v>
       </c>
       <c r="K3">
-        <v>1.4263935664054865E-4</v>
+        <v>-1.7061898544023547E-5</v>
       </c>
       <c r="L3">
-        <v>1.7647100176731902E-5</v>
+        <v>1.289951751268217E-4</v>
       </c>
       <c r="M3">
-        <v>-7.058675852355872E-5</v>
+        <v>-4.0398912049673281E-5</v>
       </c>
       <c r="N3">
-        <v>-1.7024530047191674E-4</v>
+        <v>-2.4575211523787405E-4</v>
       </c>
       <c r="O3">
-        <v>-1.2622227695756804E-4</v>
+        <v>-3.2473227312822955E-5</v>
       </c>
       <c r="P3">
-        <v>-1.7777911676169567E-4</v>
+        <v>-2.2064422740607041E-4</v>
       </c>
       <c r="Q3">
-        <v>-3.1981735867479236E-4</v>
+        <v>-2.690762011121361E-4</v>
       </c>
       <c r="R3">
-        <v>-1.6835112217458877E-4</v>
+        <v>-1.9368503058245917E-4</v>
       </c>
       <c r="S3">
-        <v>-3.587823603409257E-4</v>
+        <v>-3.274704188904274E-4</v>
       </c>
       <c r="T3">
-        <v>-3.7488421193575087E-4</v>
+        <v>-3.5472592236630678E-4</v>
       </c>
       <c r="U3">
-        <v>-5.5213074204347231E-5</v>
+        <v>-8.5601786893998999E-5</v>
       </c>
       <c r="V3">
-        <v>-1.8385753246238923E-5</v>
+        <v>-4.5335928127530206E-6</v>
       </c>
       <c r="W3">
-        <v>5.0595609929211804E-5</v>
+        <v>1.3067177520545079E-4</v>
       </c>
       <c r="X3">
-        <v>-3.6737151829226503E-5</v>
+        <v>3.2084219687431373E-5</v>
       </c>
       <c r="Y3">
-        <v>1.1549539306474413E-4</v>
+        <v>2.0301421374443671E-4</v>
       </c>
       <c r="Z3">
-        <v>-6.947659953095587E-5</v>
+        <v>7.4476721325910863E-5</v>
       </c>
       <c r="AA3">
-        <v>-6.3431671241886371E-6</v>
+        <v>-2.9788152968964528E-6</v>
       </c>
       <c r="AB3">
-        <v>1.5375178671375722E-4</v>
+        <v>1.2684642857219153E-4</v>
       </c>
       <c r="AC3">
-        <v>1.0210801831881527E-4</v>
+        <v>8.2000951430516444E-5</v>
       </c>
       <c r="AD3">
-        <v>-8.716602984692115E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-8.4753965055573616E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-4.6948588278408069E-3</v>
+      <c r="B4" s="4">
+        <v>-4.7103596696986307E-3</v>
       </c>
       <c r="C4">
-        <v>3.4649346568219222E-6</v>
+        <v>3.1184863250555613E-6</v>
       </c>
       <c r="D4">
-        <v>-2.1176770648702749E-5</v>
+        <v>-2.0465034463547123E-5</v>
       </c>
       <c r="E4">
-        <v>1.6491912416644766E-7</v>
+        <v>1.5905802420402279E-7</v>
       </c>
       <c r="F4">
-        <v>1.6795565496788425E-6</v>
+        <v>1.9709448878766985E-6</v>
       </c>
       <c r="G4">
-        <v>3.2414933173728372E-6</v>
+        <v>3.3813432792806255E-6</v>
       </c>
       <c r="H4">
-        <v>2.1433728366040071E-9</v>
+        <v>-1.0294211719066425E-6</v>
       </c>
       <c r="I4">
-        <v>-1.7412083694743127E-6</v>
+        <v>-2.5206074707530718E-6</v>
       </c>
       <c r="J4">
-        <v>5.3987652722396698E-6</v>
+        <v>5.3635958143188766E-6</v>
       </c>
       <c r="K4">
-        <v>-1.0623458177838846E-6</v>
+        <v>9.1903810397504912E-8</v>
       </c>
       <c r="L4">
-        <v>-2.5168380592616369E-7</v>
+        <v>-1.0548539774290384E-6</v>
       </c>
       <c r="M4">
-        <v>5.1496281584236881E-7</v>
+        <v>2.6039905097843637E-7</v>
       </c>
       <c r="N4">
-        <v>1.4973807428123216E-6</v>
+        <v>1.9961524487383281E-6</v>
       </c>
       <c r="O4">
-        <v>1.2136007752420478E-6</v>
+        <v>4.8732222499458833E-7</v>
       </c>
       <c r="P4">
-        <v>1.6262400001615504E-6</v>
+        <v>1.8873349193993843E-6</v>
       </c>
       <c r="Q4">
-        <v>2.5764890616646378E-6</v>
+        <v>2.190447376197419E-6</v>
       </c>
       <c r="R4">
-        <v>6.4397990165077535E-7</v>
+        <v>8.3661011585772771E-7</v>
       </c>
       <c r="S4">
-        <v>3.1151089401991873E-6</v>
+        <v>2.8769056127447859E-6</v>
       </c>
       <c r="T4">
-        <v>3.1825171108895066E-6</v>
+        <v>3.0064943041682398E-6</v>
       </c>
       <c r="U4">
-        <v>4.7609044395038086E-7</v>
+        <v>7.016464870789773E-7</v>
       </c>
       <c r="V4">
-        <v>2.5420038693081844E-7</v>
+        <v>1.4171235038341705E-7</v>
       </c>
       <c r="W4">
-        <v>-2.5403001804879827E-7</v>
+        <v>-8.1741691621809061E-7</v>
       </c>
       <c r="X4">
-        <v>2.4756921085137217E-7</v>
+        <v>-2.2354844636251765E-7</v>
       </c>
       <c r="Y4">
-        <v>-7.5796213696907437E-7</v>
+        <v>-1.3789079779402702E-6</v>
       </c>
       <c r="Z4">
-        <v>6.2717157603557784E-7</v>
+        <v>-3.9882146781958097E-7</v>
       </c>
       <c r="AA4">
-        <v>4.8257672871187583E-8</v>
+        <v>2.3908169472729282E-8</v>
       </c>
       <c r="AB4">
-        <v>-1.1512330861156107E-6</v>
+        <v>-9.5757320576724588E-7</v>
       </c>
       <c r="AC4">
-        <v>-7.5924733157305265E-7</v>
+        <v>-6.2268695963705158E-7</v>
       </c>
       <c r="AD4">
-        <v>6.6694455056704274E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>6.4708408438976343E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>-2.4124213312281918E-2</v>
+      <c r="B5" s="4">
+        <v>-1.4758529475227301E-2</v>
       </c>
       <c r="C5">
-        <v>-1.2676202550448818E-3</v>
+        <v>-1.2737829105291096E-3</v>
       </c>
       <c r="D5">
-        <v>-1.7671179520324567E-4</v>
+        <v>-2.1710007740198458E-4</v>
       </c>
       <c r="E5">
-        <v>1.6795565496788425E-6</v>
+        <v>1.9709448878766985E-6</v>
       </c>
       <c r="F5">
-        <v>3.5946619397083188E-3</v>
+        <v>3.526633053949256E-3</v>
       </c>
       <c r="G5">
-        <v>9.878109298524897E-4</v>
+        <v>9.8911834106808283E-4</v>
       </c>
       <c r="H5">
-        <v>-3.6930058655386877E-5</v>
+        <v>-2.5398554261740931E-5</v>
       </c>
       <c r="I5">
-        <v>-5.0778876855780497E-5</v>
+        <v>-8.0877092010931458E-5</v>
       </c>
       <c r="J5">
-        <v>-1.0053340488729802E-3</v>
+        <v>-1.0253303693926962E-3</v>
       </c>
       <c r="K5">
-        <v>-2.9593663490349881E-4</v>
+        <v>-3.476740641038756E-4</v>
       </c>
       <c r="L5">
-        <v>1.0340967365712818E-4</v>
+        <v>1.3854792932606612E-4</v>
       </c>
       <c r="M5">
-        <v>1.2732970351424054E-4</v>
+        <v>1.2036061051109981E-4</v>
       </c>
       <c r="N5">
-        <v>3.5339468175430778E-5</v>
+        <v>-9.6967926467986308E-6</v>
       </c>
       <c r="O5">
-        <v>1.310244538878561E-4</v>
+        <v>6.7701017060305731E-5</v>
       </c>
       <c r="P5">
-        <v>-1.0470641646675673E-4</v>
+        <v>-2.173540987021555E-4</v>
       </c>
       <c r="Q5">
-        <v>1.4928281742936545E-4</v>
+        <v>1.4676234036893078E-4</v>
       </c>
       <c r="R5">
-        <v>-7.9233067560074239E-5</v>
+        <v>-4.4641219092691684E-5</v>
       </c>
       <c r="S5">
-        <v>1.2133864801033975E-4</v>
+        <v>1.0040336223996718E-4</v>
       </c>
       <c r="T5">
-        <v>1.622357192046849E-4</v>
+        <v>1.335601824071983E-4</v>
       </c>
       <c r="U5">
-        <v>-1.1874429933528166E-5</v>
+        <v>-4.4506262107149933E-5</v>
       </c>
       <c r="V5">
-        <v>-2.0641222557179345E-5</v>
+        <v>-2.1757922856644688E-5</v>
       </c>
       <c r="W5">
-        <v>1.0030741989362855E-4</v>
+        <v>1.0260984940214067E-4</v>
       </c>
       <c r="X5">
-        <v>1.201942228403678E-4</v>
+        <v>1.1448851824977539E-4</v>
       </c>
       <c r="Y5">
-        <v>4.036651825657829E-5</v>
+        <v>3.1804392972987778E-5</v>
       </c>
       <c r="Z5">
-        <v>1.2925061778215488E-4</v>
+        <v>1.5160437994200804E-4</v>
       </c>
       <c r="AA5">
-        <v>-3.4677187653729354E-5</v>
+        <v>-3.5783729996368807E-5</v>
       </c>
       <c r="AB5">
-        <v>1.3253964516317602E-4</v>
+        <v>1.113879786736327E-4</v>
       </c>
       <c r="AC5">
-        <v>6.3557683811312805E-5</v>
+        <v>6.732948909530731E-5</v>
       </c>
       <c r="AD5">
-        <v>5.7629120037725329E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.2483919945956488E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0.61984408018313564</v>
+      <c r="B6" s="4">
+        <v>0.61685465916131166</v>
       </c>
       <c r="C6">
-        <v>-8.2916784052480396E-4</v>
+        <v>-8.2914671013969911E-4</v>
       </c>
       <c r="D6">
-        <v>-4.2116498864658812E-4</v>
+        <v>-4.4092790664254124E-4</v>
       </c>
       <c r="E6">
-        <v>3.2414933173728372E-6</v>
+        <v>3.3813432792806255E-6</v>
       </c>
       <c r="F6">
-        <v>9.878109298524897E-4</v>
+        <v>9.8911834106808283E-4</v>
       </c>
       <c r="G6">
-        <v>2.5676179951271247E-3</v>
+        <v>2.5513205040071721E-3</v>
       </c>
       <c r="H6">
-        <v>3.3138418339814877E-5</v>
+        <v>3.3091307441084159E-5</v>
       </c>
       <c r="I6">
-        <v>1.5830406596895139E-5</v>
+        <v>-9.0448633399122999E-7</v>
       </c>
       <c r="J6">
-        <v>-1.4588953866958383E-4</v>
+        <v>-1.4788116209223871E-4</v>
       </c>
       <c r="K6">
-        <v>-1.9885364934936695E-4</v>
+        <v>-1.8638502679512326E-4</v>
       </c>
       <c r="L6">
-        <v>8.9392929643827943E-5</v>
+        <v>6.9851548307857674E-5</v>
       </c>
       <c r="M6">
-        <v>1.3041222098307483E-4</v>
+        <v>1.1474574958697916E-4</v>
       </c>
       <c r="N6">
-        <v>1.0744124439711724E-4</v>
+        <v>6.226835452904228E-5</v>
       </c>
       <c r="O6">
-        <v>1.4836123356439348E-4</v>
+        <v>9.891392417514305E-5</v>
       </c>
       <c r="P6">
-        <v>2.122483175796754E-5</v>
+        <v>-5.7848382370353471E-5</v>
       </c>
       <c r="Q6">
-        <v>7.0948984891599929E-5</v>
+        <v>4.6274857418761436E-5</v>
       </c>
       <c r="R6">
-        <v>-5.1405732356615483E-5</v>
+        <v>-3.9375605330825743E-5</v>
       </c>
       <c r="S6">
-        <v>8.8592714981025958E-5</v>
+        <v>7.3359991380996881E-5</v>
       </c>
       <c r="T6">
-        <v>9.6924887841350321E-5</v>
+        <v>8.7139043202751239E-5</v>
       </c>
       <c r="U6">
-        <v>1.7429961629883482E-5</v>
+        <v>7.2355979688566892E-6</v>
       </c>
       <c r="V6">
-        <v>-4.9509011015548381E-5</v>
+        <v>-5.7542139594381463E-5</v>
       </c>
       <c r="W6">
-        <v>6.3749625393203467E-5</v>
+        <v>6.3327368176944836E-5</v>
       </c>
       <c r="X6">
-        <v>-1.0444132190616517E-4</v>
+        <v>-1.0073389662790819E-4</v>
       </c>
       <c r="Y6">
-        <v>3.3816509115898626E-5</v>
+        <v>5.034719758341584E-5</v>
       </c>
       <c r="Z6">
-        <v>-2.1143776357802641E-5</v>
+        <v>-5.3271945509654646E-6</v>
       </c>
       <c r="AA6">
-        <v>-3.102774304342712E-5</v>
+        <v>-3.4634078131885911E-5</v>
       </c>
       <c r="AB6">
-        <v>1.2356633767634812E-4</v>
+        <v>1.4314840878370053E-4</v>
       </c>
       <c r="AC6">
-        <v>2.3286790530070017E-4</v>
+        <v>2.4634178109774266E-4</v>
       </c>
       <c r="AD6">
-        <v>1.4075905675342754E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.4872646000236757E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>4.6912442022814388E-2</v>
+      <c r="B7" s="4">
+        <v>6.6272134963745954E-2</v>
       </c>
       <c r="C7">
-        <v>-4.8662743274611173E-5</v>
+        <v>-1.137560796917441E-4</v>
       </c>
       <c r="D7">
-        <v>2.8194704805578098E-5</v>
+        <v>1.6795016510407976E-4</v>
       </c>
       <c r="E7">
-        <v>2.1433728366040071E-9</v>
+        <v>-1.0294211719066425E-6</v>
       </c>
       <c r="F7">
-        <v>-3.6930058655386877E-5</v>
+        <v>-2.5398554261740931E-5</v>
       </c>
       <c r="G7">
-        <v>3.3138418339814877E-5</v>
+        <v>3.3091307441084159E-5</v>
       </c>
       <c r="H7">
-        <v>2.5238482550857147E-3</v>
+        <v>2.6459960357797818E-3</v>
       </c>
       <c r="I7">
-        <v>2.3118312283534181E-3</v>
+        <v>2.4228289195925867E-3</v>
       </c>
       <c r="J7">
-        <v>2.9736191007820832E-4</v>
+        <v>2.0887681557247122E-4</v>
       </c>
       <c r="K7">
-        <v>3.7056236859614088E-5</v>
+        <v>-4.2117471181343647E-5</v>
       </c>
       <c r="L7">
-        <v>-3.5221944703884049E-4</v>
+        <v>-2.7182128296096163E-4</v>
       </c>
       <c r="M7">
-        <v>1.1442315859417379E-4</v>
+        <v>1.0400160737753571E-4</v>
       </c>
       <c r="N7">
-        <v>1.836300956116844E-4</v>
+        <v>1.6029545366976939E-4</v>
       </c>
       <c r="O7">
-        <v>3.9064848343826024E-4</v>
+        <v>4.050099933091577E-4</v>
       </c>
       <c r="P7">
-        <v>9.2269186944918778E-4</v>
+        <v>9.6895025851312605E-4</v>
       </c>
       <c r="Q7">
-        <v>4.345782770516801E-5</v>
+        <v>6.5824712246610186E-5</v>
       </c>
       <c r="R7">
-        <v>8.3844981369886036E-5</v>
+        <v>6.880714383995669E-5</v>
       </c>
       <c r="S7">
-        <v>7.8724718140703033E-5</v>
+        <v>6.457950495068575E-5</v>
       </c>
       <c r="T7">
-        <v>-3.6103757820804146E-6</v>
+        <v>-4.602506740524368E-5</v>
       </c>
       <c r="U7">
-        <v>6.5847579107478735E-5</v>
+        <v>1.3397700126094786E-4</v>
       </c>
       <c r="V7">
-        <v>9.3859925135694842E-5</v>
+        <v>8.9595977054581906E-5</v>
       </c>
       <c r="W7">
-        <v>-5.4921847480626757E-5</v>
+        <v>-2.220870962684447E-5</v>
       </c>
       <c r="X7">
-        <v>-7.4580574640738064E-5</v>
+        <v>-1.0638420984030773E-5</v>
       </c>
       <c r="Y7">
-        <v>6.0524721730580368E-5</v>
+        <v>9.4819007111315688E-5</v>
       </c>
       <c r="Z7">
-        <v>8.7297308850463936E-5</v>
+        <v>1.2609568671993686E-4</v>
       </c>
       <c r="AA7">
-        <v>1.4676835838567763E-5</v>
+        <v>2.158620754395274E-5</v>
       </c>
       <c r="AB7">
-        <v>3.7146771844685184E-5</v>
+        <v>-3.2856768135186614E-6</v>
       </c>
       <c r="AC7">
-        <v>-3.2163977668011039E-5</v>
+        <v>-6.5566030842980271E-5</v>
       </c>
       <c r="AD7">
-        <v>-4.7225351974033523E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-9.594567664157826E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>-7.7283113058556202E-2</v>
+      <c r="B8" s="4">
+        <v>-5.041350407181526E-2</v>
       </c>
       <c r="C8">
-        <v>4.639969479123667E-5</v>
+        <v>-1.714630669062613E-5</v>
       </c>
       <c r="D8">
-        <v>2.0924379247703323E-4</v>
+        <v>3.1784207541556662E-4</v>
       </c>
       <c r="E8">
-        <v>-1.7412083694743127E-6</v>
+        <v>-2.5206074707530718E-6</v>
       </c>
       <c r="F8">
-        <v>-5.0778876855780497E-5</v>
+        <v>-8.0877092010931458E-5</v>
       </c>
       <c r="G8">
-        <v>1.5830406596895139E-5</v>
+        <v>-9.0448633399122999E-7</v>
       </c>
       <c r="H8">
-        <v>2.3118312283534181E-3</v>
+        <v>2.4228289195925867E-3</v>
       </c>
       <c r="I8">
-        <v>4.1871297679482843E-3</v>
+        <v>4.2168641475177869E-3</v>
       </c>
       <c r="J8">
-        <v>4.6691968512648684E-4</v>
+        <v>3.6808084250318382E-4</v>
       </c>
       <c r="K8">
-        <v>2.6297074509456977E-5</v>
+        <v>-5.8494508120468037E-5</v>
       </c>
       <c r="L8">
-        <v>-6.0194106669390478E-4</v>
+        <v>-5.0186834866782057E-4</v>
       </c>
       <c r="M8">
-        <v>1.0494702184217047E-4</v>
+        <v>1.0385968745520916E-4</v>
       </c>
       <c r="N8">
-        <v>2.871437978827667E-4</v>
+        <v>2.5198381362907232E-4</v>
       </c>
       <c r="O8">
-        <v>6.2810553278435592E-4</v>
+        <v>5.9804238848411967E-4</v>
       </c>
       <c r="P8">
-        <v>1.2981889312306343E-3</v>
+        <v>1.2908010553483462E-3</v>
       </c>
       <c r="Q8">
-        <v>2.3555237724799446E-4</v>
+        <v>2.3202056378522314E-4</v>
       </c>
       <c r="R8">
-        <v>1.204540371225957E-4</v>
+        <v>1.0758941910364865E-4</v>
       </c>
       <c r="S8">
-        <v>1.4363060037005625E-5</v>
+        <v>2.519553193163648E-6</v>
       </c>
       <c r="T8">
-        <v>-6.2517898521926945E-5</v>
+        <v>-8.4295317165667826E-5</v>
       </c>
       <c r="U8">
-        <v>7.3419588188727091E-5</v>
+        <v>1.2427969160666797E-4</v>
       </c>
       <c r="V8">
-        <v>6.2722655559309555E-5</v>
+        <v>5.6267233014376113E-5</v>
       </c>
       <c r="W8">
-        <v>-1.7892519632042164E-4</v>
+        <v>-1.6789935325235694E-4</v>
       </c>
       <c r="X8">
-        <v>-1.6164883068749624E-4</v>
+        <v>-1.0033633753606103E-4</v>
       </c>
       <c r="Y8">
-        <v>-6.8550444450208746E-5</v>
+        <v>-6.2257058643782454E-5</v>
       </c>
       <c r="Z8">
-        <v>-8.8126687584062796E-5</v>
+        <v>-5.4581456296203998E-5</v>
       </c>
       <c r="AA8">
-        <v>3.6851164687511082E-5</v>
+        <v>4.4052098610677659E-5</v>
       </c>
       <c r="AB8">
-        <v>9.8610737651703018E-5</v>
+        <v>2.6656359380901242E-5</v>
       </c>
       <c r="AC8">
-        <v>-1.5082239786128916E-6</v>
+        <v>-3.1946199197146119E-5</v>
       </c>
       <c r="AD8">
-        <v>-9.9169480215504265E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-1.3753944543983328E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1.3087129839252349</v>
+      <c r="B9" s="4">
+        <v>1.311653388760232</v>
       </c>
       <c r="C9">
-        <v>1.2957434095696408E-3</v>
+        <v>1.3346979276347248E-3</v>
       </c>
       <c r="D9">
-        <v>-8.3434267970417561E-4</v>
+        <v>-8.2859175171225131E-4</v>
       </c>
       <c r="E9">
-        <v>5.3987652722396698E-6</v>
+        <v>5.3635958143188766E-6</v>
       </c>
       <c r="F9">
-        <v>-1.0053340488729802E-3</v>
+        <v>-1.0253303693926962E-3</v>
       </c>
       <c r="G9">
-        <v>-1.4588953866958383E-4</v>
+        <v>-1.4788116209223871E-4</v>
       </c>
       <c r="H9">
-        <v>2.9736191007820832E-4</v>
+        <v>2.0887681557247122E-4</v>
       </c>
       <c r="I9">
-        <v>4.6691968512648684E-4</v>
+        <v>3.6808084250318382E-4</v>
       </c>
       <c r="J9">
-        <v>3.0195059129163506E-3</v>
+        <v>3.1507399026541238E-3</v>
       </c>
       <c r="K9">
-        <v>8.5647632197571617E-4</v>
+        <v>1.0332613004693345E-3</v>
       </c>
       <c r="L9">
-        <v>-1.4781657538782359E-3</v>
+        <v>-1.6483015104708208E-3</v>
       </c>
       <c r="M9">
-        <v>-1.273295931657107E-4</v>
+        <v>-1.1733510661922624E-4</v>
       </c>
       <c r="N9">
-        <v>-2.0583229122823779E-4</v>
+        <v>-9.22689985788476E-5</v>
       </c>
       <c r="O9">
-        <v>-1.5581398911041888E-4</v>
+        <v>-2.1260327115156866E-4</v>
       </c>
       <c r="P9">
-        <v>-1.7025511441513808E-4</v>
+        <v>-8.9171976687216648E-5</v>
       </c>
       <c r="Q9">
-        <v>-2.265975748012778E-4</v>
+        <v>-2.6462855588543863E-4</v>
       </c>
       <c r="R9">
-        <v>7.0787308245227627E-5</v>
+        <v>4.1422320177780716E-5</v>
       </c>
       <c r="S9">
-        <v>-1.4437784939923997E-4</v>
+        <v>-1.6433334802353405E-4</v>
       </c>
       <c r="T9">
-        <v>-1.8301945978892089E-4</v>
+        <v>-1.1569794309044309E-4</v>
       </c>
       <c r="U9">
-        <v>-1.4041604183839709E-4</v>
+        <v>-1.2573853956700633E-4</v>
       </c>
       <c r="V9">
-        <v>1.2083350732726645E-4</v>
+        <v>1.1393979709583158E-4</v>
       </c>
       <c r="W9">
-        <v>-1.2288005815080938E-4</v>
+        <v>-1.8848664681634167E-4</v>
       </c>
       <c r="X9">
-        <v>-2.5274420958689824E-5</v>
+        <v>-7.1783130328159465E-5</v>
       </c>
       <c r="Y9">
-        <v>-1.1203092040101056E-4</v>
+        <v>-1.8440971098954758E-4</v>
       </c>
       <c r="Z9">
-        <v>-2.5560878391296974E-5</v>
+        <v>-1.1969556213165542E-4</v>
       </c>
       <c r="AA9">
-        <v>1.0068634443769994E-5</v>
+        <v>7.5095126262969872E-6</v>
       </c>
       <c r="AB9">
-        <v>1.9480471597506724E-4</v>
+        <v>2.1033097141816021E-4</v>
       </c>
       <c r="AC9">
-        <v>5.3003114279113334E-5</v>
+        <v>6.2567714335125257E-5</v>
       </c>
       <c r="AD9">
-        <v>2.8479853130775314E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2.8289164559504396E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>7.9097784362637896E-2</v>
+      <c r="B10" s="4">
+        <v>9.5804846078469882E-2</v>
       </c>
       <c r="C10">
-        <v>4.7339701263625795E-4</v>
+        <v>5.4664358556355476E-4</v>
       </c>
       <c r="D10">
-        <v>1.4263935664054865E-4</v>
+        <v>-1.7061898544023547E-5</v>
       </c>
       <c r="E10">
-        <v>-1.0623458177838846E-6</v>
+        <v>9.1903810397504912E-8</v>
       </c>
       <c r="F10">
-        <v>-2.9593663490349881E-4</v>
+        <v>-3.476740641038756E-4</v>
       </c>
       <c r="G10">
-        <v>-1.9885364934936695E-4</v>
+        <v>-1.8638502679512326E-4</v>
       </c>
       <c r="H10">
-        <v>3.7056236859614088E-5</v>
+        <v>-4.2117471181343647E-5</v>
       </c>
       <c r="I10">
-        <v>2.6297074509456977E-5</v>
+        <v>-5.8494508120468037E-5</v>
       </c>
       <c r="J10">
-        <v>8.5647632197571617E-4</v>
+        <v>1.0332613004693345E-3</v>
       </c>
       <c r="K10">
-        <v>3.2007632280698973E-3</v>
+        <v>3.1608372114805211E-3</v>
       </c>
       <c r="L10">
-        <v>-1.97688376570325E-3</v>
+        <v>-1.9732592215362123E-3</v>
       </c>
       <c r="M10">
-        <v>-1.1081410802760182E-4</v>
+        <v>-7.0793508661842584E-5</v>
       </c>
       <c r="N10">
-        <v>5.9748547690413427E-4</v>
+        <v>6.4629988027894352E-4</v>
       </c>
       <c r="O10">
-        <v>9.1169851491463248E-4</v>
+        <v>9.7411574311293361E-4</v>
       </c>
       <c r="P10">
-        <v>1.1610375345701006E-3</v>
+        <v>1.1984901732489325E-3</v>
       </c>
       <c r="Q10">
-        <v>-1.2082171628381947E-3</v>
+        <v>-1.0856526763974011E-3</v>
       </c>
       <c r="R10">
-        <v>3.103882143888387E-5</v>
+        <v>2.4323639828949836E-5</v>
       </c>
       <c r="S10">
-        <v>-6.4908987092667067E-5</v>
+        <v>-1.5724671709430331E-4</v>
       </c>
       <c r="T10">
-        <v>1.099540513389331E-5</v>
+        <v>4.7765727717183457E-5</v>
       </c>
       <c r="U10">
-        <v>3.315933115298955E-5</v>
+        <v>5.694056206094662E-5</v>
       </c>
       <c r="V10">
-        <v>2.2910057298955195E-4</v>
+        <v>2.0141542710248146E-4</v>
       </c>
       <c r="W10">
-        <v>1.9967374628575198E-5</v>
+        <v>1.3815953928713936E-5</v>
       </c>
       <c r="X10">
-        <v>4.9553097970263336E-5</v>
+        <v>3.5756348005295657E-5</v>
       </c>
       <c r="Y10">
-        <v>-5.8742873492376602E-5</v>
+        <v>-6.0023203406786184E-5</v>
       </c>
       <c r="Z10">
-        <v>1.4497914083964062E-4</v>
+        <v>1.6855460914886461E-4</v>
       </c>
       <c r="AA10">
-        <v>3.983030141809898E-6</v>
+        <v>-9.3892566802275296E-8</v>
       </c>
       <c r="AB10">
-        <v>1.0190209425354297E-4</v>
+        <v>9.042088054999264E-5</v>
       </c>
       <c r="AC10">
-        <v>8.098963529937003E-5</v>
+        <v>7.537400832253625E-5</v>
       </c>
       <c r="AD10">
-        <v>-6.8362234616017228E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-1.4798125088662855E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
-        <v>0.12921363400626809</v>
+      <c r="B11" s="4">
+        <v>0.13190229554263153</v>
       </c>
       <c r="C11">
-        <v>8.9440209196926693E-8</v>
+        <v>-7.3656800436919804E-5</v>
       </c>
       <c r="D11">
-        <v>1.7647100176731902E-5</v>
+        <v>1.289951751268217E-4</v>
       </c>
       <c r="E11">
-        <v>-2.5168380592616369E-7</v>
+        <v>-1.0548539774290384E-6</v>
       </c>
       <c r="F11">
-        <v>1.0340967365712818E-4</v>
+        <v>1.3854792932606612E-4</v>
       </c>
       <c r="G11">
-        <v>8.9392929643827943E-5</v>
+        <v>6.9851548307857674E-5</v>
       </c>
       <c r="H11">
-        <v>-3.5221944703884049E-4</v>
+        <v>-2.7182128296096163E-4</v>
       </c>
       <c r="I11">
-        <v>-6.0194106669390478E-4</v>
+        <v>-5.0186834866782057E-4</v>
       </c>
       <c r="J11">
-        <v>-1.4781657538782359E-3</v>
+        <v>-1.6483015104708208E-3</v>
       </c>
       <c r="K11">
-        <v>-1.97688376570325E-3</v>
+        <v>-1.9732592215362123E-3</v>
       </c>
       <c r="L11">
-        <v>3.9959680660350662E-3</v>
+        <v>3.9887913114319109E-3</v>
       </c>
       <c r="M11">
-        <v>2.4367682992754993E-4</v>
+        <v>1.8329253838197176E-4</v>
       </c>
       <c r="N11">
-        <v>6.1217416963256781E-4</v>
+        <v>5.3891494446617696E-4</v>
       </c>
       <c r="O11">
-        <v>4.4958605477172934E-4</v>
+        <v>4.5473436071641045E-4</v>
       </c>
       <c r="P11">
-        <v>5.39575788361067E-4</v>
+        <v>5.2765431689125045E-4</v>
       </c>
       <c r="Q11">
-        <v>5.8488495584571088E-5</v>
+        <v>5.553184465427951E-5</v>
       </c>
       <c r="R11">
-        <v>-3.7141257830414004E-5</v>
+        <v>-3.7696460200550017E-5</v>
       </c>
       <c r="S11">
-        <v>6.411721874329695E-5</v>
+        <v>1.199907926688875E-4</v>
       </c>
       <c r="T11">
-        <v>6.9671923109769387E-5</v>
+        <v>2.0436324946345417E-5</v>
       </c>
       <c r="U11">
-        <v>1.3423897110382584E-4</v>
+        <v>1.4767971101231061E-4</v>
       </c>
       <c r="V11">
-        <v>-1.7123485855090499E-4</v>
+        <v>-1.8015510939777034E-4</v>
       </c>
       <c r="W11">
-        <v>2.7395369671153001E-5</v>
+        <v>5.677666780217307E-5</v>
       </c>
       <c r="X11">
-        <v>-4.9325492076010818E-6</v>
+        <v>2.7442948895848533E-5</v>
       </c>
       <c r="Y11">
-        <v>-1.775767704104321E-5</v>
+        <v>2.8478988280961157E-5</v>
       </c>
       <c r="Z11">
-        <v>-3.7878486258308445E-6</v>
+        <v>9.7969378247829593E-6</v>
       </c>
       <c r="AA11">
-        <v>-1.2245511498099005E-7</v>
+        <v>2.7889541507846827E-6</v>
       </c>
       <c r="AB11">
-        <v>-1.0906944401624895E-4</v>
+        <v>-9.6101898954424701E-5</v>
       </c>
       <c r="AC11">
-        <v>-1.1044096211376263E-4</v>
+        <v>-1.2213115451081662E-4</v>
       </c>
       <c r="AD11">
-        <v>3.0441662162500674E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-3.4818456379986946E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1.3223489959900196E-2</v>
+      <c r="B12" s="4">
+        <v>3.1400253814032268E-2</v>
       </c>
       <c r="C12">
-        <v>-1.3614030313619351E-4</v>
+        <v>-1.1945490931137035E-4</v>
       </c>
       <c r="D12">
-        <v>-7.058675852355872E-5</v>
+        <v>-4.0398912049673281E-5</v>
       </c>
       <c r="E12">
-        <v>5.1496281584236881E-7</v>
+        <v>2.6039905097843637E-7</v>
       </c>
       <c r="F12">
-        <v>1.2732970351424054E-4</v>
+        <v>1.2036061051109981E-4</v>
       </c>
       <c r="G12">
-        <v>1.3041222098307483E-4</v>
+        <v>1.1474574958697916E-4</v>
       </c>
       <c r="H12">
-        <v>1.1442315859417379E-4</v>
+        <v>1.0400160737753571E-4</v>
       </c>
       <c r="I12">
-        <v>1.0494702184217047E-4</v>
+        <v>1.0385968745520916E-4</v>
       </c>
       <c r="J12">
-        <v>-1.273295931657107E-4</v>
+        <v>-1.1733510661922624E-4</v>
       </c>
       <c r="K12">
-        <v>-1.1081410802760182E-4</v>
+        <v>-7.0793508661842584E-5</v>
       </c>
       <c r="L12">
-        <v>2.4367682992754993E-4</v>
+        <v>1.8329253838197176E-4</v>
       </c>
       <c r="M12">
-        <v>3.9381975122360679E-3</v>
+        <v>3.6766435673826858E-3</v>
       </c>
       <c r="N12">
-        <v>2.0747737493217525E-3</v>
+        <v>1.9264224707409815E-3</v>
       </c>
       <c r="O12">
-        <v>2.0832085003242751E-3</v>
+        <v>1.932190015930507E-3</v>
       </c>
       <c r="P12">
-        <v>2.1455304467850093E-3</v>
+        <v>1.9877112034514207E-3</v>
       </c>
       <c r="Q12">
-        <v>-6.0876112919892645E-5</v>
+        <v>-8.6045085979662457E-5</v>
       </c>
       <c r="R12">
-        <v>1.260274024449523E-4</v>
+        <v>1.3068222682406308E-4</v>
       </c>
       <c r="S12">
-        <v>2.6020274345575017E-5</v>
+        <v>1.7261480280003128E-5</v>
       </c>
       <c r="T12">
-        <v>9.2814930465985086E-5</v>
+        <v>7.7525586923886961E-5</v>
       </c>
       <c r="U12">
-        <v>3.6834629437185418E-5</v>
+        <v>3.5728549538109009E-5</v>
       </c>
       <c r="V12">
-        <v>2.6332385326778289E-5</v>
+        <v>7.3004716322148815E-6</v>
       </c>
       <c r="W12">
-        <v>8.1463493584503513E-5</v>
+        <v>6.3690751866836607E-5</v>
       </c>
       <c r="X12">
-        <v>-6.1195744249785213E-5</v>
+        <v>-7.7511952547065622E-5</v>
       </c>
       <c r="Y12">
-        <v>1.0334999792713748E-4</v>
+        <v>9.7432355254204687E-5</v>
       </c>
       <c r="Z12">
-        <v>9.2388107675664375E-5</v>
+        <v>9.7359359236362121E-5</v>
       </c>
       <c r="AA12">
-        <v>-1.7464388067344134E-6</v>
+        <v>-1.3451182783617916E-6</v>
       </c>
       <c r="AB12">
-        <v>8.3030861428872349E-5</v>
+        <v>5.6438593401842479E-5</v>
       </c>
       <c r="AC12">
-        <v>4.6042012180332932E-5</v>
+        <v>3.1738115555601986E-5</v>
       </c>
       <c r="AD12">
-        <v>1.7965566673466544E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-5.5607806808546446E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>5.937352537610166E-2</v>
+      <c r="B13" s="4">
+        <v>6.1665491976496623E-2</v>
       </c>
       <c r="C13">
-        <v>-3.3334365063956251E-4</v>
+        <v>-2.2684754990251018E-4</v>
       </c>
       <c r="D13">
-        <v>-1.7024530047191674E-4</v>
+        <v>-2.4575211523787405E-4</v>
       </c>
       <c r="E13">
-        <v>1.4973807428123216E-6</v>
+        <v>1.9961524487383281E-6</v>
       </c>
       <c r="F13">
-        <v>3.5339468175430778E-5</v>
+        <v>-9.6967926467986308E-6</v>
       </c>
       <c r="G13">
-        <v>1.0744124439711724E-4</v>
+        <v>6.226835452904228E-5</v>
       </c>
       <c r="H13">
-        <v>1.836300956116844E-4</v>
+        <v>1.6029545366976939E-4</v>
       </c>
       <c r="I13">
-        <v>2.871437978827667E-4</v>
+        <v>2.5198381362907232E-4</v>
       </c>
       <c r="J13">
-        <v>-2.0583229122823779E-4</v>
+        <v>-9.22689985788476E-5</v>
       </c>
       <c r="K13">
-        <v>5.9748547690413427E-4</v>
+        <v>6.4629988027894352E-4</v>
       </c>
       <c r="L13">
-        <v>6.1217416963256781E-4</v>
+        <v>5.3891494446617696E-4</v>
       </c>
       <c r="M13">
-        <v>2.0747737493217525E-3</v>
+        <v>1.9264224707409815E-3</v>
       </c>
       <c r="N13">
-        <v>3.822955663261208E-3</v>
+        <v>3.6176631496839216E-3</v>
       </c>
       <c r="O13">
-        <v>3.2669382542453865E-3</v>
+        <v>3.126127422753359E-3</v>
       </c>
       <c r="P13">
-        <v>3.6347689427182798E-3</v>
+        <v>3.4235377933323698E-3</v>
       </c>
       <c r="Q13">
-        <v>1.0752524709906011E-4</v>
+        <v>1.027688666151533E-4</v>
       </c>
       <c r="R13">
-        <v>1.3549530928261497E-4</v>
+        <v>1.3848170123920505E-4</v>
       </c>
       <c r="S13">
-        <v>-1.9723129625810049E-4</v>
+        <v>-2.0614986370736142E-4</v>
       </c>
       <c r="T13">
-        <v>-8.9215306525469929E-5</v>
+        <v>-9.9132348560489674E-5</v>
       </c>
       <c r="U13">
-        <v>6.3942974224120367E-4</v>
+        <v>6.3704253461629794E-4</v>
       </c>
       <c r="V13">
-        <v>-2.2219171177645126E-4</v>
+        <v>-2.1798984252324871E-4</v>
       </c>
       <c r="W13">
-        <v>-8.6996786366774436E-5</v>
+        <v>-1.2052260892515515E-4</v>
       </c>
       <c r="X13">
-        <v>-3.369142061026155E-4</v>
+        <v>-3.7904350000199935E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.4374753387248312E-4</v>
+        <v>-1.6707375004891201E-4</v>
       </c>
       <c r="Z13">
-        <v>6.3621301705539464E-5</v>
+        <v>3.2286317383788625E-5</v>
       </c>
       <c r="AA13">
-        <v>-8.9727420678821686E-6</v>
+        <v>-5.883299305443019E-6</v>
       </c>
       <c r="AB13">
-        <v>7.0466667573332374E-5</v>
+        <v>4.7842798898285003E-5</v>
       </c>
       <c r="AC13">
-        <v>-2.3165134391023333E-6</v>
+        <v>-2.4905292108071296E-5</v>
       </c>
       <c r="AD13">
-        <v>1.2589097551328286E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>4.06192954059891E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>5.7888274274198633E-2</v>
+      <c r="B14" s="4">
+        <v>6.5234702661796859E-2</v>
       </c>
       <c r="C14">
-        <v>-3.0067573195240063E-4</v>
+        <v>-3.4075982836438804E-4</v>
       </c>
       <c r="D14">
-        <v>-1.2622227695756804E-4</v>
+        <v>-3.2473227312822955E-5</v>
       </c>
       <c r="E14">
-        <v>1.2136007752420478E-6</v>
+        <v>4.8732222499458833E-7</v>
       </c>
       <c r="F14">
-        <v>1.310244538878561E-4</v>
+        <v>6.7701017060305731E-5</v>
       </c>
       <c r="G14">
-        <v>1.4836123356439348E-4</v>
+        <v>9.891392417514305E-5</v>
       </c>
       <c r="H14">
-        <v>3.9064848343826024E-4</v>
+        <v>4.050099933091577E-4</v>
       </c>
       <c r="I14">
-        <v>6.2810553278435592E-4</v>
+        <v>5.9804238848411967E-4</v>
       </c>
       <c r="J14">
-        <v>-1.5581398911041888E-4</v>
+        <v>-2.1260327115156866E-4</v>
       </c>
       <c r="K14">
-        <v>9.1169851491463248E-4</v>
+        <v>9.7411574311293361E-4</v>
       </c>
       <c r="L14">
-        <v>4.4958605477172934E-4</v>
+        <v>4.5473436071641045E-4</v>
       </c>
       <c r="M14">
-        <v>2.0832085003242751E-3</v>
+        <v>1.932190015930507E-3</v>
       </c>
       <c r="N14">
-        <v>3.2669382542453865E-3</v>
+        <v>3.126127422753359E-3</v>
       </c>
       <c r="O14">
-        <v>4.5424557974798425E-3</v>
+        <v>4.5463526666117615E-3</v>
       </c>
       <c r="P14">
-        <v>4.0300868013564729E-3</v>
+        <v>3.9506942748472659E-3</v>
       </c>
       <c r="Q14">
-        <v>1.6622279101415814E-4</v>
+        <v>1.9575983388072995E-4</v>
       </c>
       <c r="R14">
-        <v>1.559540636056002E-4</v>
+        <v>1.0439753731182521E-4</v>
       </c>
       <c r="S14">
-        <v>-1.943985473481543E-4</v>
+        <v>-2.8320639648721083E-4</v>
       </c>
       <c r="T14">
-        <v>-7.8430211780594424E-5</v>
+        <v>-1.3652373681698134E-4</v>
       </c>
       <c r="U14">
-        <v>6.8940944964738474E-4</v>
+        <v>7.9372050292902236E-4</v>
       </c>
       <c r="V14">
-        <v>-8.8832931483285476E-5</v>
+        <v>-1.5187702162030301E-4</v>
       </c>
       <c r="W14">
-        <v>-2.4993994309729369E-5</v>
+        <v>-3.3263944891970951E-5</v>
       </c>
       <c r="X14">
-        <v>-4.0547958189143319E-4</v>
+        <v>-3.7603791272367221E-4</v>
       </c>
       <c r="Y14">
-        <v>-1.6338686447634249E-4</v>
+        <v>-1.3266572451699844E-4</v>
       </c>
       <c r="Z14">
-        <v>6.2318449881974293E-5</v>
+        <v>1.2545141075769387E-4</v>
       </c>
       <c r="AA14">
-        <v>3.4787009943530351E-6</v>
+        <v>4.3408715528034357E-6</v>
       </c>
       <c r="AB14">
-        <v>2.9748331020966782E-5</v>
+        <v>-4.053804781635901E-6</v>
       </c>
       <c r="AC14">
-        <v>-1.004372782866467E-4</v>
+        <v>-1.3827189038713867E-4</v>
       </c>
       <c r="AD14">
-        <v>-1.2070683254912144E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-4.1530341371285636E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>-3.8599770583688485E-2</v>
+      <c r="B15" s="4">
+        <v>-2.522766883252062E-2</v>
       </c>
       <c r="C15">
-        <v>-1.1826826649201196E-4</v>
+        <v>-3.2916046473410157E-5</v>
       </c>
       <c r="D15">
-        <v>-1.7777911676169567E-4</v>
+        <v>-2.2064422740607041E-4</v>
       </c>
       <c r="E15">
-        <v>1.6262400001615504E-6</v>
+        <v>1.8873349193993843E-6</v>
       </c>
       <c r="F15">
-        <v>-1.0470641646675673E-4</v>
+        <v>-2.173540987021555E-4</v>
       </c>
       <c r="G15">
-        <v>2.122483175796754E-5</v>
+        <v>-5.7848382370353471E-5</v>
       </c>
       <c r="H15">
-        <v>9.2269186944918778E-4</v>
+        <v>9.6895025851312605E-4</v>
       </c>
       <c r="I15">
-        <v>1.2981889312306343E-3</v>
+        <v>1.2908010553483462E-3</v>
       </c>
       <c r="J15">
-        <v>-1.7025511441513808E-4</v>
+        <v>-8.9171976687216648E-5</v>
       </c>
       <c r="K15">
-        <v>1.1610375345701006E-3</v>
+        <v>1.1984901732489325E-3</v>
       </c>
       <c r="L15">
-        <v>5.39575788361067E-4</v>
+        <v>5.2765431689125045E-4</v>
       </c>
       <c r="M15">
-        <v>2.1455304467850093E-3</v>
+        <v>1.9877112034514207E-3</v>
       </c>
       <c r="N15">
-        <v>3.6347689427182798E-3</v>
+        <v>3.4235377933323698E-3</v>
       </c>
       <c r="O15">
-        <v>4.0300868013564729E-3</v>
+        <v>3.9506942748472659E-3</v>
       </c>
       <c r="P15">
-        <v>5.6957242509122997E-3</v>
+        <v>5.5762579001822432E-3</v>
       </c>
       <c r="Q15">
-        <v>1.5508345185841021E-4</v>
+        <v>1.8583018960906342E-4</v>
       </c>
       <c r="R15">
-        <v>1.5416332242017863E-4</v>
+        <v>1.248284451830166E-4</v>
       </c>
       <c r="S15">
-        <v>-1.6190324170585853E-4</v>
+        <v>-1.9871271103466981E-4</v>
       </c>
       <c r="T15">
-        <v>-1.925197575284435E-5</v>
+        <v>-6.4896189554699868E-5</v>
       </c>
       <c r="U15">
-        <v>1.0395190162962714E-3</v>
+        <v>1.0930475459618608E-3</v>
       </c>
       <c r="V15">
-        <v>5.2333884811923791E-5</v>
+        <v>2.2694625826732989E-5</v>
       </c>
       <c r="W15">
-        <v>-4.3250306929227416E-5</v>
+        <v>-5.375320057457683E-5</v>
       </c>
       <c r="X15">
-        <v>-2.5555648585872954E-4</v>
+        <v>-2.0290783879375979E-4</v>
       </c>
       <c r="Y15">
-        <v>-9.7969278935966281E-5</v>
+        <v>-7.8723408202364324E-5</v>
       </c>
       <c r="Z15">
-        <v>8.7619351311036186E-5</v>
+        <v>1.6495382335241166E-4</v>
       </c>
       <c r="AA15">
-        <v>7.4799335422335008E-6</v>
+        <v>1.321860000002212E-5</v>
       </c>
       <c r="AB15">
-        <v>8.4575307571861002E-5</v>
+        <v>1.9598134068997235E-5</v>
       </c>
       <c r="AC15">
-        <v>-4.9502389486345399E-5</v>
+        <v>-1.1221497851073562E-4</v>
       </c>
       <c r="AD15">
-        <v>-9.9053168926190732E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>5.4168730659966157E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>-5.9601327546452892E-2</v>
+      <c r="B16" s="4">
+        <v>-7.6537362366442985E-2</v>
       </c>
       <c r="C16">
-        <v>-6.3952410560323659E-4</v>
+        <v>-6.4864614223925175E-4</v>
       </c>
       <c r="D16">
-        <v>-3.1981735867479236E-4</v>
+        <v>-2.690762011121361E-4</v>
       </c>
       <c r="E16">
-        <v>2.5764890616646378E-6</v>
+        <v>2.190447376197419E-6</v>
       </c>
       <c r="F16">
-        <v>1.4928281742936545E-4</v>
+        <v>1.4676234036893078E-4</v>
       </c>
       <c r="G16">
-        <v>7.0948984891599929E-5</v>
+        <v>4.6274857418761436E-5</v>
       </c>
       <c r="H16">
-        <v>4.345782770516801E-5</v>
+        <v>6.5824712246610186E-5</v>
       </c>
       <c r="I16">
-        <v>2.3555237724799446E-4</v>
+        <v>2.3202056378522314E-4</v>
       </c>
       <c r="J16">
-        <v>-2.265975748012778E-4</v>
+        <v>-2.6462855588543863E-4</v>
       </c>
       <c r="K16">
-        <v>-1.2082171628381947E-3</v>
+        <v>-1.0856526763974011E-3</v>
       </c>
       <c r="L16">
-        <v>5.8488495584571088E-5</v>
+        <v>5.553184465427951E-5</v>
       </c>
       <c r="M16">
-        <v>-6.0876112919892645E-5</v>
+        <v>-8.6045085979662457E-5</v>
       </c>
       <c r="N16">
-        <v>1.0752524709906011E-4</v>
+        <v>1.027688666151533E-4</v>
       </c>
       <c r="O16">
-        <v>1.6622279101415814E-4</v>
+        <v>1.9575983388072995E-4</v>
       </c>
       <c r="P16">
-        <v>1.5508345185841021E-4</v>
+        <v>1.8583018960906342E-4</v>
       </c>
       <c r="Q16">
-        <v>2.5170195063384253E-3</v>
+        <v>2.4546922188595972E-3</v>
       </c>
       <c r="R16">
-        <v>3.449542001612583E-5</v>
+        <v>2.096441018017048E-5</v>
       </c>
       <c r="S16">
-        <v>-1.126610760456753E-4</v>
+        <v>-8.3820428580042082E-5</v>
       </c>
       <c r="T16">
-        <v>-1.6304335964450279E-4</v>
+        <v>-1.8957603577217646E-4</v>
       </c>
       <c r="U16">
-        <v>1.01014769280915E-4</v>
+        <v>1.287945913820404E-4</v>
       </c>
       <c r="V16">
-        <v>-1.4322071383300714E-4</v>
+        <v>-1.4051068303962101E-4</v>
       </c>
       <c r="W16">
-        <v>-4.8212828071213113E-5</v>
+        <v>-8.0009568975215385E-5</v>
       </c>
       <c r="X16">
-        <v>-5.4084073806813342E-5</v>
+        <v>-5.8015759805530795E-5</v>
       </c>
       <c r="Y16">
-        <v>4.3711107127856487E-5</v>
+        <v>1.7169893151604363E-5</v>
       </c>
       <c r="Z16">
-        <v>-6.2186587305620522E-5</v>
+        <v>-8.0146747705291739E-5</v>
       </c>
       <c r="AA16">
-        <v>1.310823663292478E-5</v>
+        <v>1.6110497326314523E-5</v>
       </c>
       <c r="AB16">
-        <v>-6.1330244700733916E-5</v>
+        <v>-6.0726219862523682E-5</v>
       </c>
       <c r="AC16">
-        <v>-5.9286868152961603E-5</v>
+        <v>-6.796368317117012E-5</v>
       </c>
       <c r="AD16">
-        <v>9.9151241357623258E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+        <v>8.2214206895028508E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>-2.4754184228026027E-2</v>
+      <c r="B17" s="4">
+        <v>-5.0044485788388646E-2</v>
       </c>
       <c r="C17">
-        <v>-1.6853137957318129E-4</v>
+        <v>-1.9215348374986241E-4</v>
       </c>
       <c r="D17">
-        <v>-1.6835112217458877E-4</v>
+        <v>-1.9368503058245917E-4</v>
       </c>
       <c r="E17">
-        <v>6.4397990165077535E-7</v>
+        <v>8.3661011585772771E-7</v>
       </c>
       <c r="F17">
-        <v>-7.9233067560074239E-5</v>
+        <v>-4.4641219092691684E-5</v>
       </c>
       <c r="G17">
-        <v>-5.1405732356615483E-5</v>
+        <v>-3.9375605330825743E-5</v>
       </c>
       <c r="H17">
-        <v>8.3844981369886036E-5</v>
+        <v>6.880714383995669E-5</v>
       </c>
       <c r="I17">
-        <v>1.204540371225957E-4</v>
+        <v>1.0758941910364865E-4</v>
       </c>
       <c r="J17">
-        <v>7.0787308245227627E-5</v>
+        <v>4.1422320177780716E-5</v>
       </c>
       <c r="K17">
-        <v>3.103882143888387E-5</v>
+        <v>2.4323639828949836E-5</v>
       </c>
       <c r="L17">
-        <v>-3.7141257830414004E-5</v>
+        <v>-3.7696460200550017E-5</v>
       </c>
       <c r="M17">
-        <v>1.260274024449523E-4</v>
+        <v>1.3068222682406308E-4</v>
       </c>
       <c r="N17">
-        <v>1.3549530928261497E-4</v>
+        <v>1.3848170123920505E-4</v>
       </c>
       <c r="O17">
-        <v>1.559540636056002E-4</v>
+        <v>1.0439753731182521E-4</v>
       </c>
       <c r="P17">
-        <v>1.5416332242017863E-4</v>
+        <v>1.248284451830166E-4</v>
       </c>
       <c r="Q17">
-        <v>3.449542001612583E-5</v>
+        <v>2.096441018017048E-5</v>
       </c>
       <c r="R17">
-        <v>1.6598122401512228E-3</v>
+        <v>1.6747042168053527E-3</v>
       </c>
       <c r="S17">
-        <v>-3.7062207784651507E-4</v>
+        <v>-3.6686261525962252E-4</v>
       </c>
       <c r="T17">
-        <v>-1.8156951865690429E-4</v>
+        <v>-1.6905251795315014E-4</v>
       </c>
       <c r="U17">
-        <v>-4.5732107664074915E-4</v>
+        <v>-4.4685582306657357E-4</v>
       </c>
       <c r="V17">
-        <v>3.4460906934446849E-4</v>
+        <v>3.3774909840198375E-4</v>
       </c>
       <c r="W17">
-        <v>-3.7942700358462207E-7</v>
+        <v>6.8438386275748025E-6</v>
       </c>
       <c r="X17">
-        <v>1.0999653528634998E-5</v>
+        <v>1.4647613672552455E-5</v>
       </c>
       <c r="Y17">
-        <v>1.9936667540336721E-5</v>
+        <v>2.9177626024552315E-5</v>
       </c>
       <c r="Z17">
-        <v>1.1303180306506647E-5</v>
+        <v>1.1600401186374768E-5</v>
       </c>
       <c r="AA17">
-        <v>-1.2096103911305654E-5</v>
+        <v>-1.3251658380575914E-5</v>
       </c>
       <c r="AB17">
-        <v>-5.6518955571682305E-5</v>
+        <v>-4.019690382143018E-5</v>
       </c>
       <c r="AC17">
-        <v>-3.8441950122660839E-5</v>
+        <v>-2.3239041850958014E-5</v>
       </c>
       <c r="AD17">
-        <v>7.5034833781160029E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>8.3880985039023089E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
-        <v>0.18679523974283371</v>
+      <c r="B18" s="4">
+        <v>0.1668141209361827</v>
       </c>
       <c r="C18">
-        <v>6.790424769736853E-4</v>
+        <v>7.152169098655185E-4</v>
       </c>
       <c r="D18">
-        <v>-3.587823603409257E-4</v>
+        <v>-3.274704188904274E-4</v>
       </c>
       <c r="E18">
-        <v>3.1151089401991873E-6</v>
+        <v>2.8769056127447859E-6</v>
       </c>
       <c r="F18">
-        <v>1.2133864801033975E-4</v>
+        <v>1.0040336223996718E-4</v>
       </c>
       <c r="G18">
-        <v>8.8592714981025958E-5</v>
+        <v>7.3359991380996881E-5</v>
       </c>
       <c r="H18">
-        <v>7.8724718140703033E-5</v>
+        <v>6.457950495068575E-5</v>
       </c>
       <c r="I18">
-        <v>1.4363060037005625E-5</v>
+        <v>2.519553193163648E-6</v>
       </c>
       <c r="J18">
-        <v>-1.4437784939923997E-4</v>
+        <v>-1.6433334802353405E-4</v>
       </c>
       <c r="K18">
-        <v>-6.4908987092667067E-5</v>
+        <v>-1.5724671709430331E-4</v>
       </c>
       <c r="L18">
-        <v>6.411721874329695E-5</v>
+        <v>1.199907926688875E-4</v>
       </c>
       <c r="M18">
-        <v>2.6020274345575017E-5</v>
+        <v>1.7261480280003128E-5</v>
       </c>
       <c r="N18">
-        <v>-1.9723129625810049E-4</v>
+        <v>-2.0614986370736142E-4</v>
       </c>
       <c r="O18">
-        <v>-1.943985473481543E-4</v>
+        <v>-2.8320639648721083E-4</v>
       </c>
       <c r="P18">
-        <v>-1.6190324170585853E-4</v>
+        <v>-1.9871271103466981E-4</v>
       </c>
       <c r="Q18">
-        <v>-1.126610760456753E-4</v>
+        <v>-8.3820428580042082E-5</v>
       </c>
       <c r="R18">
-        <v>-3.7062207784651507E-4</v>
+        <v>-3.6686261525962252E-4</v>
       </c>
       <c r="S18">
-        <v>4.0811853313809559E-3</v>
+        <v>4.246380385085141E-3</v>
       </c>
       <c r="T18">
-        <v>8.0650998307855526E-4</v>
+        <v>8.2946948098566254E-4</v>
       </c>
       <c r="U18">
-        <v>1.3205383733654478E-4</v>
+        <v>1.3033232868109171E-4</v>
       </c>
       <c r="V18">
-        <v>-1.1104317783187532E-4</v>
+        <v>-9.2914376061402544E-5</v>
       </c>
       <c r="W18">
-        <v>2.1375162929501614E-6</v>
+        <v>3.1056584944640911E-5</v>
       </c>
       <c r="X18">
-        <v>-2.4650831097791474E-7</v>
+        <v>5.6220150052026089E-5</v>
       </c>
       <c r="Y18">
-        <v>6.3690393666063867E-5</v>
+        <v>1.1410848532865522E-4</v>
       </c>
       <c r="Z18">
-        <v>5.4568189454932384E-5</v>
+        <v>8.4517338890181966E-5</v>
       </c>
       <c r="AA18">
-        <v>-2.9594908953022145E-6</v>
+        <v>-3.5651052120841729E-6</v>
       </c>
       <c r="AB18">
-        <v>-3.6046328671264765E-5</v>
+        <v>-2.1327045118989078E-5</v>
       </c>
       <c r="AC18">
-        <v>-4.4881595778836943E-5</v>
+        <v>-4.8497688590319089E-5</v>
       </c>
       <c r="AD18">
-        <v>9.8065311207565196E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>8.8046943887240981E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>0.1188511049800412</v>
+      <c r="B19" s="4">
+        <v>0.13598328913646732</v>
       </c>
       <c r="C19">
-        <v>6.4948858121870266E-4</v>
+        <v>7.0748871991933241E-4</v>
       </c>
       <c r="D19">
-        <v>-3.7488421193575087E-4</v>
+        <v>-3.5472592236630678E-4</v>
       </c>
       <c r="E19">
-        <v>3.1825171108895066E-6</v>
+        <v>3.0064943041682398E-6</v>
       </c>
       <c r="F19">
-        <v>1.622357192046849E-4</v>
+        <v>1.335601824071983E-4</v>
       </c>
       <c r="G19">
-        <v>9.6924887841350321E-5</v>
+        <v>8.7139043202751239E-5</v>
       </c>
       <c r="H19">
-        <v>-3.6103757820804146E-6</v>
+        <v>-4.602506740524368E-5</v>
       </c>
       <c r="I19">
-        <v>-6.2517898521926945E-5</v>
+        <v>-8.4295317165667826E-5</v>
       </c>
       <c r="J19">
-        <v>-1.8301945978892089E-4</v>
+        <v>-1.1569794309044309E-4</v>
       </c>
       <c r="K19">
-        <v>1.099540513389331E-5</v>
+        <v>4.7765727717183457E-5</v>
       </c>
       <c r="L19">
-        <v>6.9671923109769387E-5</v>
+        <v>2.0436324946345417E-5</v>
       </c>
       <c r="M19">
-        <v>9.2814930465985086E-5</v>
+        <v>7.7525586923886961E-5</v>
       </c>
       <c r="N19">
-        <v>-8.9215306525469929E-5</v>
+        <v>-9.9132348560489674E-5</v>
       </c>
       <c r="O19">
-        <v>-7.8430211780594424E-5</v>
+        <v>-1.3652373681698134E-4</v>
       </c>
       <c r="P19">
-        <v>-1.925197575284435E-5</v>
+        <v>-6.4896189554699868E-5</v>
       </c>
       <c r="Q19">
-        <v>-1.6304335964450279E-4</v>
+        <v>-1.8957603577217646E-4</v>
       </c>
       <c r="R19">
-        <v>-1.8156951865690429E-4</v>
+        <v>-1.6905251795315014E-4</v>
       </c>
       <c r="S19">
-        <v>8.0650998307855526E-4</v>
+        <v>8.2946948098566254E-4</v>
       </c>
       <c r="T19">
-        <v>3.7293852862767293E-3</v>
+        <v>3.7140291863548324E-3</v>
       </c>
       <c r="U19">
-        <v>7.1943158370467008E-6</v>
+        <v>-1.4454141001601028E-5</v>
       </c>
       <c r="V19">
-        <v>-5.8729283274173202E-5</v>
+        <v>-4.6104830267748803E-5</v>
       </c>
       <c r="W19">
-        <v>-7.2384897997503604E-6</v>
+        <v>4.5883356893960166E-5</v>
       </c>
       <c r="X19">
-        <v>-9.4818973081178121E-5</v>
+        <v>-2.6121354569969999E-5</v>
       </c>
       <c r="Y19">
-        <v>-4.487742166731719E-5</v>
+        <v>1.3830675008246179E-5</v>
       </c>
       <c r="Z19">
-        <v>-3.5907988998353868E-5</v>
+        <v>9.9814271947077206E-6</v>
       </c>
       <c r="AA19">
-        <v>-9.0353540215653563E-6</v>
+        <v>-2.8111578916397827E-6</v>
       </c>
       <c r="AB19">
-        <v>6.2129650477926041E-5</v>
+        <v>6.4328062494123373E-5</v>
       </c>
       <c r="AC19">
-        <v>1.3204927831289006E-4</v>
+        <v>1.181050903408384E-4</v>
       </c>
       <c r="AD19">
-        <v>1.0645208428481941E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>9.917673602330257E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
-        <v>7.9555351517900261E-2</v>
+      <c r="B20" s="4">
+        <v>9.6569028734105999E-2</v>
       </c>
       <c r="C20">
-        <v>-1.0086923028186961E-4</v>
+        <v>-9.4018786993695059E-5</v>
       </c>
       <c r="D20">
-        <v>-5.5213074204347231E-5</v>
+        <v>-8.5601786893998999E-5</v>
       </c>
       <c r="E20">
-        <v>4.7609044395038086E-7</v>
+        <v>7.016464870789773E-7</v>
       </c>
       <c r="F20">
-        <v>-1.1874429933528166E-5</v>
+        <v>-4.4506262107149933E-5</v>
       </c>
       <c r="G20">
-        <v>1.7429961629883482E-5</v>
+        <v>7.2355979688566892E-6</v>
       </c>
       <c r="H20">
-        <v>6.5847579107478735E-5</v>
+        <v>1.3397700126094786E-4</v>
       </c>
       <c r="I20">
-        <v>7.3419588188727091E-5</v>
+        <v>1.2427969160666797E-4</v>
       </c>
       <c r="J20">
-        <v>-1.4041604183839709E-4</v>
+        <v>-1.2573853956700633E-4</v>
       </c>
       <c r="K20">
-        <v>3.315933115298955E-5</v>
+        <v>5.694056206094662E-5</v>
       </c>
       <c r="L20">
-        <v>1.3423897110382584E-4</v>
+        <v>1.4767971101231061E-4</v>
       </c>
       <c r="M20">
-        <v>3.6834629437185418E-5</v>
+        <v>3.5728549538109009E-5</v>
       </c>
       <c r="N20">
-        <v>6.3942974224120367E-4</v>
+        <v>6.3704253461629794E-4</v>
       </c>
       <c r="O20">
-        <v>6.8940944964738474E-4</v>
+        <v>7.9372050292902236E-4</v>
       </c>
       <c r="P20">
-        <v>1.0395190162962714E-3</v>
+        <v>1.0930475459618608E-3</v>
       </c>
       <c r="Q20">
-        <v>1.01014769280915E-4</v>
+        <v>1.287945913820404E-4</v>
       </c>
       <c r="R20">
-        <v>-4.5732107664074915E-4</v>
+        <v>-4.4685582306657357E-4</v>
       </c>
       <c r="S20">
-        <v>1.3205383733654478E-4</v>
+        <v>1.3033232868109171E-4</v>
       </c>
       <c r="T20">
-        <v>7.1943158370467008E-6</v>
+        <v>-1.4454141001601028E-5</v>
       </c>
       <c r="U20">
-        <v>1.5607513784211241E-3</v>
+        <v>1.5903454197261496E-3</v>
       </c>
       <c r="V20">
-        <v>-7.3197158917739772E-4</v>
+        <v>-7.0317947126415494E-4</v>
       </c>
       <c r="W20">
-        <v>-8.5764801821366804E-5</v>
+        <v>-1.3243169171963152E-4</v>
       </c>
       <c r="X20">
-        <v>-1.57260834063767E-4</v>
+        <v>-2.1374946962131024E-4</v>
       </c>
       <c r="Y20">
-        <v>-9.8552661028434153E-5</v>
+        <v>-1.2023721632831722E-4</v>
       </c>
       <c r="Z20">
-        <v>9.173718682187544E-5</v>
+        <v>1.0337981996922858E-4</v>
       </c>
       <c r="AA20">
-        <v>1.1208490002639835E-5</v>
+        <v>1.0302552885721844E-5</v>
       </c>
       <c r="AB20">
-        <v>3.7376084625105198E-5</v>
+        <v>7.3328544476929146E-6</v>
       </c>
       <c r="AC20">
-        <v>-5.7813851532067227E-6</v>
+        <v>-3.0127687701478193E-5</v>
       </c>
       <c r="AD20">
-        <v>1.9129670314789373E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.0770164195535227E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>8.1952949967555852E-2</v>
+      <c r="B21" s="4">
+        <v>5.552468844137879E-2</v>
       </c>
       <c r="C21">
-        <v>1.2180537340727602E-4</v>
+        <v>1.2315586087774356E-4</v>
       </c>
       <c r="D21">
-        <v>-1.8385753246238923E-5</v>
+        <v>-4.5335928127530206E-6</v>
       </c>
       <c r="E21">
-        <v>2.5420038693081844E-7</v>
+        <v>1.4171235038341705E-7</v>
       </c>
       <c r="F21">
-        <v>-2.0641222557179345E-5</v>
+        <v>-2.1757922856644688E-5</v>
       </c>
       <c r="G21">
-        <v>-4.9509011015548381E-5</v>
+        <v>-5.7542139594381463E-5</v>
       </c>
       <c r="H21">
-        <v>9.3859925135694842E-5</v>
+        <v>8.9595977054581906E-5</v>
       </c>
       <c r="I21">
-        <v>6.2722655559309555E-5</v>
+        <v>5.6267233014376113E-5</v>
       </c>
       <c r="J21">
-        <v>1.2083350732726645E-4</v>
+        <v>1.1393979709583158E-4</v>
       </c>
       <c r="K21">
-        <v>2.2910057298955195E-4</v>
+        <v>2.0141542710248146E-4</v>
       </c>
       <c r="L21">
-        <v>-1.7123485855090499E-4</v>
+        <v>-1.8015510939777034E-4</v>
       </c>
       <c r="M21">
-        <v>2.6332385326778289E-5</v>
+        <v>7.3004716322148815E-6</v>
       </c>
       <c r="N21">
-        <v>-2.2219171177645126E-4</v>
+        <v>-2.1798984252324871E-4</v>
       </c>
       <c r="O21">
-        <v>-8.8832931483285476E-5</v>
+        <v>-1.5187702162030301E-4</v>
       </c>
       <c r="P21">
-        <v>5.2333884811923791E-5</v>
+        <v>2.2694625826732989E-5</v>
       </c>
       <c r="Q21">
-        <v>-1.4322071383300714E-4</v>
+        <v>-1.4051068303962101E-4</v>
       </c>
       <c r="R21">
-        <v>3.4460906934446849E-4</v>
+        <v>3.3774909840198375E-4</v>
       </c>
       <c r="S21">
-        <v>-1.1104317783187532E-4</v>
+        <v>-9.2914376061402544E-5</v>
       </c>
       <c r="T21">
-        <v>-5.8729283274173202E-5</v>
+        <v>-4.6104830267748803E-5</v>
       </c>
       <c r="U21">
-        <v>-7.3197158917739772E-4</v>
+        <v>-7.0317947126415494E-4</v>
       </c>
       <c r="V21">
-        <v>2.8639531480279231E-3</v>
+        <v>2.8428379675893519E-3</v>
       </c>
       <c r="W21">
-        <v>4.2297084264597475E-5</v>
+        <v>7.8298847784035439E-5</v>
       </c>
       <c r="X21">
-        <v>2.1793874184687171E-4</v>
+        <v>2.6929851716091631E-4</v>
       </c>
       <c r="Y21">
-        <v>3.9215777461995061E-6</v>
+        <v>4.7738871756601147E-5</v>
       </c>
       <c r="Z21">
-        <v>-7.1911898095446884E-5</v>
+        <v>-3.5395337221875731E-5</v>
       </c>
       <c r="AA21">
-        <v>-7.2589843489123212E-7</v>
+        <v>-9.8188667275766315E-7</v>
       </c>
       <c r="AB21">
-        <v>1.8252295822598365E-5</v>
+        <v>2.2197477540434989E-5</v>
       </c>
       <c r="AC21">
-        <v>7.1561859782469654E-5</v>
+        <v>6.3866880267276593E-5</v>
       </c>
       <c r="AD21">
-        <v>-1.4071316376715673E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-4.2473761483027513E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>-8.5191716588633767E-2</v>
+      <c r="B22" s="4">
+        <v>-8.5088088076488128E-2</v>
       </c>
       <c r="C22">
-        <v>-1.159646340753933E-4</v>
+        <v>-1.3983304214127269E-4</v>
       </c>
       <c r="D22">
-        <v>5.0595609929211804E-5</v>
+        <v>1.3067177520545079E-4</v>
       </c>
       <c r="E22">
-        <v>-2.5403001804879827E-7</v>
+        <v>-8.1741691621809061E-7</v>
       </c>
       <c r="F22">
-        <v>1.0030741989362855E-4</v>
+        <v>1.0260984940214067E-4</v>
       </c>
       <c r="G22">
-        <v>6.3749625393203467E-5</v>
+        <v>6.3327368176944836E-5</v>
       </c>
       <c r="H22">
-        <v>-5.4921847480626757E-5</v>
+        <v>-2.220870962684447E-5</v>
       </c>
       <c r="I22">
-        <v>-1.7892519632042164E-4</v>
+        <v>-1.6789935325235694E-4</v>
       </c>
       <c r="J22">
-        <v>-1.2288005815080938E-4</v>
+        <v>-1.8848664681634167E-4</v>
       </c>
       <c r="K22">
-        <v>1.9967374628575198E-5</v>
+        <v>1.3815953928713936E-5</v>
       </c>
       <c r="L22">
-        <v>2.7395369671153001E-5</v>
+        <v>5.677666780217307E-5</v>
       </c>
       <c r="M22">
-        <v>8.1463493584503513E-5</v>
+        <v>6.3690751866836607E-5</v>
       </c>
       <c r="N22">
-        <v>-8.6996786366774436E-5</v>
+        <v>-1.2052260892515515E-4</v>
       </c>
       <c r="O22">
-        <v>-2.4993994309729369E-5</v>
+        <v>-3.3263944891970951E-5</v>
       </c>
       <c r="P22">
-        <v>-4.3250306929227416E-5</v>
+        <v>-5.375320057457683E-5</v>
       </c>
       <c r="Q22">
-        <v>-4.8212828071213113E-5</v>
+        <v>-8.0009568975215385E-5</v>
       </c>
       <c r="R22">
-        <v>-3.7942700358462207E-7</v>
+        <v>6.8438386275748025E-6</v>
       </c>
       <c r="S22">
-        <v>2.1375162929501614E-6</v>
+        <v>3.1056584944640911E-5</v>
       </c>
       <c r="T22">
-        <v>-7.2384897997503604E-6</v>
+        <v>4.5883356893960166E-5</v>
       </c>
       <c r="U22">
-        <v>-8.5764801821366804E-5</v>
+        <v>-1.3243169171963152E-4</v>
       </c>
       <c r="V22">
-        <v>4.2297084264597475E-5</v>
+        <v>7.8298847784035439E-5</v>
       </c>
       <c r="W22">
-        <v>2.4866320943904494E-3</v>
+        <v>2.5138991745874322E-3</v>
       </c>
       <c r="X22">
-        <v>1.3169626392929663E-3</v>
+        <v>1.3243098511110222E-3</v>
       </c>
       <c r="Y22">
-        <v>1.3034607298624459E-3</v>
+        <v>1.3052554134367384E-3</v>
       </c>
       <c r="Z22">
-        <v>1.3097080096847445E-3</v>
+        <v>1.3159528022380477E-3</v>
       </c>
       <c r="AA22">
-        <v>-6.8865834901634048E-6</v>
+        <v>-7.5152258544560159E-6</v>
       </c>
       <c r="AB22">
-        <v>-2.5867758147128466E-5</v>
+        <v>-2.7611529088403464E-5</v>
       </c>
       <c r="AC22">
-        <v>8.4736509675889678E-6</v>
+        <v>1.363256222193518E-5</v>
       </c>
       <c r="AD22">
-        <v>-3.0858589353760925E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-5.8091846191435977E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
-        <v>4.1505417162810247E-2</v>
+      <c r="B23" s="4">
+        <v>4.7027894859929663E-2</v>
       </c>
       <c r="C23">
-        <v>9.7853416910361282E-5</v>
+        <v>7.9391890456625698E-5</v>
       </c>
       <c r="D23">
-        <v>-3.6737151829226503E-5</v>
+        <v>3.2084219687431373E-5</v>
       </c>
       <c r="E23">
-        <v>2.4756921085137217E-7</v>
+        <v>-2.2354844636251765E-7</v>
       </c>
       <c r="F23">
-        <v>1.201942228403678E-4</v>
+        <v>1.1448851824977539E-4</v>
       </c>
       <c r="G23">
-        <v>-1.0444132190616517E-4</v>
+        <v>-1.0073389662790819E-4</v>
       </c>
       <c r="H23">
-        <v>-7.4580574640738064E-5</v>
+        <v>-1.0638420984030773E-5</v>
       </c>
       <c r="I23">
-        <v>-1.6164883068749624E-4</v>
+        <v>-1.0033633753606103E-4</v>
       </c>
       <c r="J23">
-        <v>-2.5274420958689824E-5</v>
+        <v>-7.1783130328159465E-5</v>
       </c>
       <c r="K23">
-        <v>4.9553097970263336E-5</v>
+        <v>3.5756348005295657E-5</v>
       </c>
       <c r="L23">
-        <v>-4.9325492076010818E-6</v>
+        <v>2.7442948895848533E-5</v>
       </c>
       <c r="M23">
-        <v>-6.1195744249785213E-5</v>
+        <v>-7.7511952547065622E-5</v>
       </c>
       <c r="N23">
-        <v>-3.369142061026155E-4</v>
+        <v>-3.7904350000199935E-4</v>
       </c>
       <c r="O23">
-        <v>-4.0547958189143319E-4</v>
+        <v>-3.7603791272367221E-4</v>
       </c>
       <c r="P23">
-        <v>-2.5555648585872954E-4</v>
+        <v>-2.0290783879375979E-4</v>
       </c>
       <c r="Q23">
-        <v>-5.4084073806813342E-5</v>
+        <v>-5.8015759805530795E-5</v>
       </c>
       <c r="R23">
-        <v>1.0999653528634998E-5</v>
+        <v>1.4647613672552455E-5</v>
       </c>
       <c r="S23">
-        <v>-2.4650831097791474E-7</v>
+        <v>5.6220150052026089E-5</v>
       </c>
       <c r="T23">
-        <v>-9.4818973081178121E-5</v>
+        <v>-2.6121354569969999E-5</v>
       </c>
       <c r="U23">
-        <v>-1.57260834063767E-4</v>
+        <v>-2.1374946962131024E-4</v>
       </c>
       <c r="V23">
-        <v>2.1793874184687171E-4</v>
+        <v>2.6929851716091631E-4</v>
       </c>
       <c r="W23">
-        <v>1.3169626392929663E-3</v>
+        <v>1.3243098511110222E-3</v>
       </c>
       <c r="X23">
-        <v>3.8621368269982238E-3</v>
+        <v>3.9673465257280896E-3</v>
       </c>
       <c r="Y23">
-        <v>1.3176921362367999E-3</v>
+        <v>1.32271123774696E-3</v>
       </c>
       <c r="Z23">
-        <v>1.3234488086702697E-3</v>
+        <v>1.3307830416067227E-3</v>
       </c>
       <c r="AA23">
-        <v>4.0922630280992679E-6</v>
+        <v>4.8844598935186989E-6</v>
       </c>
       <c r="AB23">
-        <v>-1.7674696201734841E-4</v>
+        <v>-1.9224244668870625E-4</v>
       </c>
       <c r="AC23">
-        <v>-1.5679453841133288E-4</v>
+        <v>-1.6415603213919364E-4</v>
       </c>
       <c r="AD23">
-        <v>3.231707892675064E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-2.1468867144989945E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
-        <v>-5.7126483818906906E-2</v>
+      <c r="B24" s="4">
+        <v>-5.1803317942048226E-2</v>
       </c>
       <c r="C24">
-        <v>-7.565529291985167E-5</v>
+        <v>-1.0687789952157096E-4</v>
       </c>
       <c r="D24">
-        <v>1.1549539306474413E-4</v>
+        <v>2.0301421374443671E-4</v>
       </c>
       <c r="E24">
-        <v>-7.5796213696907437E-7</v>
+        <v>-1.3789079779402702E-6</v>
       </c>
       <c r="F24">
-        <v>4.036651825657829E-5</v>
+        <v>3.1804392972987778E-5</v>
       </c>
       <c r="G24">
-        <v>3.3816509115898626E-5</v>
+        <v>5.034719758341584E-5</v>
       </c>
       <c r="H24">
-        <v>6.0524721730580368E-5</v>
+        <v>9.4819007111315688E-5</v>
       </c>
       <c r="I24">
-        <v>-6.8550444450208746E-5</v>
+        <v>-6.2257058643782454E-5</v>
       </c>
       <c r="J24">
-        <v>-1.1203092040101056E-4</v>
+        <v>-1.8440971098954758E-4</v>
       </c>
       <c r="K24">
-        <v>-5.8742873492376602E-5</v>
+        <v>-6.0023203406786184E-5</v>
       </c>
       <c r="L24">
-        <v>-1.775767704104321E-5</v>
+        <v>2.8478988280961157E-5</v>
       </c>
       <c r="M24">
-        <v>1.0334999792713748E-4</v>
+        <v>9.7432355254204687E-5</v>
       </c>
       <c r="N24">
-        <v>-1.4374753387248312E-4</v>
+        <v>-1.6707375004891201E-4</v>
       </c>
       <c r="O24">
-        <v>-1.6338686447634249E-4</v>
+        <v>-1.3266572451699844E-4</v>
       </c>
       <c r="P24">
-        <v>-9.7969278935966281E-5</v>
+        <v>-7.8723408202364324E-5</v>
       </c>
       <c r="Q24">
-        <v>4.3711107127856487E-5</v>
+        <v>1.7169893151604363E-5</v>
       </c>
       <c r="R24">
-        <v>1.9936667540336721E-5</v>
+        <v>2.9177626024552315E-5</v>
       </c>
       <c r="S24">
-        <v>6.3690393666063867E-5</v>
+        <v>1.1410848532865522E-4</v>
       </c>
       <c r="T24">
-        <v>-4.487742166731719E-5</v>
+        <v>1.3830675008246179E-5</v>
       </c>
       <c r="U24">
-        <v>-9.8552661028434153E-5</v>
+        <v>-1.2023721632831722E-4</v>
       </c>
       <c r="V24">
-        <v>3.9215777461995061E-6</v>
+        <v>4.7738871756601147E-5</v>
       </c>
       <c r="W24">
-        <v>1.3034607298624459E-3</v>
+        <v>1.3052554134367384E-3</v>
       </c>
       <c r="X24">
-        <v>1.3176921362367999E-3</v>
+        <v>1.32271123774696E-3</v>
       </c>
       <c r="Y24">
-        <v>2.4994758180381356E-3</v>
+        <v>2.5045315264040731E-3</v>
       </c>
       <c r="Z24">
-        <v>1.3147794211362908E-3</v>
+        <v>1.3260289876310268E-3</v>
       </c>
       <c r="AA24">
-        <v>-5.9836442370622697E-6</v>
+        <v>-7.117419464257543E-6</v>
       </c>
       <c r="AB24">
-        <v>-2.2641322383701253E-5</v>
+        <v>-3.680044130819577E-5</v>
       </c>
       <c r="AC24">
-        <v>6.0362955374879931E-5</v>
+        <v>6.0362063904719192E-5</v>
       </c>
       <c r="AD24">
-        <v>-5.211269757196272E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-8.2021630375990612E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
-        <v>-4.1472116208268357E-2</v>
+      <c r="B25" s="4">
+        <v>-4.0382804461078121E-2</v>
       </c>
       <c r="C25">
-        <v>-7.1754595291004659E-5</v>
+        <v>-1.4536206869101442E-4</v>
       </c>
       <c r="D25">
-        <v>-6.947659953095587E-5</v>
+        <v>7.4476721325910863E-5</v>
       </c>
       <c r="E25">
-        <v>6.2717157603557784E-7</v>
+        <v>-3.9882146781958097E-7</v>
       </c>
       <c r="F25">
-        <v>1.2925061778215488E-4</v>
+        <v>1.5160437994200804E-4</v>
       </c>
       <c r="G25">
-        <v>-2.1143776357802641E-5</v>
+        <v>-5.3271945509654646E-6</v>
       </c>
       <c r="H25">
-        <v>8.7297308850463936E-5</v>
+        <v>1.2609568671993686E-4</v>
       </c>
       <c r="I25">
-        <v>-8.8126687584062796E-5</v>
+        <v>-5.4581456296203998E-5</v>
       </c>
       <c r="J25">
-        <v>-2.5560878391296974E-5</v>
+        <v>-1.1969556213165542E-4</v>
       </c>
       <c r="K25">
-        <v>1.4497914083964062E-4</v>
+        <v>1.6855460914886461E-4</v>
       </c>
       <c r="L25">
-        <v>-3.7878486258308445E-6</v>
+        <v>9.7969378247829593E-6</v>
       </c>
       <c r="M25">
-        <v>9.2388107675664375E-5</v>
+        <v>9.7359359236362121E-5</v>
       </c>
       <c r="N25">
-        <v>6.3621301705539464E-5</v>
+        <v>3.2286317383788625E-5</v>
       </c>
       <c r="O25">
-        <v>6.2318449881974293E-5</v>
+        <v>1.2545141075769387E-4</v>
       </c>
       <c r="P25">
-        <v>8.7619351311036186E-5</v>
+        <v>1.6495382335241166E-4</v>
       </c>
       <c r="Q25">
-        <v>-6.2186587305620522E-5</v>
+        <v>-8.0146747705291739E-5</v>
       </c>
       <c r="R25">
-        <v>1.1303180306506647E-5</v>
+        <v>1.1600401186374768E-5</v>
       </c>
       <c r="S25">
-        <v>5.4568189454932384E-5</v>
+        <v>8.4517338890181966E-5</v>
       </c>
       <c r="T25">
-        <v>-3.5907988998353868E-5</v>
+        <v>9.9814271947077206E-6</v>
       </c>
       <c r="U25">
-        <v>9.173718682187544E-5</v>
+        <v>1.0337981996922858E-4</v>
       </c>
       <c r="V25">
-        <v>-7.1911898095446884E-5</v>
+        <v>-3.5395337221875731E-5</v>
       </c>
       <c r="W25">
-        <v>1.3097080096847445E-3</v>
+        <v>1.3159528022380477E-3</v>
       </c>
       <c r="X25">
-        <v>1.3234488086702697E-3</v>
+        <v>1.3307830416067227E-3</v>
       </c>
       <c r="Y25">
-        <v>1.3147794211362908E-3</v>
+        <v>1.3260289876310268E-3</v>
       </c>
       <c r="Z25">
-        <v>1.9491338938634744E-3</v>
+        <v>1.9596404821801208E-3</v>
       </c>
       <c r="AA25">
-        <v>-5.9956892437433875E-6</v>
+        <v>-7.2545670802808236E-6</v>
       </c>
       <c r="AB25">
-        <v>-4.8246710643012452E-5</v>
+        <v>-3.3923619363158248E-5</v>
       </c>
       <c r="AC25">
-        <v>-5.3745940324265184E-5</v>
+        <v>-4.3490262861341016E-5</v>
       </c>
       <c r="AD25">
-        <v>5.0720477061552748E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-4.4417252440840296E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>6.165551939005141E-4</v>
+      <c r="B26" s="4">
+        <v>1.5466089527976532E-3</v>
       </c>
       <c r="C26">
-        <v>2.64821345514978E-5</v>
+        <v>2.5597709760130632E-5</v>
       </c>
       <c r="D26">
-        <v>-6.3431671241886371E-6</v>
+        <v>-2.9788152968964528E-6</v>
       </c>
       <c r="E26">
-        <v>4.8257672871187583E-8</v>
+        <v>2.3908169472729282E-8</v>
       </c>
       <c r="F26">
-        <v>-3.4677187653729354E-5</v>
+        <v>-3.5783729996368807E-5</v>
       </c>
       <c r="G26">
-        <v>-3.102774304342712E-5</v>
+        <v>-3.4634078131885911E-5</v>
       </c>
       <c r="H26">
-        <v>1.4676835838567763E-5</v>
+        <v>2.158620754395274E-5</v>
       </c>
       <c r="I26">
-        <v>3.6851164687511082E-5</v>
+        <v>4.4052098610677659E-5</v>
       </c>
       <c r="J26">
-        <v>1.0068634443769994E-5</v>
+        <v>7.5095126262969872E-6</v>
       </c>
       <c r="K26">
-        <v>3.983030141809898E-6</v>
+        <v>-9.3892566802275296E-8</v>
       </c>
       <c r="L26">
-        <v>-1.2245511498099005E-7</v>
+        <v>2.7889541507846827E-6</v>
       </c>
       <c r="M26">
-        <v>-1.7464388067344134E-6</v>
+        <v>-1.3451182783617916E-6</v>
       </c>
       <c r="N26">
-        <v>-8.9727420678821686E-6</v>
+        <v>-5.883299305443019E-6</v>
       </c>
       <c r="O26">
-        <v>3.4787009943530351E-6</v>
+        <v>4.3408715528034357E-6</v>
       </c>
       <c r="P26">
-        <v>7.4799335422335008E-6</v>
+        <v>1.321860000002212E-5</v>
       </c>
       <c r="Q26">
-        <v>1.310823663292478E-5</v>
+        <v>1.6110497326314523E-5</v>
       </c>
       <c r="R26">
-        <v>-1.2096103911305654E-5</v>
+        <v>-1.3251658380575914E-5</v>
       </c>
       <c r="S26">
-        <v>-2.9594908953022145E-6</v>
+        <v>-3.5651052120841729E-6</v>
       </c>
       <c r="T26">
-        <v>-9.0353540215653563E-6</v>
+        <v>-2.8111578916397827E-6</v>
       </c>
       <c r="U26">
-        <v>1.1208490002639835E-5</v>
+        <v>1.0302552885721844E-5</v>
       </c>
       <c r="V26">
-        <v>-7.2589843489123212E-7</v>
+        <v>-9.8188667275766315E-7</v>
       </c>
       <c r="W26">
-        <v>-6.8865834901634048E-6</v>
+        <v>-7.5152258544560159E-6</v>
       </c>
       <c r="X26">
-        <v>4.0922630280992679E-6</v>
+        <v>4.8844598935186989E-6</v>
       </c>
       <c r="Y26">
-        <v>-5.9836442370622697E-6</v>
+        <v>-7.117419464257543E-6</v>
       </c>
       <c r="Z26">
-        <v>-5.9956892437433875E-6</v>
+        <v>-7.2545670802808236E-6</v>
       </c>
       <c r="AA26">
-        <v>1.9539093103759583E-5</v>
+        <v>2.0231474679134354E-5</v>
       </c>
       <c r="AB26">
-        <v>-7.117657981663688E-5</v>
+        <v>-7.6302320520424223E-5</v>
       </c>
       <c r="AC26">
-        <v>-8.6687264788995694E-5</v>
+        <v>-9.1858429286125989E-5</v>
       </c>
       <c r="AD26">
-        <v>-1.4227758330251928E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-2.7094826980585238E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>0.18995756091973048</v>
+      <c r="B27" s="4">
+        <v>0.20548007271060009</v>
       </c>
       <c r="C27">
-        <v>-1.4820771282291953E-4</v>
+        <v>-1.4609064984194835E-4</v>
       </c>
       <c r="D27">
-        <v>1.5375178671375722E-4</v>
+        <v>1.2684642857219153E-4</v>
       </c>
       <c r="E27">
-        <v>-1.1512330861156107E-6</v>
+        <v>-9.5757320576724588E-7</v>
       </c>
       <c r="F27">
-        <v>1.3253964516317602E-4</v>
+        <v>1.113879786736327E-4</v>
       </c>
       <c r="G27">
-        <v>1.2356633767634812E-4</v>
+        <v>1.4314840878370053E-4</v>
       </c>
       <c r="H27">
-        <v>3.7146771844685184E-5</v>
+        <v>-3.2856768135186614E-6</v>
       </c>
       <c r="I27">
-        <v>9.8610737651703018E-5</v>
+        <v>2.6656359380901242E-5</v>
       </c>
       <c r="J27">
-        <v>1.9480471597506724E-4</v>
+        <v>2.1033097141816021E-4</v>
       </c>
       <c r="K27">
-        <v>1.0190209425354297E-4</v>
+        <v>9.042088054999264E-5</v>
       </c>
       <c r="L27">
-        <v>-1.0906944401624895E-4</v>
+        <v>-9.6101898954424701E-5</v>
       </c>
       <c r="M27">
-        <v>8.3030861428872349E-5</v>
+        <v>5.6438593401842479E-5</v>
       </c>
       <c r="N27">
-        <v>7.0466667573332374E-5</v>
+        <v>4.7842798898285003E-5</v>
       </c>
       <c r="O27">
-        <v>2.9748331020966782E-5</v>
+        <v>-4.053804781635901E-6</v>
       </c>
       <c r="P27">
-        <v>8.4575307571861002E-5</v>
+        <v>1.9598134068997235E-5</v>
       </c>
       <c r="Q27">
-        <v>-6.1330244700733916E-5</v>
+        <v>-6.0726219862523682E-5</v>
       </c>
       <c r="R27">
-        <v>-5.6518955571682305E-5</v>
+        <v>-4.019690382143018E-5</v>
       </c>
       <c r="S27">
-        <v>-3.6046328671264765E-5</v>
+        <v>-2.1327045118989078E-5</v>
       </c>
       <c r="T27">
-        <v>6.2129650477926041E-5</v>
+        <v>6.4328062494123373E-5</v>
       </c>
       <c r="U27">
-        <v>3.7376084625105198E-5</v>
+        <v>7.3328544476929146E-6</v>
       </c>
       <c r="V27">
-        <v>1.8252295822598365E-5</v>
+        <v>2.2197477540434989E-5</v>
       </c>
       <c r="W27">
-        <v>-2.5867758147128466E-5</v>
+        <v>-2.7611529088403464E-5</v>
       </c>
       <c r="X27">
-        <v>-1.7674696201734841E-4</v>
+        <v>-1.9224244668870625E-4</v>
       </c>
       <c r="Y27">
-        <v>-2.2641322383701253E-5</v>
+        <v>-3.680044130819577E-5</v>
       </c>
       <c r="Z27">
-        <v>-4.8246710643012452E-5</v>
+        <v>-3.3923619363158248E-5</v>
       </c>
       <c r="AA27">
-        <v>-7.117657981663688E-5</v>
+        <v>-7.6302320520424223E-5</v>
       </c>
       <c r="AB27">
-        <v>2.2066891474591854E-3</v>
+        <v>2.2274766398901087E-3</v>
       </c>
       <c r="AC27">
-        <v>6.2235593784086963E-4</v>
+        <v>6.4956149564120147E-4</v>
       </c>
       <c r="AD27">
-        <v>-4.3117613388136151E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-3.2460770064219103E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>9.4462451883274443E-2</v>
+      <c r="B28" s="4">
+        <v>8.6301880045749194E-2</v>
       </c>
       <c r="C28">
-        <v>-1.4711897741897509E-4</v>
+        <v>-1.449541498768402E-4</v>
       </c>
       <c r="D28">
-        <v>1.0210801831881527E-4</v>
+        <v>8.2000951430516444E-5</v>
       </c>
       <c r="E28">
-        <v>-7.5924733157305265E-7</v>
+        <v>-6.2268695963705158E-7</v>
       </c>
       <c r="F28">
-        <v>6.3557683811312805E-5</v>
+        <v>6.732948909530731E-5</v>
       </c>
       <c r="G28">
-        <v>2.3286790530070017E-4</v>
+        <v>2.4634178109774266E-4</v>
       </c>
       <c r="H28">
-        <v>-3.2163977668011039E-5</v>
+        <v>-6.5566030842980271E-5</v>
       </c>
       <c r="I28">
-        <v>-1.5082239786128916E-6</v>
+        <v>-3.1946199197146119E-5</v>
       </c>
       <c r="J28">
-        <v>5.3003114279113334E-5</v>
+        <v>6.2567714335125257E-5</v>
       </c>
       <c r="K28">
-        <v>8.098963529937003E-5</v>
+        <v>7.537400832253625E-5</v>
       </c>
       <c r="L28">
-        <v>-1.1044096211376263E-4</v>
+        <v>-1.2213115451081662E-4</v>
       </c>
       <c r="M28">
-        <v>4.6042012180332932E-5</v>
+        <v>3.1738115555601986E-5</v>
       </c>
       <c r="N28">
-        <v>-2.3165134391023333E-6</v>
+        <v>-2.4905292108071296E-5</v>
       </c>
       <c r="O28">
-        <v>-1.004372782866467E-4</v>
+        <v>-1.3827189038713867E-4</v>
       </c>
       <c r="P28">
-        <v>-4.9502389486345399E-5</v>
+        <v>-1.1221497851073562E-4</v>
       </c>
       <c r="Q28">
-        <v>-5.9286868152961603E-5</v>
+        <v>-6.796368317117012E-5</v>
       </c>
       <c r="R28">
-        <v>-3.8441950122660839E-5</v>
+        <v>-2.3239041850958014E-5</v>
       </c>
       <c r="S28">
-        <v>-4.4881595778836943E-5</v>
+        <v>-4.8497688590319089E-5</v>
       </c>
       <c r="T28">
-        <v>1.3204927831289006E-4</v>
+        <v>1.181050903408384E-4</v>
       </c>
       <c r="U28">
-        <v>-5.7813851532067227E-6</v>
+        <v>-3.0127687701478193E-5</v>
       </c>
       <c r="V28">
-        <v>7.1561859782469654E-5</v>
+        <v>6.3866880267276593E-5</v>
       </c>
       <c r="W28">
-        <v>8.4736509675889678E-6</v>
+        <v>1.363256222193518E-5</v>
       </c>
       <c r="X28">
-        <v>-1.5679453841133288E-4</v>
+        <v>-1.6415603213919364E-4</v>
       </c>
       <c r="Y28">
-        <v>6.0362955374879931E-5</v>
+        <v>6.0362063904719192E-5</v>
       </c>
       <c r="Z28">
-        <v>-5.3745940324265184E-5</v>
+        <v>-4.3490262861341016E-5</v>
       </c>
       <c r="AA28">
-        <v>-8.6687264788995694E-5</v>
+        <v>-9.1858429286125989E-5</v>
       </c>
       <c r="AB28">
-        <v>6.2235593784086963E-4</v>
+        <v>6.4956149564120147E-4</v>
       </c>
       <c r="AC28">
-        <v>2.8297513489256975E-3</v>
+        <v>2.9316610027832644E-3</v>
       </c>
       <c r="AD28">
-        <v>-2.1549259078846787E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+        <v>-1.2976226724340911E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
-        <v>-22.122785114944609</v>
+      <c r="B29" s="4">
+        <v>-22.295687052165892</v>
       </c>
       <c r="C29">
-        <v>1.6294074017101971E-2</v>
+        <v>1.4569300867883279E-2</v>
       </c>
       <c r="D29">
-        <v>-8.716602984692115E-2</v>
+        <v>-8.4753965055573616E-2</v>
       </c>
       <c r="E29">
-        <v>6.6694455056704274E-4</v>
+        <v>6.4708408438976343E-4</v>
       </c>
       <c r="F29">
-        <v>5.7629120037725329E-3</v>
+        <v>7.2483919945956488E-3</v>
       </c>
       <c r="G29">
-        <v>1.4075905675342754E-2</v>
+        <v>1.4872646000236757E-2</v>
       </c>
       <c r="H29">
-        <v>-4.7225351974033523E-3</v>
+        <v>-9.594567664157826E-3</v>
       </c>
       <c r="I29">
-        <v>-9.9169480215504265E-3</v>
+        <v>-1.3753944543983328E-2</v>
       </c>
       <c r="J29">
-        <v>2.8479853130775314E-2</v>
+        <v>2.8289164559504396E-2</v>
       </c>
       <c r="K29">
-        <v>-6.8362234616017228E-3</v>
+        <v>-1.4798125088662855E-3</v>
       </c>
       <c r="L29">
-        <v>3.0441662162500674E-4</v>
+        <v>-3.4818456379986946E-3</v>
       </c>
       <c r="M29">
-        <v>1.7965566673466544E-4</v>
+        <v>-5.5607806808546446E-4</v>
       </c>
       <c r="N29">
-        <v>1.2589097551328286E-3</v>
+        <v>4.06192954059891E-3</v>
       </c>
       <c r="O29">
-        <v>-1.2070683254912144E-3</v>
+        <v>-4.1530341371285636E-3</v>
       </c>
       <c r="P29">
-        <v>-9.9053168926190732E-4</v>
+        <v>5.4168730659966157E-4</v>
       </c>
       <c r="Q29">
-        <v>9.9151241357623258E-3</v>
+        <v>8.2214206895028508E-3</v>
       </c>
       <c r="R29">
-        <v>7.5034833781160029E-3</v>
+        <v>8.3880985039023089E-3</v>
       </c>
       <c r="S29">
-        <v>9.8065311207565196E-3</v>
+        <v>8.8046943887240981E-3</v>
       </c>
       <c r="T29">
-        <v>1.0645208428481941E-2</v>
+        <v>9.917673602330257E-3</v>
       </c>
       <c r="U29">
-        <v>1.9129670314789373E-4</v>
+        <v>1.0770164195535227E-3</v>
       </c>
       <c r="V29">
-        <v>-1.4071316376715673E-5</v>
+        <v>-4.2473761483027513E-4</v>
       </c>
       <c r="W29">
-        <v>-3.0858589353760925E-3</v>
+        <v>-5.8091846191435977E-3</v>
       </c>
       <c r="X29">
-        <v>3.231707892675064E-4</v>
+        <v>-2.1468867144989945E-3</v>
       </c>
       <c r="Y29">
-        <v>-5.211269757196272E-3</v>
+        <v>-8.2021630375990612E-3</v>
       </c>
       <c r="Z29">
-        <v>5.0720477061552748E-4</v>
+        <v>-4.4417252440840296E-3</v>
       </c>
       <c r="AA29">
-        <v>-1.4227758330251928E-4</v>
+        <v>-2.7094826980585238E-4</v>
       </c>
       <c r="AB29">
-        <v>-4.3117613388136151E-3</v>
+        <v>-3.2460770064219103E-3</v>
       </c>
       <c r="AC29">
-        <v>-2.1549259078846787E-3</v>
+        <v>-1.2976226724340911E-3</v>
       </c>
       <c r="AD29">
-        <v>2.8027772411645708</v>
+        <v>2.7376818669016272</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_retirement.xlsx
+++ b/input/reg_retirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85311DCE-839B-47BC-B6A3-FAD3402A7AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDDCEC-7CC5-4758-9C7F-587FAB2A059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,73 +697,73 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>1.7722082359811469E-2</v>
+        <v>2.6343611823775308E-2</v>
       </c>
       <c r="C2">
-        <v>5.8825029149452389E-3</v>
+        <v>5.3668579583419406E-3</v>
       </c>
       <c r="D2">
-        <v>-3.7544107533667073E-4</v>
+        <v>-2.7719915297806912E-4</v>
       </c>
       <c r="E2">
-        <v>2.5872154138792874E-6</v>
+        <v>1.8920096068991333E-6</v>
       </c>
       <c r="F2">
-        <v>-5.0384560641057573E-3</v>
+        <v>-4.6433616180181422E-3</v>
       </c>
       <c r="G2">
-        <v>-4.0691593122631027E-3</v>
+        <v>-3.6776803093065925E-3</v>
       </c>
       <c r="H2">
-        <v>-2.166880584036808E-4</v>
+        <v>-2.7843486652685216E-4</v>
       </c>
       <c r="I2">
-        <v>-1.4536888978892559E-4</v>
+        <v>-1.7753917657219089E-4</v>
       </c>
       <c r="J2">
-        <v>2.7793533886539649E-3</v>
+        <v>2.4639112621217506E-3</v>
       </c>
       <c r="K2">
-        <v>5.3453977975668609E-4</v>
+        <v>5.0829113200582469E-4</v>
       </c>
       <c r="L2">
-        <v>-3.3443082325673376E-5</v>
+        <v>1.0635959103853375E-4</v>
       </c>
       <c r="M2">
-        <v>-6.7003445587537967E-4</v>
+        <v>-5.844408574935925E-4</v>
       </c>
       <c r="N2">
-        <v>-1.007635141395723E-4</v>
+        <v>2.2991545278116914E-5</v>
       </c>
       <c r="O2">
-        <v>-2.919662186859997E-4</v>
+        <v>-2.4270331619106783E-4</v>
       </c>
       <c r="P2">
-        <v>-7.3729330965413564E-4</v>
+        <v>-6.8772113354153923E-4</v>
       </c>
       <c r="Q2">
-        <v>-4.9601233451125864E-4</v>
+        <v>-4.5090525248299256E-4</v>
       </c>
       <c r="R2">
-        <v>-1.2892260565320213E-4</v>
+        <v>-8.9018126526219793E-5</v>
       </c>
       <c r="S2">
-        <v>-1.3266363899576677E-4</v>
+        <v>-1.0229633540871381E-4</v>
       </c>
       <c r="T2">
-        <v>-2.2851379501852374E-4</v>
+        <v>-1.8970289536642709E-4</v>
       </c>
       <c r="U2">
-        <v>-9.9323017297451514E-6</v>
+        <v>-1.1324460160590867E-5</v>
       </c>
       <c r="V2">
-        <v>-1.9632678899723314E-4</v>
+        <v>-1.9936894281242699E-4</v>
       </c>
       <c r="W2">
-        <v>2.0660432482901524E-5</v>
+        <v>1.5645308944060334E-5</v>
       </c>
       <c r="X2">
-        <v>1.0783702154524372E-2</v>
+        <v>7.6543356479846503E-3</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -771,73 +771,73 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>0.28663680124379592</v>
+        <v>0.3181959903630372</v>
       </c>
       <c r="C3">
-        <v>-3.7544107533667073E-4</v>
+        <v>-2.7719915297806912E-4</v>
       </c>
       <c r="D3">
-        <v>2.6421842336397661E-3</v>
+        <v>2.5668484214542431E-3</v>
       </c>
       <c r="E3">
-        <v>-1.9062973119710871E-5</v>
+        <v>-1.8538210495775125E-5</v>
       </c>
       <c r="F3">
-        <v>-3.059462118186352E-4</v>
+        <v>-3.8862744131162516E-4</v>
       </c>
       <c r="G3">
-        <v>-1.3521763703389887E-3</v>
+        <v>-1.3756356167799154E-3</v>
       </c>
       <c r="H3">
-        <v>-1.2030703866858922E-4</v>
+        <v>-1.2282647977942228E-4</v>
       </c>
       <c r="I3">
-        <v>-1.6748057346208101E-5</v>
+        <v>3.5126047238841218E-5</v>
       </c>
       <c r="J3">
-        <v>-3.374583836057661E-3</v>
+        <v>-3.1305657485458244E-3</v>
       </c>
       <c r="K3">
-        <v>1.1888360547385591E-4</v>
+        <v>-1.0048781554374518E-4</v>
       </c>
       <c r="L3">
-        <v>-1.0824138164551925E-4</v>
+        <v>-3.4144511261048963E-5</v>
       </c>
       <c r="M3">
-        <v>-8.5712657421799232E-5</v>
+        <v>-1.3848462602997474E-4</v>
       </c>
       <c r="N3">
-        <v>4.6125006345605624E-5</v>
+        <v>-8.0963781757079079E-5</v>
       </c>
       <c r="O3">
-        <v>-8.4638066596465916E-5</v>
+        <v>-2.7993113199366662E-4</v>
       </c>
       <c r="P3">
-        <v>-3.3552286101339382E-4</v>
+        <v>-3.4546758669357254E-4</v>
       </c>
       <c r="Q3">
-        <v>3.9125069275913055E-4</v>
+        <v>3.4574498054642036E-4</v>
       </c>
       <c r="R3">
-        <v>1.865269398708333E-4</v>
+        <v>1.8422387502360985E-4</v>
       </c>
       <c r="S3">
-        <v>1.5372246298674119E-4</v>
+        <v>2.5685998969708981E-4</v>
       </c>
       <c r="T3">
-        <v>4.8982123290420426E-4</v>
+        <v>4.5406255584136629E-4</v>
       </c>
       <c r="U3">
-        <v>-1.5254634749021058E-5</v>
+        <v>-1.3404151775062525E-5</v>
       </c>
       <c r="V3">
-        <v>4.9161559608887698E-5</v>
+        <v>3.4788948626124708E-5</v>
       </c>
       <c r="W3">
-        <v>-1.8329664107776672E-4</v>
+        <v>-1.8142000347178694E-4</v>
       </c>
       <c r="X3">
-        <v>-8.7127439931732331E-2</v>
+        <v>-8.4567787563106789E-2</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -845,73 +845,73 @@
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>-2.1528827251338367E-3</v>
+        <v>-2.3715695251981966E-3</v>
       </c>
       <c r="C4">
-        <v>2.5872154138792874E-6</v>
+        <v>1.8920096068991333E-6</v>
       </c>
       <c r="D4">
-        <v>-1.9062973119710871E-5</v>
+        <v>-1.8538210495775125E-5</v>
       </c>
       <c r="E4">
-        <v>1.3822949884227545E-7</v>
+        <v>1.3457292939635774E-7</v>
       </c>
       <c r="F4">
-        <v>2.640204109234358E-6</v>
+        <v>3.2315641303405011E-6</v>
       </c>
       <c r="G4">
-        <v>9.7766738120029343E-6</v>
+        <v>9.9409808974975072E-6</v>
       </c>
       <c r="H4">
-        <v>9.6143927009014396E-7</v>
+        <v>9.8112878460748613E-7</v>
       </c>
       <c r="I4">
-        <v>-4.9544946845473878E-8</v>
+        <v>-4.1039134946190166E-7</v>
       </c>
       <c r="J4">
-        <v>2.3314436135322763E-5</v>
+        <v>2.1610939456789656E-5</v>
       </c>
       <c r="K4">
-        <v>-1.1616912298507452E-6</v>
+        <v>3.7724976782131382E-7</v>
       </c>
       <c r="L4">
-        <v>7.6493288119831014E-7</v>
+        <v>1.5569365569310717E-7</v>
       </c>
       <c r="M4">
-        <v>7.3832163119799861E-7</v>
+        <v>1.067762896292385E-6</v>
       </c>
       <c r="N4">
-        <v>-7.2991716703382087E-8</v>
+        <v>7.6469728831407894E-7</v>
       </c>
       <c r="O4">
-        <v>8.3236984471848484E-7</v>
+        <v>2.1490370786274093E-6</v>
       </c>
       <c r="P4">
-        <v>2.6441202558922773E-6</v>
+        <v>2.7146379352560677E-6</v>
       </c>
       <c r="Q4">
-        <v>-2.7559592374219526E-6</v>
+        <v>-2.44371537367534E-6</v>
       </c>
       <c r="R4">
-        <v>-1.5018339150614599E-6</v>
+        <v>-1.4785204240020582E-6</v>
       </c>
       <c r="S4">
-        <v>-1.2685508911801553E-6</v>
+        <v>-1.9888802995509953E-6</v>
       </c>
       <c r="T4">
-        <v>-3.5253048173679993E-6</v>
+        <v>-3.2683282910578023E-6</v>
       </c>
       <c r="U4">
-        <v>1.1307957269849284E-7</v>
+        <v>1.0014663766217625E-7</v>
       </c>
       <c r="V4">
-        <v>-3.280179314913418E-7</v>
+        <v>-2.2960131475809173E-7</v>
       </c>
       <c r="W4">
-        <v>1.2855788957170195E-6</v>
+        <v>1.27896864324413E-6</v>
       </c>
       <c r="X4">
-        <v>6.2639111567773E-4</v>
+        <v>6.0860329152661978E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -919,73 +919,73 @@
         <v>35</v>
       </c>
       <c r="B5" s="4">
-        <v>-5.2128542141932965E-2</v>
+        <v>-5.4060965547403077E-2</v>
       </c>
       <c r="C5">
-        <v>-5.0384560641057573E-3</v>
+        <v>-4.6433616180181422E-3</v>
       </c>
       <c r="D5">
-        <v>-3.059462118186352E-4</v>
+        <v>-3.8862744131162516E-4</v>
       </c>
       <c r="E5">
-        <v>2.640204109234358E-6</v>
+        <v>3.2315641303405011E-6</v>
       </c>
       <c r="F5">
-        <v>1.6392337108493683E-2</v>
+        <v>1.5825368195614819E-2</v>
       </c>
       <c r="G5">
-        <v>4.4766652568099165E-3</v>
+        <v>4.1235215762363258E-3</v>
       </c>
       <c r="H5">
-        <v>4.0507013544634554E-4</v>
+        <v>4.0281872018644183E-4</v>
       </c>
       <c r="I5">
-        <v>3.7429197340375139E-4</v>
+        <v>3.0705554862836505E-4</v>
       </c>
       <c r="J5">
-        <v>-2.7369444230536224E-3</v>
+        <v>-2.5190367446812105E-3</v>
       </c>
       <c r="K5">
-        <v>-4.5308247906688859E-4</v>
+        <v>-4.468439400441617E-4</v>
       </c>
       <c r="L5">
-        <v>1.9970437123117361E-4</v>
+        <v>3.3787023733376342E-5</v>
       </c>
       <c r="M5">
-        <v>2.5042433215220089E-4</v>
+        <v>3.1482580280244943E-4</v>
       </c>
       <c r="N5">
-        <v>1.0024272990489251E-3</v>
+        <v>6.5726871856437892E-4</v>
       </c>
       <c r="O5">
-        <v>5.2428158734763963E-4</v>
+        <v>3.8665594355202738E-4</v>
       </c>
       <c r="P5">
-        <v>-2.645430599695236E-4</v>
+        <v>-2.823565070913703E-4</v>
       </c>
       <c r="Q5">
-        <v>9.4024186133445393E-4</v>
+        <v>8.4795382028646444E-4</v>
       </c>
       <c r="R5">
-        <v>-1.7939162042436953E-4</v>
+        <v>-1.7891080780154008E-4</v>
       </c>
       <c r="S5">
-        <v>-3.9126888748946924E-4</v>
+        <v>-2.1899761468195797E-4</v>
       </c>
       <c r="T5">
-        <v>-4.923249097664302E-4</v>
+        <v>-4.8695436244397408E-4</v>
       </c>
       <c r="U5">
-        <v>-6.7191372429289801E-5</v>
+        <v>-5.7633243204244939E-5</v>
       </c>
       <c r="V5">
-        <v>2.5708866839318958E-4</v>
+        <v>1.9417590047065102E-4</v>
       </c>
       <c r="W5">
-        <v>1.6164523672159131E-4</v>
+        <v>1.2809451426632184E-4</v>
       </c>
       <c r="X5">
-        <v>1.1818647185510511E-2</v>
+        <v>1.4397331009588232E-2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -993,73 +993,73 @@
         <v>36</v>
       </c>
       <c r="B6" s="4">
-        <v>0.60522173365420662</v>
+        <v>0.60522845759132438</v>
       </c>
       <c r="C6">
-        <v>-4.0691593122631027E-3</v>
+        <v>-3.6776803093065925E-3</v>
       </c>
       <c r="D6">
-        <v>-1.3521763703389887E-3</v>
+        <v>-1.3756356167799154E-3</v>
       </c>
       <c r="E6">
-        <v>9.7766738120029343E-6</v>
+        <v>9.9409808974975072E-6</v>
       </c>
       <c r="F6">
-        <v>4.4766652568099165E-3</v>
+        <v>4.1235215762363258E-3</v>
       </c>
       <c r="G6">
-        <v>1.2506360099524671E-2</v>
+        <v>1.1558658214574604E-2</v>
       </c>
       <c r="H6">
-        <v>1.0872035746812073E-5</v>
+        <v>6.0818387818930425E-5</v>
       </c>
       <c r="I6">
-        <v>1.2954459987147941E-4</v>
+        <v>1.2064215171368048E-4</v>
       </c>
       <c r="J6">
-        <v>4.2760923420148353E-4</v>
+        <v>5.3743779962185136E-4</v>
       </c>
       <c r="K6">
-        <v>-3.5507973778009402E-4</v>
+        <v>-1.558382003366901E-4</v>
       </c>
       <c r="L6">
-        <v>3.1025187710442218E-4</v>
+        <v>6.482752066134384E-5</v>
       </c>
       <c r="M6">
-        <v>5.8186064492870681E-4</v>
+        <v>5.2159586973511522E-4</v>
       </c>
       <c r="N6">
-        <v>2.2862239436779314E-4</v>
+        <v>1.893107110076224E-4</v>
       </c>
       <c r="O6">
-        <v>3.2185068235405546E-4</v>
+        <v>3.9618009994061773E-4</v>
       </c>
       <c r="P6">
-        <v>4.1035737725566906E-4</v>
+        <v>3.7774064400202369E-4</v>
       </c>
       <c r="Q6">
-        <v>1.6436813540821049E-4</v>
+        <v>1.6709534463342762E-4</v>
       </c>
       <c r="R6">
-        <v>1.4278049154539414E-4</v>
+        <v>1.1168626672433506E-4</v>
       </c>
       <c r="S6">
-        <v>-2.5382060313675243E-4</v>
+        <v>-3.3655972360597305E-4</v>
       </c>
       <c r="T6">
-        <v>-4.9284608981375812E-4</v>
+        <v>-4.4306370508044845E-4</v>
       </c>
       <c r="U6">
-        <v>-1.9382021228490725E-5</v>
+        <v>-1.4862197364529512E-5</v>
       </c>
       <c r="V6">
-        <v>-6.8036805559256721E-5</v>
+        <v>-3.1845428339174206E-5</v>
       </c>
       <c r="W6">
-        <v>4.6339896374456534E-4</v>
+        <v>4.3526462312966883E-4</v>
       </c>
       <c r="X6">
-        <v>4.6071116363916753E-2</v>
+        <v>4.6632872781196821E-2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -1067,73 +1067,73 @@
         <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>-4.0422784764187127E-2</v>
+        <v>-4.8836963145182724E-2</v>
       </c>
       <c r="C7">
-        <v>-2.166880584036808E-4</v>
+        <v>-2.7843486652685216E-4</v>
       </c>
       <c r="D7">
-        <v>-1.2030703866858922E-4</v>
+        <v>-1.2282647977942228E-4</v>
       </c>
       <c r="E7">
-        <v>9.6143927009014396E-7</v>
+        <v>9.8112878460748613E-7</v>
       </c>
       <c r="F7">
-        <v>4.0507013544634554E-4</v>
+        <v>4.0281872018644183E-4</v>
       </c>
       <c r="G7">
-        <v>1.0872035746812073E-5</v>
+        <v>6.0818387818930425E-5</v>
       </c>
       <c r="H7">
-        <v>6.5737785294825279E-3</v>
+        <v>6.2822670539382655E-3</v>
       </c>
       <c r="I7">
-        <v>6.2278332285802731E-3</v>
+        <v>5.9313841182509789E-3</v>
       </c>
       <c r="J7">
-        <v>1.2880360269454903E-4</v>
+        <v>1.2269301862180343E-4</v>
       </c>
       <c r="K7">
-        <v>-4.2243766605006862E-4</v>
+        <v>-3.8497761691685657E-4</v>
       </c>
       <c r="L7">
-        <v>-6.8248805604730306E-5</v>
+        <v>-2.8396117869529923E-5</v>
       </c>
       <c r="M7">
-        <v>3.6540302231420608E-4</v>
+        <v>3.8416953814995338E-4</v>
       </c>
       <c r="N7">
-        <v>8.8248352257172861E-4</v>
+        <v>8.4320619222859057E-4</v>
       </c>
       <c r="O7">
-        <v>3.3111393824396792E-3</v>
+        <v>3.2419067167904479E-3</v>
       </c>
       <c r="P7">
-        <v>-3.8720272343435247E-5</v>
+        <v>8.0595752355284121E-8</v>
       </c>
       <c r="Q7">
-        <v>2.5398857446594543E-4</v>
+        <v>1.61783154657442E-4</v>
       </c>
       <c r="R7">
-        <v>-1.2078008725447493E-4</v>
+        <v>-1.6802371965335123E-4</v>
       </c>
       <c r="S7">
-        <v>4.0223237689096308E-5</v>
+        <v>2.760091848339136E-6</v>
       </c>
       <c r="T7">
-        <v>9.4736935474828835E-5</v>
+        <v>1.9543567043054153E-5</v>
       </c>
       <c r="U7">
-        <v>1.2395566764093542E-5</v>
+        <v>1.5342265415308932E-5</v>
       </c>
       <c r="V7">
-        <v>1.2860831907954913E-5</v>
+        <v>-4.7903373677727289E-6</v>
       </c>
       <c r="W7">
-        <v>6.8235157832200691E-5</v>
+        <v>1.140654028563377E-5</v>
       </c>
       <c r="X7">
-        <v>-2.6249815077193511E-3</v>
+        <v>-2.2998120395008731E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -1141,73 +1141,73 @@
         <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.23957208704694913</v>
+        <v>-0.24874574281994752</v>
       </c>
       <c r="C8">
-        <v>-1.4536888978892559E-4</v>
+        <v>-1.7753917657219089E-4</v>
       </c>
       <c r="D8">
-        <v>-1.6748057346208101E-5</v>
+        <v>3.5126047238841218E-5</v>
       </c>
       <c r="E8">
-        <v>-4.9544946845473878E-8</v>
+        <v>-4.1039134946190166E-7</v>
       </c>
       <c r="F8">
-        <v>3.7429197340375139E-4</v>
+        <v>3.0705554862836505E-4</v>
       </c>
       <c r="G8">
-        <v>1.2954459987147941E-4</v>
+        <v>1.2064215171368048E-4</v>
       </c>
       <c r="H8">
-        <v>6.2278332285802731E-3</v>
+        <v>5.9313841182509789E-3</v>
       </c>
       <c r="I8">
-        <v>8.3187636650153586E-3</v>
+        <v>7.9839268103995345E-3</v>
       </c>
       <c r="J8">
-        <v>1.7124789866031481E-4</v>
+        <v>6.8876488419936707E-5</v>
       </c>
       <c r="K8">
-        <v>-6.7623655337120333E-4</v>
+        <v>-7.4932287084550049E-4</v>
       </c>
       <c r="L8">
-        <v>-2.5889887864784938E-4</v>
+        <v>-9.5063480626907679E-5</v>
       </c>
       <c r="M8">
-        <v>4.5431020751478344E-4</v>
+        <v>4.2855158499598102E-4</v>
       </c>
       <c r="N8">
-        <v>1.1504321310121242E-3</v>
+        <v>1.0069029894225802E-3</v>
       </c>
       <c r="O8">
-        <v>3.5582184484146415E-3</v>
+        <v>3.3970657654480048E-3</v>
       </c>
       <c r="P8">
-        <v>-2.9352034279163234E-5</v>
+        <v>2.5267622229004473E-6</v>
       </c>
       <c r="Q8">
-        <v>2.2665681087008374E-4</v>
+        <v>1.5577456237941345E-4</v>
       </c>
       <c r="R8">
-        <v>-1.1577742665973365E-4</v>
+        <v>-1.4406263831567021E-4</v>
       </c>
       <c r="S8">
-        <v>-8.6279396441875291E-5</v>
+        <v>-4.8497600330886775E-5</v>
       </c>
       <c r="T8">
-        <v>-8.8818734363325632E-6</v>
+        <v>-8.0460027071795488E-5</v>
       </c>
       <c r="U8">
-        <v>3.176656435179096E-5</v>
+        <v>3.611673980905823E-5</v>
       </c>
       <c r="V8">
-        <v>4.2851523993659986E-5</v>
+        <v>7.561009290744285E-8</v>
       </c>
       <c r="W8">
-        <v>1.1291267273797184E-4</v>
+        <v>3.1649876239178351E-5</v>
       </c>
       <c r="X8">
-        <v>-5.6712205715950953E-3</v>
+        <v>-7.1321262605937019E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -1215,73 +1215,73 @@
         <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>1.3713332616074203</v>
+        <v>1.324675467255426</v>
       </c>
       <c r="C9">
-        <v>2.7793533886539649E-3</v>
+        <v>2.4639112621217506E-3</v>
       </c>
       <c r="D9">
-        <v>-3.374583836057661E-3</v>
+        <v>-3.1305657485458244E-3</v>
       </c>
       <c r="E9">
-        <v>2.3314436135322763E-5</v>
+        <v>2.1610939456789656E-5</v>
       </c>
       <c r="F9">
-        <v>-2.7369444230536224E-3</v>
+        <v>-2.5190367446812105E-3</v>
       </c>
       <c r="G9">
-        <v>4.2760923420148353E-4</v>
+        <v>5.3743779962185136E-4</v>
       </c>
       <c r="H9">
-        <v>1.2880360269454903E-4</v>
+        <v>1.2269301862180343E-4</v>
       </c>
       <c r="I9">
-        <v>1.7124789866031481E-4</v>
+        <v>6.8876488419936707E-5</v>
       </c>
       <c r="J9">
-        <v>9.2310925212973557E-3</v>
+        <v>8.5162299550266586E-3</v>
       </c>
       <c r="K9">
-        <v>-2.209798693454158E-4</v>
+        <v>7.7245389523948344E-5</v>
       </c>
       <c r="L9">
-        <v>2.3572196629543032E-4</v>
+        <v>2.282283555950556E-4</v>
       </c>
       <c r="M9">
-        <v>1.3982235156289984E-4</v>
+        <v>2.2314591418818013E-4</v>
       </c>
       <c r="N9">
-        <v>-1.0278881824818745E-4</v>
+        <v>1.8890408864855393E-4</v>
       </c>
       <c r="O9">
-        <v>-1.5576676541334891E-5</v>
+        <v>3.123480933953475E-4</v>
       </c>
       <c r="P9">
-        <v>6.2837717319054638E-4</v>
+        <v>6.2237773173130437E-4</v>
       </c>
       <c r="Q9">
-        <v>-9.3196830171448156E-4</v>
+        <v>-8.0867858516690469E-4</v>
       </c>
       <c r="R9">
-        <v>1.5463866083715444E-5</v>
+        <v>4.1322779688653805E-5</v>
       </c>
       <c r="S9">
-        <v>-4.3249517570238816E-6</v>
+        <v>-1.8626505865663653E-4</v>
       </c>
       <c r="T9">
-        <v>-5.5548646894243913E-4</v>
+        <v>-4.6946608921159122E-4</v>
       </c>
       <c r="U9">
-        <v>2.2053213297827494E-5</v>
+        <v>1.4323600843936784E-5</v>
       </c>
       <c r="V9">
-        <v>-7.8411061894769277E-5</v>
+        <v>-8.2372482179821072E-6</v>
       </c>
       <c r="W9">
-        <v>5.3990481069703805E-4</v>
+        <v>5.203610798507341E-4</v>
       </c>
       <c r="X9">
-        <v>0.11166785825601511</v>
+        <v>0.10359730768003406</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -1289,73 +1289,73 @@
         <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>1.2607630902177897E-2</v>
+        <v>-3.8265035805041502E-2</v>
       </c>
       <c r="C10">
-        <v>5.3453977975668609E-4</v>
+        <v>5.0829113200582469E-4</v>
       </c>
       <c r="D10">
-        <v>1.1888360547385591E-4</v>
+        <v>-1.0048781554374518E-4</v>
       </c>
       <c r="E10">
-        <v>-1.1616912298507452E-6</v>
+        <v>3.7724976782131382E-7</v>
       </c>
       <c r="F10">
-        <v>-4.5308247906688859E-4</v>
+        <v>-4.468439400441617E-4</v>
       </c>
       <c r="G10">
-        <v>-3.5507973778009402E-4</v>
+        <v>-1.558382003366901E-4</v>
       </c>
       <c r="H10">
-        <v>-4.2243766605006862E-4</v>
+        <v>-3.8497761691685657E-4</v>
       </c>
       <c r="I10">
-        <v>-6.7623655337120333E-4</v>
+        <v>-7.4932287084550049E-4</v>
       </c>
       <c r="J10">
-        <v>-2.209798693454158E-4</v>
+        <v>7.7245389523948344E-5</v>
       </c>
       <c r="K10">
-        <v>8.5499573260642437E-3</v>
+        <v>8.5645993713182756E-3</v>
       </c>
       <c r="L10">
-        <v>7.9976941357492223E-5</v>
+        <v>8.7724498626597005E-5</v>
       </c>
       <c r="M10">
-        <v>3.5955098312008211E-3</v>
+        <v>3.8187677034152074E-3</v>
       </c>
       <c r="N10">
-        <v>6.9505485543036672E-3</v>
+        <v>6.9601363851319875E-3</v>
       </c>
       <c r="O10">
-        <v>7.2175385550005185E-3</v>
+        <v>7.1697600417376696E-3</v>
       </c>
       <c r="P10">
-        <v>-1.4864714879321559E-3</v>
+        <v>-1.4751297373827054E-3</v>
       </c>
       <c r="Q10">
-        <v>2.2308026036150022E-4</v>
+        <v>2.6044992468864515E-4</v>
       </c>
       <c r="R10">
-        <v>-2.3301673196117652E-5</v>
+        <v>-3.8269899229402158E-5</v>
       </c>
       <c r="S10">
-        <v>1.2161193148092016E-4</v>
+        <v>-1.4574904422939741E-4</v>
       </c>
       <c r="T10">
-        <v>3.2327335744251169E-4</v>
+        <v>3.2537705910654351E-4</v>
       </c>
       <c r="U10">
-        <v>9.4999715130550063E-5</v>
+        <v>8.0141356386209596E-5</v>
       </c>
       <c r="V10">
-        <v>-7.0744581087328379E-4</v>
+        <v>-5.970480753483469E-4</v>
       </c>
       <c r="W10">
-        <v>-5.1888654528458537E-4</v>
+        <v>-4.1935670615840981E-4</v>
       </c>
       <c r="X10">
-        <v>-1.1601368250058954E-2</v>
+        <v>-3.886351712518131E-3</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
@@ -1363,73 +1363,73 @@
         <v>17</v>
       </c>
       <c r="B11" s="4">
-        <v>-1.5613660979648848E-2</v>
+        <v>-2.2379294471970582E-2</v>
       </c>
       <c r="C11">
-        <v>-3.3443082325673376E-5</v>
+        <v>1.0635959103853375E-4</v>
       </c>
       <c r="D11">
-        <v>-1.0824138164551925E-4</v>
+        <v>-3.4144511261048963E-5</v>
       </c>
       <c r="E11">
-        <v>7.6493288119831014E-7</v>
+        <v>1.5569365569310717E-7</v>
       </c>
       <c r="F11">
-        <v>1.9970437123117361E-4</v>
+        <v>3.3787023733376342E-5</v>
       </c>
       <c r="G11">
-        <v>3.1025187710442218E-4</v>
+        <v>6.482752066134384E-5</v>
       </c>
       <c r="H11">
-        <v>-6.8248805604730306E-5</v>
+        <v>-2.8396117869529923E-5</v>
       </c>
       <c r="I11">
-        <v>-2.5889887864784938E-4</v>
+        <v>-9.5063480626907679E-5</v>
       </c>
       <c r="J11">
-        <v>2.3572196629543032E-4</v>
+        <v>2.282283555950556E-4</v>
       </c>
       <c r="K11">
-        <v>7.9976941357492223E-5</v>
+        <v>8.7724498626597005E-5</v>
       </c>
       <c r="L11">
-        <v>2.8754122856715137E-3</v>
+        <v>2.8384895375316182E-3</v>
       </c>
       <c r="M11">
-        <v>1.5691852073724702E-3</v>
+        <v>1.4206614753360764E-3</v>
       </c>
       <c r="N11">
-        <v>1.5701092234463073E-3</v>
+        <v>1.4013029320487115E-3</v>
       </c>
       <c r="O11">
-        <v>1.5259198445178499E-3</v>
+        <v>1.3876849597985194E-3</v>
       </c>
       <c r="P11">
-        <v>-1.2556718812812813E-4</v>
+        <v>-2.5751056481954928E-4</v>
       </c>
       <c r="Q11">
-        <v>-4.872163071046779E-5</v>
+        <v>-6.1838779001913418E-5</v>
       </c>
       <c r="R11">
-        <v>-1.7860889959046418E-4</v>
+        <v>-1.7911782456869112E-4</v>
       </c>
       <c r="S11">
-        <v>-4.7147523527069069E-5</v>
+        <v>3.9487288328093168E-5</v>
       </c>
       <c r="T11">
-        <v>-2.4625772987051109E-4</v>
+        <v>-1.2996507442466351E-4</v>
       </c>
       <c r="U11">
-        <v>-1.3387814879522479E-5</v>
+        <v>-1.1191905305022853E-5</v>
       </c>
       <c r="V11">
-        <v>1.3475971650877148E-4</v>
+        <v>5.8595607596281926E-5</v>
       </c>
       <c r="W11">
-        <v>1.3497348424807695E-4</v>
+        <v>5.8589092771857637E-5</v>
       </c>
       <c r="X11">
-        <v>2.4392711319369828E-3</v>
+        <v>2.390619750444814E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -1437,73 +1437,73 @@
         <v>18</v>
       </c>
       <c r="B12" s="4">
-        <v>0.19848529360381154</v>
+        <v>0.16294886485561291</v>
       </c>
       <c r="C12">
-        <v>-6.7003445587537967E-4</v>
+        <v>-5.844408574935925E-4</v>
       </c>
       <c r="D12">
-        <v>-8.5712657421799232E-5</v>
+        <v>-1.3848462602997474E-4</v>
       </c>
       <c r="E12">
-        <v>7.3832163119799861E-7</v>
+        <v>1.067762896292385E-6</v>
       </c>
       <c r="F12">
-        <v>2.5042433215220089E-4</v>
+        <v>3.1482580280244943E-4</v>
       </c>
       <c r="G12">
-        <v>5.8186064492870681E-4</v>
+        <v>5.2159586973511522E-4</v>
       </c>
       <c r="H12">
-        <v>3.6540302231420608E-4</v>
+        <v>3.8416953814995338E-4</v>
       </c>
       <c r="I12">
-        <v>4.5431020751478344E-4</v>
+        <v>4.2855158499598102E-4</v>
       </c>
       <c r="J12">
-        <v>1.3982235156289984E-4</v>
+        <v>2.2314591418818013E-4</v>
       </c>
       <c r="K12">
-        <v>3.5955098312008211E-3</v>
+        <v>3.8187677034152074E-3</v>
       </c>
       <c r="L12">
-        <v>1.5691852073724702E-3</v>
+        <v>1.4206614753360764E-3</v>
       </c>
       <c r="M12">
-        <v>6.1812112314952837E-3</v>
+        <v>6.1777682459215255E-3</v>
       </c>
       <c r="N12">
-        <v>5.3334927560421659E-3</v>
+        <v>5.33546472340252E-3</v>
       </c>
       <c r="O12">
-        <v>5.6185749146544593E-3</v>
+        <v>5.6149275806504032E-3</v>
       </c>
       <c r="P12">
-        <v>1.0275816612004892E-4</v>
+        <v>1.5694294519553943E-5</v>
       </c>
       <c r="Q12">
-        <v>-1.1719781908737939E-5</v>
+        <v>1.9145598516012935E-5</v>
       </c>
       <c r="R12">
-        <v>-4.4692338083159922E-4</v>
+        <v>-4.0416158840703739E-4</v>
       </c>
       <c r="S12">
-        <v>-1.7130172425924655E-4</v>
+        <v>-2.0584432238953169E-4</v>
       </c>
       <c r="T12">
-        <v>-3.0007845183591922E-4</v>
+        <v>-1.8715223490815185E-4</v>
       </c>
       <c r="U12">
-        <v>1.2734186791591198E-5</v>
+        <v>6.2061495991615645E-6</v>
       </c>
       <c r="V12">
-        <v>1.1351065316654926E-4</v>
+        <v>1.0191725340045479E-4</v>
       </c>
       <c r="W12">
-        <v>-1.8324746819081607E-4</v>
+        <v>-1.8046623580512868E-4</v>
       </c>
       <c r="X12">
-        <v>-3.2262296051129014E-3</v>
+        <v>-1.2520711603184742E-3</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
@@ -1511,73 +1511,73 @@
         <v>19</v>
       </c>
       <c r="B13" s="4">
-        <v>-3.8473522180836529E-2</v>
+        <v>-5.8391607058840916E-2</v>
       </c>
       <c r="C13">
-        <v>-1.007635141395723E-4</v>
+        <v>2.2991545278116914E-5</v>
       </c>
       <c r="D13">
-        <v>4.6125006345605624E-5</v>
+        <v>-8.0963781757079079E-5</v>
       </c>
       <c r="E13">
-        <v>-7.2991716703382087E-8</v>
+        <v>7.6469728831407894E-7</v>
       </c>
       <c r="F13">
-        <v>1.0024272990489251E-3</v>
+        <v>6.5726871856437892E-4</v>
       </c>
       <c r="G13">
-        <v>2.2862239436779314E-4</v>
+        <v>1.893107110076224E-4</v>
       </c>
       <c r="H13">
-        <v>8.8248352257172861E-4</v>
+        <v>8.4320619222859057E-4</v>
       </c>
       <c r="I13">
-        <v>1.1504321310121242E-3</v>
+        <v>1.0069029894225802E-3</v>
       </c>
       <c r="J13">
-        <v>-1.0278881824818745E-4</v>
+        <v>1.8890408864855393E-4</v>
       </c>
       <c r="K13">
-        <v>6.9505485543036672E-3</v>
+        <v>6.9601363851319875E-3</v>
       </c>
       <c r="L13">
-        <v>1.5701092234463073E-3</v>
+        <v>1.4013029320487115E-3</v>
       </c>
       <c r="M13">
-        <v>5.3334927560421659E-3</v>
+        <v>5.33546472340252E-3</v>
       </c>
       <c r="N13">
-        <v>1.1860552869408091E-2</v>
+        <v>1.1413306352600848E-2</v>
       </c>
       <c r="O13">
-        <v>9.4089621490571831E-3</v>
+        <v>9.1028119230782151E-3</v>
       </c>
       <c r="P13">
-        <v>-6.3111305203984508E-5</v>
+        <v>-1.1887252957870176E-4</v>
       </c>
       <c r="Q13">
-        <v>3.1750621008889502E-4</v>
+        <v>3.4988652602544953E-4</v>
       </c>
       <c r="R13">
-        <v>-6.308234092147545E-4</v>
+        <v>-5.3082041293571556E-4</v>
       </c>
       <c r="S13">
-        <v>7.2770574409259953E-5</v>
+        <v>-8.8401030889947822E-5</v>
       </c>
       <c r="T13">
-        <v>-1.8518667670996172E-4</v>
+        <v>-7.2297357444823282E-6</v>
       </c>
       <c r="U13">
-        <v>-1.4024374543686173E-5</v>
+        <v>-2.6169309912909029E-5</v>
       </c>
       <c r="V13">
-        <v>-4.4745405114244023E-4</v>
+        <v>-3.6213513475169285E-4</v>
       </c>
       <c r="W13">
-        <v>-1.3694059966879672E-4</v>
+        <v>-9.8067864292601323E-5</v>
       </c>
       <c r="X13">
-        <v>-1.1761518820162215E-2</v>
+        <v>-6.9144881382541268E-3</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
@@ -1585,73 +1585,73 @@
         <v>20</v>
       </c>
       <c r="B14" s="4">
-        <v>-0.16438585626479282</v>
+        <v>-0.19881408388444202</v>
       </c>
       <c r="C14">
-        <v>-2.919662186859997E-4</v>
+        <v>-2.4270331619106783E-4</v>
       </c>
       <c r="D14">
-        <v>-8.4638066596465916E-5</v>
+        <v>-2.7993113199366662E-4</v>
       </c>
       <c r="E14">
-        <v>8.3236984471848484E-7</v>
+        <v>2.1490370786274093E-6</v>
       </c>
       <c r="F14">
-        <v>5.2428158734763963E-4</v>
+        <v>3.8665594355202738E-4</v>
       </c>
       <c r="G14">
-        <v>3.2185068235405546E-4</v>
+        <v>3.9618009994061773E-4</v>
       </c>
       <c r="H14">
-        <v>3.3111393824396792E-3</v>
+        <v>3.2419067167904479E-3</v>
       </c>
       <c r="I14">
-        <v>3.5582184484146415E-3</v>
+        <v>3.3970657654480048E-3</v>
       </c>
       <c r="J14">
-        <v>-1.5576676541334891E-5</v>
+        <v>3.123480933953475E-4</v>
       </c>
       <c r="K14">
-        <v>7.2175385550005185E-3</v>
+        <v>7.1697600417376696E-3</v>
       </c>
       <c r="L14">
-        <v>1.5259198445178499E-3</v>
+        <v>1.3876849597985194E-3</v>
       </c>
       <c r="M14">
-        <v>5.6185749146544593E-3</v>
+        <v>5.6149275806504032E-3</v>
       </c>
       <c r="N14">
-        <v>9.4089621490571831E-3</v>
+        <v>9.1028119230782151E-3</v>
       </c>
       <c r="O14">
-        <v>1.5185948170998206E-2</v>
+        <v>1.4589443794681767E-2</v>
       </c>
       <c r="P14">
-        <v>-9.407348772804509E-5</v>
+        <v>-1.2800001179528032E-4</v>
       </c>
       <c r="Q14">
-        <v>2.2028438066903043E-4</v>
+        <v>1.5507703188406352E-4</v>
       </c>
       <c r="R14">
-        <v>-5.4323179441411297E-4</v>
+        <v>-6.0784804703804818E-4</v>
       </c>
       <c r="S14">
-        <v>7.2240279106912386E-6</v>
+        <v>-2.7446783242094904E-4</v>
       </c>
       <c r="T14">
-        <v>-4.683785720037306E-5</v>
+        <v>-8.8823405686766691E-5</v>
       </c>
       <c r="U14">
-        <v>6.8723960946877544E-6</v>
+        <v>5.5301583834629979E-6</v>
       </c>
       <c r="V14">
-        <v>-4.1979558071600273E-4</v>
+        <v>-4.0919773094095059E-4</v>
       </c>
       <c r="W14">
-        <v>-1.9378265246653131E-4</v>
+        <v>-2.1362939494865181E-4</v>
       </c>
       <c r="X14">
-        <v>-1.0150647378425581E-2</v>
+        <v>-2.9149407095898916E-3</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
@@ -1659,73 +1659,73 @@
         <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>0.10258447425811626</v>
+        <v>9.7645772267365497E-2</v>
       </c>
       <c r="C15">
-        <v>-7.3729330965413564E-4</v>
+        <v>-6.8772113354153923E-4</v>
       </c>
       <c r="D15">
-        <v>-3.3552286101339382E-4</v>
+        <v>-3.4546758669357254E-4</v>
       </c>
       <c r="E15">
-        <v>2.6441202558922773E-6</v>
+        <v>2.7146379352560677E-6</v>
       </c>
       <c r="F15">
-        <v>-2.645430599695236E-4</v>
+        <v>-2.823565070913703E-4</v>
       </c>
       <c r="G15">
-        <v>4.1035737725566906E-4</v>
+        <v>3.7774064400202369E-4</v>
       </c>
       <c r="H15">
-        <v>-3.8720272343435247E-5</v>
+        <v>8.0595752355284121E-8</v>
       </c>
       <c r="I15">
-        <v>-2.9352034279163234E-5</v>
+        <v>2.5267622229004473E-6</v>
       </c>
       <c r="J15">
-        <v>6.2837717319054638E-4</v>
+        <v>6.2237773173130437E-4</v>
       </c>
       <c r="K15">
-        <v>-1.4864714879321559E-3</v>
+        <v>-1.4751297373827054E-3</v>
       </c>
       <c r="L15">
-        <v>-1.2556718812812813E-4</v>
+        <v>-2.5751056481954928E-4</v>
       </c>
       <c r="M15">
-        <v>1.0275816612004892E-4</v>
+        <v>1.5694294519553943E-5</v>
       </c>
       <c r="N15">
-        <v>-6.3111305203984508E-5</v>
+        <v>-1.1887252957870176E-4</v>
       </c>
       <c r="O15">
-        <v>-9.407348772804509E-5</v>
+        <v>-1.2800001179528032E-4</v>
       </c>
       <c r="P15">
-        <v>3.8210699543895672E-3</v>
+        <v>3.7832160466840939E-3</v>
       </c>
       <c r="Q15">
-        <v>5.2467963386592476E-5</v>
+        <v>4.8954179791904596E-5</v>
       </c>
       <c r="R15">
-        <v>1.1735055235365157E-4</v>
+        <v>1.1109432132050946E-4</v>
       </c>
       <c r="S15">
-        <v>2.3317194248204166E-4</v>
+        <v>1.8850654133109233E-4</v>
       </c>
       <c r="T15">
-        <v>-1.035397939375107E-4</v>
+        <v>-1.0446876054194212E-4</v>
       </c>
       <c r="U15">
-        <v>-3.8382763701092247E-5</v>
+        <v>-3.7643420158571284E-5</v>
       </c>
       <c r="V15">
-        <v>2.4276933087230245E-4</v>
+        <v>2.2761659104754279E-4</v>
       </c>
       <c r="W15">
-        <v>1.7973121089049119E-4</v>
+        <v>1.7597304070282062E-4</v>
       </c>
       <c r="X15">
-        <v>1.1105535904864475E-2</v>
+        <v>1.1478086618962005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
@@ -1733,73 +1733,73 @@
         <v>30</v>
       </c>
       <c r="B16" s="4">
-        <v>3.2911186249394861E-2</v>
+        <v>2.1936002951917274E-2</v>
       </c>
       <c r="C16">
-        <v>-4.9601233451125864E-4</v>
+        <v>-4.5090525248299256E-4</v>
       </c>
       <c r="D16">
-        <v>3.9125069275913055E-4</v>
+        <v>3.4574498054642036E-4</v>
       </c>
       <c r="E16">
-        <v>-2.7559592374219526E-6</v>
+        <v>-2.44371537367534E-6</v>
       </c>
       <c r="F16">
-        <v>9.4024186133445393E-4</v>
+        <v>8.4795382028646444E-4</v>
       </c>
       <c r="G16">
-        <v>1.6436813540821049E-4</v>
+        <v>1.6709534463342762E-4</v>
       </c>
       <c r="H16">
-        <v>2.5398857446594543E-4</v>
+        <v>1.61783154657442E-4</v>
       </c>
       <c r="I16">
-        <v>2.2665681087008374E-4</v>
+        <v>1.5577456237941345E-4</v>
       </c>
       <c r="J16">
-        <v>-9.3196830171448156E-4</v>
+        <v>-8.0867858516690469E-4</v>
       </c>
       <c r="K16">
-        <v>2.2308026036150022E-4</v>
+        <v>2.6044992468864515E-4</v>
       </c>
       <c r="L16">
-        <v>-4.872163071046779E-5</v>
+        <v>-6.1838779001913418E-5</v>
       </c>
       <c r="M16">
-        <v>-1.1719781908737939E-5</v>
+        <v>1.9145598516012935E-5</v>
       </c>
       <c r="N16">
-        <v>3.1750621008889502E-4</v>
+        <v>3.4988652602544953E-4</v>
       </c>
       <c r="O16">
-        <v>2.2028438066903043E-4</v>
+        <v>1.5507703188406352E-4</v>
       </c>
       <c r="P16">
-        <v>5.2467963386592476E-5</v>
+        <v>4.8954179791904596E-5</v>
       </c>
       <c r="Q16">
-        <v>4.5688696659614992E-3</v>
+        <v>4.4296692098591307E-3</v>
       </c>
       <c r="R16">
-        <v>2.2143310057736471E-3</v>
+        <v>2.1284993750123669E-3</v>
       </c>
       <c r="S16">
-        <v>2.2332507293568067E-3</v>
+        <v>2.1396349772318224E-3</v>
       </c>
       <c r="T16">
-        <v>2.248053178602051E-3</v>
+        <v>2.1660614940950573E-3</v>
       </c>
       <c r="U16">
-        <v>6.666626220247556E-6</v>
+        <v>3.4659792046539237E-6</v>
       </c>
       <c r="V16">
-        <v>-4.9166725931119886E-5</v>
+        <v>-3.6522267289872914E-5</v>
       </c>
       <c r="W16">
-        <v>-1.4968952922055832E-4</v>
+        <v>-1.181430754422948E-4</v>
       </c>
       <c r="X16">
-        <v>-1.5614322326096533E-2</v>
+        <v>-1.3909312122353095E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
@@ -1807,73 +1807,73 @@
         <v>31</v>
       </c>
       <c r="B17" s="4">
-        <v>0.13708443272794865</v>
+        <v>0.12907336711082143</v>
       </c>
       <c r="C17">
-        <v>-1.2892260565320213E-4</v>
+        <v>-8.9018126526219793E-5</v>
       </c>
       <c r="D17">
-        <v>1.865269398708333E-4</v>
+        <v>1.8422387502360985E-4</v>
       </c>
       <c r="E17">
-        <v>-1.5018339150614599E-6</v>
+        <v>-1.4785204240020582E-6</v>
       </c>
       <c r="F17">
-        <v>-1.7939162042436953E-4</v>
+        <v>-1.7891080780154008E-4</v>
       </c>
       <c r="G17">
-        <v>1.4278049154539414E-4</v>
+        <v>1.1168626672433506E-4</v>
       </c>
       <c r="H17">
-        <v>-1.2078008725447493E-4</v>
+        <v>-1.6802371965335123E-4</v>
       </c>
       <c r="I17">
-        <v>-1.1577742665973365E-4</v>
+        <v>-1.4406263831567021E-4</v>
       </c>
       <c r="J17">
-        <v>1.5463866083715444E-5</v>
+        <v>4.1322779688653805E-5</v>
       </c>
       <c r="K17">
-        <v>-2.3301673196117652E-5</v>
+        <v>-3.8269899229402158E-5</v>
       </c>
       <c r="L17">
-        <v>-1.7860889959046418E-4</v>
+        <v>-1.7911782456869112E-4</v>
       </c>
       <c r="M17">
-        <v>-4.4692338083159922E-4</v>
+        <v>-4.0416158840703739E-4</v>
       </c>
       <c r="N17">
-        <v>-6.308234092147545E-4</v>
+        <v>-5.3082041293571556E-4</v>
       </c>
       <c r="O17">
-        <v>-5.4323179441411297E-4</v>
+        <v>-6.0784804703804818E-4</v>
       </c>
       <c r="P17">
-        <v>1.1735055235365157E-4</v>
+        <v>1.1109432132050946E-4</v>
       </c>
       <c r="Q17">
-        <v>2.2143310057736471E-3</v>
+        <v>2.1284993750123669E-3</v>
       </c>
       <c r="R17">
-        <v>5.6908451537292576E-3</v>
+        <v>5.537074872079566E-3</v>
       </c>
       <c r="S17">
-        <v>2.2693203952862673E-3</v>
+        <v>2.1775559583691517E-3</v>
       </c>
       <c r="T17">
-        <v>2.3137195835338659E-3</v>
+        <v>2.2172354318026775E-3</v>
       </c>
       <c r="U17">
-        <v>-1.1435547053538426E-5</v>
+        <v>-1.4339978267825268E-5</v>
       </c>
       <c r="V17">
-        <v>1.520968128463585E-4</v>
+        <v>1.5813262028249562E-4</v>
       </c>
       <c r="W17">
-        <v>1.6454356707696767E-4</v>
+        <v>1.8421843565788568E-4</v>
       </c>
       <c r="X17">
-        <v>-7.4023172121851725E-3</v>
+        <v>-7.2042011024067241E-3</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.45">
@@ -1881,73 +1881,73 @@
         <v>32</v>
       </c>
       <c r="B18" s="4">
-        <v>2.0460406608666652E-2</v>
+        <v>4.2479455116697012E-2</v>
       </c>
       <c r="C18">
-        <v>-1.3266363899576677E-4</v>
+        <v>-1.0229633540871381E-4</v>
       </c>
       <c r="D18">
-        <v>1.5372246298674119E-4</v>
+        <v>2.5685998969708981E-4</v>
       </c>
       <c r="E18">
-        <v>-1.2685508911801553E-6</v>
+        <v>-1.9888802995509953E-6</v>
       </c>
       <c r="F18">
-        <v>-3.9126888748946924E-4</v>
+        <v>-2.1899761468195797E-4</v>
       </c>
       <c r="G18">
-        <v>-2.5382060313675243E-4</v>
+        <v>-3.3655972360597305E-4</v>
       </c>
       <c r="H18">
-        <v>4.0223237689096308E-5</v>
+        <v>2.760091848339136E-6</v>
       </c>
       <c r="I18">
-        <v>-8.6279396441875291E-5</v>
+        <v>-4.8497600330886775E-5</v>
       </c>
       <c r="J18">
-        <v>-4.3249517570238816E-6</v>
+        <v>-1.8626505865663653E-4</v>
       </c>
       <c r="K18">
-        <v>1.2161193148092016E-4</v>
+        <v>-1.4574904422939741E-4</v>
       </c>
       <c r="L18">
-        <v>-4.7147523527069069E-5</v>
+        <v>3.9487288328093168E-5</v>
       </c>
       <c r="M18">
-        <v>-1.7130172425924655E-4</v>
+        <v>-2.0584432238953169E-4</v>
       </c>
       <c r="N18">
-        <v>7.2770574409259953E-5</v>
+        <v>-8.8401030889947822E-5</v>
       </c>
       <c r="O18">
-        <v>7.2240279106912386E-6</v>
+        <v>-2.7446783242094904E-4</v>
       </c>
       <c r="P18">
-        <v>2.3317194248204166E-4</v>
+        <v>1.8850654133109233E-4</v>
       </c>
       <c r="Q18">
-        <v>2.2332507293568067E-3</v>
+        <v>2.1396349772318224E-3</v>
       </c>
       <c r="R18">
-        <v>2.2693203952862673E-3</v>
+        <v>2.1775559583691517E-3</v>
       </c>
       <c r="S18">
-        <v>4.6510482336836207E-3</v>
+        <v>4.5899749068653442E-3</v>
       </c>
       <c r="T18">
-        <v>2.2897702248369182E-3</v>
+        <v>2.1844837139621052E-3</v>
       </c>
       <c r="U18">
-        <v>3.401977520582654E-6</v>
+        <v>4.5785646660027088E-6</v>
       </c>
       <c r="V18">
-        <v>7.2243824530878001E-5</v>
+        <v>7.1384329701992778E-5</v>
       </c>
       <c r="W18">
-        <v>-8.1075055758233865E-5</v>
+        <v>-7.7877465371618479E-5</v>
       </c>
       <c r="X18">
-        <v>-6.8707003913078338E-3</v>
+        <v>-1.0070318168489634E-2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
@@ -1955,73 +1955,73 @@
         <v>34</v>
       </c>
       <c r="B19" s="4">
-        <v>0.22130593702114376</v>
+        <v>0.21426808195558211</v>
       </c>
       <c r="C19">
-        <v>-2.2851379501852374E-4</v>
+        <v>-1.8970289536642709E-4</v>
       </c>
       <c r="D19">
-        <v>4.8982123290420426E-4</v>
+        <v>4.5406255584136629E-4</v>
       </c>
       <c r="E19">
-        <v>-3.5253048173679993E-6</v>
+        <v>-3.2683282910578023E-6</v>
       </c>
       <c r="F19">
-        <v>-4.923249097664302E-4</v>
+        <v>-4.8695436244397408E-4</v>
       </c>
       <c r="G19">
-        <v>-4.9284608981375812E-4</v>
+        <v>-4.4306370508044845E-4</v>
       </c>
       <c r="H19">
-        <v>9.4736935474828835E-5</v>
+        <v>1.9543567043054153E-5</v>
       </c>
       <c r="I19">
-        <v>-8.8818734363325632E-6</v>
+        <v>-8.0460027071795488E-5</v>
       </c>
       <c r="J19">
-        <v>-5.5548646894243913E-4</v>
+        <v>-4.6946608921159122E-4</v>
       </c>
       <c r="K19">
-        <v>3.2327335744251169E-4</v>
+        <v>3.2537705910654351E-4</v>
       </c>
       <c r="L19">
-        <v>-2.4625772987051109E-4</v>
+        <v>-1.2996507442466351E-4</v>
       </c>
       <c r="M19">
-        <v>-3.0007845183591922E-4</v>
+        <v>-1.8715223490815185E-4</v>
       </c>
       <c r="N19">
-        <v>-1.8518667670996172E-4</v>
+        <v>-7.2297357444823282E-6</v>
       </c>
       <c r="O19">
-        <v>-4.683785720037306E-5</v>
+        <v>-8.8823405686766691E-5</v>
       </c>
       <c r="P19">
-        <v>-1.035397939375107E-4</v>
+        <v>-1.0446876054194212E-4</v>
       </c>
       <c r="Q19">
-        <v>2.248053178602051E-3</v>
+        <v>2.1660614940950573E-3</v>
       </c>
       <c r="R19">
-        <v>2.3137195835338659E-3</v>
+        <v>2.2172354318026775E-3</v>
       </c>
       <c r="S19">
-        <v>2.2897702248369182E-3</v>
+        <v>2.1844837139621052E-3</v>
       </c>
       <c r="T19">
-        <v>3.5991242894419066E-3</v>
+        <v>3.4712084335804267E-3</v>
       </c>
       <c r="U19">
-        <v>-3.275367712241693E-6</v>
+        <v>-8.4872143593259628E-6</v>
       </c>
       <c r="V19">
-        <v>1.6549537472598569E-4</v>
+        <v>1.7494661746656821E-4</v>
       </c>
       <c r="W19">
-        <v>-2.4440428472013434E-5</v>
+        <v>1.0339544800023939E-5</v>
       </c>
       <c r="X19">
-        <v>-1.8584910153318594E-2</v>
+        <v>-1.7266336102648678E-2</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
@@ -2029,73 +2029,73 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>4.4667027955581126E-2</v>
+        <v>4.4306050873005043E-2</v>
       </c>
       <c r="C20">
-        <v>-9.9323017297451514E-6</v>
+        <v>-1.1324460160590867E-5</v>
       </c>
       <c r="D20">
-        <v>-1.5254634749021058E-5</v>
+        <v>-1.3404151775062525E-5</v>
       </c>
       <c r="E20">
-        <v>1.1307957269849284E-7</v>
+        <v>1.0014663766217625E-7</v>
       </c>
       <c r="F20">
-        <v>-6.7191372429289801E-5</v>
+        <v>-5.7633243204244939E-5</v>
       </c>
       <c r="G20">
-        <v>-1.9382021228490725E-5</v>
+        <v>-1.4862197364529512E-5</v>
       </c>
       <c r="H20">
-        <v>1.2395566764093542E-5</v>
+        <v>1.5342265415308932E-5</v>
       </c>
       <c r="I20">
-        <v>3.176656435179096E-5</v>
+        <v>3.611673980905823E-5</v>
       </c>
       <c r="J20">
-        <v>2.2053213297827494E-5</v>
+        <v>1.4323600843936784E-5</v>
       </c>
       <c r="K20">
-        <v>9.4999715130550063E-5</v>
+        <v>8.0141356386209596E-5</v>
       </c>
       <c r="L20">
-        <v>-1.3387814879522479E-5</v>
+        <v>-1.1191905305022853E-5</v>
       </c>
       <c r="M20">
-        <v>1.2734186791591198E-5</v>
+        <v>6.2061495991615645E-6</v>
       </c>
       <c r="N20">
-        <v>-1.4024374543686173E-5</v>
+        <v>-2.6169309912909029E-5</v>
       </c>
       <c r="O20">
-        <v>6.8723960946877544E-6</v>
+        <v>5.5301583834629979E-6</v>
       </c>
       <c r="P20">
-        <v>-3.8382763701092247E-5</v>
+        <v>-3.7643420158571284E-5</v>
       </c>
       <c r="Q20">
-        <v>6.666626220247556E-6</v>
+        <v>3.4659792046539237E-6</v>
       </c>
       <c r="R20">
-        <v>-1.1435547053538426E-5</v>
+        <v>-1.4339978267825268E-5</v>
       </c>
       <c r="S20">
-        <v>3.401977520582654E-6</v>
+        <v>4.5785646660027088E-6</v>
       </c>
       <c r="T20">
-        <v>-3.275367712241693E-6</v>
+        <v>-8.4872143593259628E-6</v>
       </c>
       <c r="U20">
-        <v>4.0111923499208057E-5</v>
+        <v>3.8802517082310338E-5</v>
       </c>
       <c r="V20">
-        <v>-1.1086397759562282E-4</v>
+        <v>-1.0680661807577533E-4</v>
       </c>
       <c r="W20">
-        <v>-1.5018242474997115E-4</v>
+        <v>-1.4507903397191995E-4</v>
       </c>
       <c r="X20">
-        <v>-2.578254835864692E-4</v>
+        <v>-2.817317713658795E-4</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
@@ -2103,73 +2103,73 @@
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>8.2461019493917723E-2</v>
+        <v>8.8910569575186046E-2</v>
       </c>
       <c r="C21">
-        <v>-1.9632678899723314E-4</v>
+        <v>-1.9936894281242699E-4</v>
       </c>
       <c r="D21">
-        <v>4.9161559608887698E-5</v>
+        <v>3.4788948626124708E-5</v>
       </c>
       <c r="E21">
-        <v>-3.280179314913418E-7</v>
+        <v>-2.2960131475809173E-7</v>
       </c>
       <c r="F21">
-        <v>2.5708866839318958E-4</v>
+        <v>1.9417590047065102E-4</v>
       </c>
       <c r="G21">
-        <v>-6.8036805559256721E-5</v>
+        <v>-3.1845428339174206E-5</v>
       </c>
       <c r="H21">
-        <v>1.2860831907954913E-5</v>
+        <v>-4.7903373677727289E-6</v>
       </c>
       <c r="I21">
-        <v>4.2851523993659986E-5</v>
+        <v>7.561009290744285E-8</v>
       </c>
       <c r="J21">
-        <v>-7.8411061894769277E-5</v>
+        <v>-8.2372482179821072E-6</v>
       </c>
       <c r="K21">
-        <v>-7.0744581087328379E-4</v>
+        <v>-5.970480753483469E-4</v>
       </c>
       <c r="L21">
-        <v>1.3475971650877148E-4</v>
+        <v>5.8595607596281926E-5</v>
       </c>
       <c r="M21">
-        <v>1.1351065316654926E-4</v>
+        <v>1.0191725340045479E-4</v>
       </c>
       <c r="N21">
-        <v>-4.4745405114244023E-4</v>
+        <v>-3.6213513475169285E-4</v>
       </c>
       <c r="O21">
-        <v>-4.1979558071600273E-4</v>
+        <v>-4.0919773094095059E-4</v>
       </c>
       <c r="P21">
-        <v>2.4276933087230245E-4</v>
+        <v>2.2761659104754279E-4</v>
       </c>
       <c r="Q21">
-        <v>-4.9166725931119886E-5</v>
+        <v>-3.6522267289872914E-5</v>
       </c>
       <c r="R21">
-        <v>1.520968128463585E-4</v>
+        <v>1.5813262028249562E-4</v>
       </c>
       <c r="S21">
-        <v>7.2243824530878001E-5</v>
+        <v>7.1384329701992778E-5</v>
       </c>
       <c r="T21">
-        <v>1.6549537472598569E-4</v>
+        <v>1.7494661746656821E-4</v>
       </c>
       <c r="U21">
-        <v>-1.1086397759562282E-4</v>
+        <v>-1.0680661807577533E-4</v>
       </c>
       <c r="V21">
-        <v>4.9434164962082429E-3</v>
+        <v>4.7345590970943423E-3</v>
       </c>
       <c r="W21">
-        <v>9.8854685499960874E-4</v>
+        <v>9.6980310520711145E-4</v>
       </c>
       <c r="X21">
-        <v>6.8812576378765589E-6</v>
+        <v>3.6275997376113839E-4</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
@@ -2177,73 +2177,73 @@
         <v>24</v>
       </c>
       <c r="B22" s="4">
-        <v>0.29838404203847918</v>
+        <v>0.28512783010365322</v>
       </c>
       <c r="C22">
-        <v>2.0660432482901524E-5</v>
+        <v>1.5645308944060334E-5</v>
       </c>
       <c r="D22">
-        <v>-1.8329664107776672E-4</v>
+        <v>-1.8142000347178694E-4</v>
       </c>
       <c r="E22">
-        <v>1.2855788957170195E-6</v>
+        <v>1.27896864324413E-6</v>
       </c>
       <c r="F22">
-        <v>1.6164523672159131E-4</v>
+        <v>1.2809451426632184E-4</v>
       </c>
       <c r="G22">
-        <v>4.6339896374456534E-4</v>
+        <v>4.3526462312966883E-4</v>
       </c>
       <c r="H22">
-        <v>6.8235157832200691E-5</v>
+        <v>1.140654028563377E-5</v>
       </c>
       <c r="I22">
-        <v>1.1291267273797184E-4</v>
+        <v>3.1649876239178351E-5</v>
       </c>
       <c r="J22">
-        <v>5.3990481069703805E-4</v>
+        <v>5.203610798507341E-4</v>
       </c>
       <c r="K22">
-        <v>-5.1888654528458537E-4</v>
+        <v>-4.1935670615840981E-4</v>
       </c>
       <c r="L22">
-        <v>1.3497348424807695E-4</v>
+        <v>5.8589092771857637E-5</v>
       </c>
       <c r="M22">
-        <v>-1.8324746819081607E-4</v>
+        <v>-1.8046623580512868E-4</v>
       </c>
       <c r="N22">
-        <v>-1.3694059966879672E-4</v>
+        <v>-9.8067864292601323E-5</v>
       </c>
       <c r="O22">
-        <v>-1.9378265246653131E-4</v>
+        <v>-2.1362939494865181E-4</v>
       </c>
       <c r="P22">
-        <v>1.7973121089049119E-4</v>
+        <v>1.7597304070282062E-4</v>
       </c>
       <c r="Q22">
-        <v>-1.4968952922055832E-4</v>
+        <v>-1.181430754422948E-4</v>
       </c>
       <c r="R22">
-        <v>1.6454356707696767E-4</v>
+        <v>1.8421843565788568E-4</v>
       </c>
       <c r="S22">
-        <v>-8.1075055758233865E-5</v>
+        <v>-7.7877465371618479E-5</v>
       </c>
       <c r="T22">
-        <v>-2.4440428472013434E-5</v>
+        <v>1.0339544800023939E-5</v>
       </c>
       <c r="U22">
-        <v>-1.5018242474997115E-4</v>
+        <v>-1.4507903397191995E-4</v>
       </c>
       <c r="V22">
-        <v>9.8854685499960874E-4</v>
+        <v>9.6980310520711145E-4</v>
       </c>
       <c r="W22">
-        <v>4.3051970237740003E-3</v>
+        <v>4.1891007381508073E-3</v>
       </c>
       <c r="X22">
-        <v>8.2648646587906646E-3</v>
+        <v>8.0986841574922017E-3</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -2251,73 +2251,73 @@
         <v>25</v>
       </c>
       <c r="B23" s="4">
-        <v>-12.554723463788793</v>
+        <v>-13.563324274697759</v>
       </c>
       <c r="C23">
-        <v>1.0783702154524372E-2</v>
+        <v>7.6543356479846503E-3</v>
       </c>
       <c r="D23">
-        <v>-8.7127439931732331E-2</v>
+        <v>-8.4567787563106789E-2</v>
       </c>
       <c r="E23">
-        <v>6.2639111567773E-4</v>
+        <v>6.0860329152661978E-4</v>
       </c>
       <c r="F23">
-        <v>1.1818647185510511E-2</v>
+        <v>1.4397331009588232E-2</v>
       </c>
       <c r="G23">
-        <v>4.6071116363916753E-2</v>
+        <v>4.6632872781196821E-2</v>
       </c>
       <c r="H23">
-        <v>-2.6249815077193511E-3</v>
+        <v>-2.2998120395008731E-3</v>
       </c>
       <c r="I23">
-        <v>-5.6712205715950953E-3</v>
+        <v>-7.1321262605937019E-3</v>
       </c>
       <c r="J23">
-        <v>0.11166785825601511</v>
+        <v>0.10359730768003406</v>
       </c>
       <c r="K23">
-        <v>-1.1601368250058954E-2</v>
+        <v>-3.886351712518131E-3</v>
       </c>
       <c r="L23">
-        <v>2.4392711319369828E-3</v>
+        <v>2.390619750444814E-4</v>
       </c>
       <c r="M23">
-        <v>-3.2262296051129014E-3</v>
+        <v>-1.2520711603184742E-3</v>
       </c>
       <c r="N23">
-        <v>-1.1761518820162215E-2</v>
+        <v>-6.9144881382541268E-3</v>
       </c>
       <c r="O23">
-        <v>-1.0150647378425581E-2</v>
+        <v>-2.9149407095898916E-3</v>
       </c>
       <c r="P23">
-        <v>1.1105535904864475E-2</v>
+        <v>1.1478086618962005E-2</v>
       </c>
       <c r="Q23">
-        <v>-1.5614322326096533E-2</v>
+        <v>-1.3909312122353095E-2</v>
       </c>
       <c r="R23">
-        <v>-7.4023172121851725E-3</v>
+        <v>-7.2042011024067241E-3</v>
       </c>
       <c r="S23">
-        <v>-6.8707003913078338E-3</v>
+        <v>-1.0070318168489634E-2</v>
       </c>
       <c r="T23">
-        <v>-1.8584910153318594E-2</v>
+        <v>-1.7266336102648678E-2</v>
       </c>
       <c r="U23">
-        <v>-2.578254835864692E-4</v>
+        <v>-2.817317713658795E-4</v>
       </c>
       <c r="V23">
-        <v>6.8812576378765589E-6</v>
+        <v>3.6275997376113839E-4</v>
       </c>
       <c r="W23">
-        <v>8.2648646587906646E-3</v>
+        <v>8.0986841574922017E-3</v>
       </c>
       <c r="X23">
-        <v>2.913113662418148</v>
+        <v>2.824203176953624</v>
       </c>
     </row>
   </sheetData>
@@ -2433,91 +2433,91 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>0.11304067059486159</v>
+        <v>8.9348060650980304E-2</v>
       </c>
       <c r="C2">
-        <v>2.3215757564054888E-3</v>
+        <v>2.1378949705125831E-3</v>
       </c>
       <c r="D2">
-        <v>-4.595829724334204E-4</v>
+        <v>-5.1281767340943026E-4</v>
       </c>
       <c r="E2">
-        <v>3.1184863250555613E-6</v>
+        <v>3.5271491877640177E-6</v>
       </c>
       <c r="F2">
-        <v>-1.2737829105291096E-3</v>
+        <v>-1.4841939752014087E-3</v>
       </c>
       <c r="G2">
-        <v>-8.2914671013969911E-4</v>
+        <v>-7.2250499292950306E-4</v>
       </c>
       <c r="H2">
-        <v>-1.137560796917441E-4</v>
+        <v>-1.3462047170082533E-4</v>
       </c>
       <c r="I2">
-        <v>-1.714630669062613E-5</v>
+        <v>-5.8450276199566837E-5</v>
       </c>
       <c r="J2">
-        <v>1.3346979276347248E-3</v>
+        <v>1.4333344131114755E-3</v>
       </c>
       <c r="K2">
-        <v>5.4664358556355476E-4</v>
+        <v>5.8201769832119958E-4</v>
       </c>
       <c r="L2">
-        <v>-7.3656800436919804E-5</v>
+        <v>-1.7472697626508277E-4</v>
       </c>
       <c r="M2">
-        <v>-1.1945490931137035E-4</v>
+        <v>-1.0598238338953922E-4</v>
       </c>
       <c r="N2">
-        <v>-2.2684754990251018E-4</v>
+        <v>-3.2421178064628056E-4</v>
       </c>
       <c r="O2">
-        <v>-3.4075982836438804E-4</v>
+        <v>-2.0983155588325908E-4</v>
       </c>
       <c r="P2">
-        <v>-3.2916046473410157E-5</v>
+        <v>-1.1171967814567695E-4</v>
       </c>
       <c r="Q2">
-        <v>-6.4864614223925175E-4</v>
+        <v>-5.3800566034262556E-4</v>
       </c>
       <c r="R2">
-        <v>-1.9215348374986241E-4</v>
+        <v>-2.478741427454379E-4</v>
       </c>
       <c r="S2">
-        <v>7.152169098655185E-4</v>
+        <v>6.1427279594138432E-4</v>
       </c>
       <c r="T2">
-        <v>7.0748871991933241E-4</v>
+        <v>5.5466772504872257E-4</v>
       </c>
       <c r="U2">
-        <v>-9.4018786993695059E-5</v>
+        <v>-1.5677121331265714E-4</v>
       </c>
       <c r="V2">
-        <v>1.2315586087774356E-4</v>
+        <v>1.5920863486497524E-4</v>
       </c>
       <c r="W2">
-        <v>-1.3983304214127269E-4</v>
+        <v>-8.5817286168784275E-5</v>
       </c>
       <c r="X2">
-        <v>7.9391890456625698E-5</v>
+        <v>1.0156104627540754E-4</v>
       </c>
       <c r="Y2">
-        <v>-1.0687789952157096E-4</v>
+        <v>-3.3521403284949712E-5</v>
       </c>
       <c r="Z2">
-        <v>-1.4536206869101442E-4</v>
+        <v>-1.5688205116323162E-4</v>
       </c>
       <c r="AA2">
-        <v>2.5597709760130632E-5</v>
+        <v>-1.9736096650505703E-6</v>
       </c>
       <c r="AB2">
-        <v>-1.4609064984194835E-4</v>
+        <v>-4.7449604074645312E-5</v>
       </c>
       <c r="AC2">
-        <v>-1.449541498768402E-4</v>
+        <v>2.3455745983574309E-5</v>
       </c>
       <c r="AD2">
-        <v>1.4569300867883279E-2</v>
+        <v>1.6857530957748779E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
@@ -2525,91 +2525,91 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>0.61717526733596784</v>
+        <v>0.60381314719608881</v>
       </c>
       <c r="C3">
-        <v>-4.595829724334204E-4</v>
+        <v>-5.1281767340943026E-4</v>
       </c>
       <c r="D3">
-        <v>2.6585697975464195E-3</v>
+        <v>2.3844739183201623E-3</v>
       </c>
       <c r="E3">
-        <v>-2.0465034463547123E-5</v>
+        <v>-1.8378597695600023E-5</v>
       </c>
       <c r="F3">
-        <v>-2.1710007740198458E-4</v>
+        <v>-1.1083184260959195E-4</v>
       </c>
       <c r="G3">
-        <v>-4.4092790664254124E-4</v>
+        <v>-3.4181129244505518E-4</v>
       </c>
       <c r="H3">
-        <v>1.6795016510407976E-4</v>
+        <v>8.1903585171010963E-5</v>
       </c>
       <c r="I3">
-        <v>3.1784207541556662E-4</v>
+        <v>2.387403542555358E-4</v>
       </c>
       <c r="J3">
-        <v>-8.2859175171225131E-4</v>
+        <v>-7.6456502345577729E-4</v>
       </c>
       <c r="K3">
-        <v>-1.7061898544023547E-5</v>
+        <v>9.4585903253827097E-7</v>
       </c>
       <c r="L3">
-        <v>1.289951751268217E-4</v>
+        <v>9.9117664961559035E-5</v>
       </c>
       <c r="M3">
-        <v>-4.0398912049673281E-5</v>
+        <v>-2.7440640576018548E-5</v>
       </c>
       <c r="N3">
-        <v>-2.4575211523787405E-4</v>
+        <v>-1.5185173199025459E-4</v>
       </c>
       <c r="O3">
-        <v>-3.2473227312822955E-5</v>
+        <v>-9.5596832627227349E-5</v>
       </c>
       <c r="P3">
-        <v>-2.2064422740607041E-4</v>
+        <v>-1.3902028479349663E-4</v>
       </c>
       <c r="Q3">
-        <v>-2.690762011121361E-4</v>
+        <v>-2.234659537241924E-4</v>
       </c>
       <c r="R3">
-        <v>-1.9368503058245917E-4</v>
+        <v>-1.5469338216407731E-4</v>
       </c>
       <c r="S3">
-        <v>-3.274704188904274E-4</v>
+        <v>-3.3067803239834187E-4</v>
       </c>
       <c r="T3">
-        <v>-3.5472592236630678E-4</v>
+        <v>-3.3319941634982501E-4</v>
       </c>
       <c r="U3">
-        <v>-8.5601786893998999E-5</v>
+        <v>-2.3659332545406669E-5</v>
       </c>
       <c r="V3">
-        <v>-4.5335928127530206E-6</v>
+        <v>-2.3546741053537268E-5</v>
       </c>
       <c r="W3">
-        <v>1.3067177520545079E-4</v>
+        <v>7.7873862657812376E-5</v>
       </c>
       <c r="X3">
-        <v>3.2084219687431373E-5</v>
+        <v>-7.1675353142093903E-6</v>
       </c>
       <c r="Y3">
-        <v>2.0301421374443671E-4</v>
+        <v>1.1212773813667684E-4</v>
       </c>
       <c r="Z3">
-        <v>7.4476721325910863E-5</v>
+        <v>-1.3917052107153671E-5</v>
       </c>
       <c r="AA3">
-        <v>-2.9788152968964528E-6</v>
+        <v>-2.828757844919056E-6</v>
       </c>
       <c r="AB3">
-        <v>1.2684642857219153E-4</v>
+        <v>1.4090163746053111E-4</v>
       </c>
       <c r="AC3">
-        <v>8.2000951430516444E-5</v>
+        <v>9.0805900671418749E-5</v>
       </c>
       <c r="AD3">
-        <v>-8.4753965055573616E-2</v>
+        <v>-7.5836301001550976E-2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
@@ -2617,91 +2617,91 @@
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>-4.7103596696986307E-3</v>
+        <v>-4.6111903694334381E-3</v>
       </c>
       <c r="C4">
-        <v>3.1184863250555613E-6</v>
+        <v>3.5271491877640177E-6</v>
       </c>
       <c r="D4">
-        <v>-2.0465034463547123E-5</v>
+        <v>-1.8378597695600023E-5</v>
       </c>
       <c r="E4">
-        <v>1.5905802420402279E-7</v>
+        <v>1.430491867632303E-7</v>
       </c>
       <c r="F4">
-        <v>1.9709448878766985E-6</v>
+        <v>1.11656947320135E-6</v>
       </c>
       <c r="G4">
-        <v>3.3813432792806255E-6</v>
+        <v>2.6400456476396888E-6</v>
       </c>
       <c r="H4">
-        <v>-1.0294211719066425E-6</v>
+        <v>-4.2568870459441522E-7</v>
       </c>
       <c r="I4">
-        <v>-2.5206074707530718E-6</v>
+        <v>-1.9118424677530191E-6</v>
       </c>
       <c r="J4">
-        <v>5.3635958143188766E-6</v>
+        <v>4.9596405299146083E-6</v>
       </c>
       <c r="K4">
-        <v>9.1903810397504912E-8</v>
+        <v>-2.1221418287030967E-8</v>
       </c>
       <c r="L4">
-        <v>-1.0548539774290384E-6</v>
+        <v>-8.5209272892361801E-7</v>
       </c>
       <c r="M4">
-        <v>2.6039905097843637E-7</v>
+        <v>1.6120274185067257E-7</v>
       </c>
       <c r="N4">
-        <v>1.9961524487383281E-6</v>
+        <v>1.2854223154350354E-6</v>
       </c>
       <c r="O4">
-        <v>4.8732222499458833E-7</v>
+        <v>9.3290036390889064E-7</v>
       </c>
       <c r="P4">
-        <v>1.8873349193993843E-6</v>
+        <v>1.2791728390481435E-6</v>
       </c>
       <c r="Q4">
-        <v>2.190447376197419E-6</v>
+        <v>1.8454807501943858E-6</v>
       </c>
       <c r="R4">
-        <v>8.3661011585772771E-7</v>
+        <v>6.0771688077465181E-7</v>
       </c>
       <c r="S4">
-        <v>2.8769056127447859E-6</v>
+        <v>2.8590179296312574E-6</v>
       </c>
       <c r="T4">
-        <v>3.0064943041682398E-6</v>
+        <v>2.8419259205187364E-6</v>
       </c>
       <c r="U4">
-        <v>7.016464870789773E-7</v>
+        <v>2.3564734219994542E-7</v>
       </c>
       <c r="V4">
-        <v>1.4171235038341705E-7</v>
+        <v>2.7838880913184927E-7</v>
       </c>
       <c r="W4">
-        <v>-8.1741691621809061E-7</v>
+        <v>-4.7265588234288104E-7</v>
       </c>
       <c r="X4">
-        <v>-2.2354844636251765E-7</v>
+        <v>4.5962854604265045E-8</v>
       </c>
       <c r="Y4">
-        <v>-1.3789079779402702E-6</v>
+        <v>-7.5455006679457648E-7</v>
       </c>
       <c r="Z4">
-        <v>-3.9882146781958097E-7</v>
+        <v>1.9600890451548775E-7</v>
       </c>
       <c r="AA4">
-        <v>2.3908169472729282E-8</v>
+        <v>2.003233718119105E-8</v>
       </c>
       <c r="AB4">
-        <v>-9.5757320576724588E-7</v>
+        <v>-1.0294716363322767E-6</v>
       </c>
       <c r="AC4">
-        <v>-6.2268695963705158E-7</v>
+        <v>-6.5860031041157542E-7</v>
       </c>
       <c r="AD4">
-        <v>6.4708408438976343E-4</v>
+        <v>5.7973829599509454E-4</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
@@ -2709,91 +2709,91 @@
         <v>35</v>
       </c>
       <c r="B5" s="4">
-        <v>-1.4758529475227301E-2</v>
+        <v>-7.1342935380500473E-4</v>
       </c>
       <c r="C5">
-        <v>-1.2737829105291096E-3</v>
+        <v>-1.4841939752014087E-3</v>
       </c>
       <c r="D5">
-        <v>-2.1710007740198458E-4</v>
+        <v>-1.1083184260959195E-4</v>
       </c>
       <c r="E5">
-        <v>1.9709448878766985E-6</v>
+        <v>1.11656947320135E-6</v>
       </c>
       <c r="F5">
-        <v>3.526633053949256E-3</v>
+        <v>4.442203710841453E-3</v>
       </c>
       <c r="G5">
-        <v>9.8911834106808283E-4</v>
+        <v>9.0741131892469482E-4</v>
       </c>
       <c r="H5">
-        <v>-2.5398554261740931E-5</v>
+        <v>1.1733856661157735E-4</v>
       </c>
       <c r="I5">
-        <v>-8.0877092010931458E-5</v>
+        <v>-2.1412298981261357E-5</v>
       </c>
       <c r="J5">
-        <v>-1.0253303693926962E-3</v>
+        <v>-1.7544367072647796E-3</v>
       </c>
       <c r="K5">
-        <v>-3.476740641038756E-4</v>
+        <v>-7.0873077904449805E-4</v>
       </c>
       <c r="L5">
-        <v>1.3854792932606612E-4</v>
+        <v>5.6605800597719544E-4</v>
       </c>
       <c r="M5">
-        <v>1.2036061051109981E-4</v>
+        <v>9.9240079141970435E-5</v>
       </c>
       <c r="N5">
-        <v>-9.6967926467986308E-6</v>
+        <v>3.5020524910467105E-4</v>
       </c>
       <c r="O5">
-        <v>6.7701017060305731E-5</v>
+        <v>-1.0455658193429487E-4</v>
       </c>
       <c r="P5">
-        <v>-2.173540987021555E-4</v>
+        <v>-1.5422155624574685E-4</v>
       </c>
       <c r="Q5">
-        <v>1.4676234036893078E-4</v>
+        <v>5.9349516997347979E-5</v>
       </c>
       <c r="R5">
-        <v>-4.4641219092691684E-5</v>
+        <v>3.1993894182171672E-4</v>
       </c>
       <c r="S5">
-        <v>1.0040336223996718E-4</v>
+        <v>8.9292672279733115E-5</v>
       </c>
       <c r="T5">
-        <v>1.335601824071983E-4</v>
+        <v>2.0840183636636764E-4</v>
       </c>
       <c r="U5">
-        <v>-4.4506262107149933E-5</v>
+        <v>1.6147596058271744E-4</v>
       </c>
       <c r="V5">
-        <v>-2.1757922856644688E-5</v>
+        <v>-2.2830257504989106E-4</v>
       </c>
       <c r="W5">
-        <v>1.0260984940214067E-4</v>
+        <v>4.5787869085019486E-5</v>
       </c>
       <c r="X5">
-        <v>1.1448851824977539E-4</v>
+        <v>3.8135466088274868E-5</v>
       </c>
       <c r="Y5">
-        <v>3.1804392972987778E-5</v>
+        <v>-1.8488770561471499E-5</v>
       </c>
       <c r="Z5">
-        <v>1.5160437994200804E-4</v>
+        <v>3.997399335774948E-4</v>
       </c>
       <c r="AA5">
-        <v>-3.5783729996368807E-5</v>
+        <v>4.208968378236963E-5</v>
       </c>
       <c r="AB5">
-        <v>1.113879786736327E-4</v>
+        <v>-2.6422282860934232E-4</v>
       </c>
       <c r="AC5">
-        <v>6.732948909530731E-5</v>
+        <v>-4.4303037884616502E-4</v>
       </c>
       <c r="AD5">
-        <v>7.2483919945956488E-3</v>
+        <v>2.7579245401921013E-3</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
@@ -2801,91 +2801,91 @@
         <v>36</v>
       </c>
       <c r="B6" s="4">
-        <v>0.61685465916131166</v>
+        <v>0.5987239751423169</v>
       </c>
       <c r="C6">
-        <v>-8.2914671013969911E-4</v>
+        <v>-7.2250499292950306E-4</v>
       </c>
       <c r="D6">
-        <v>-4.4092790664254124E-4</v>
+        <v>-3.4181129244505518E-4</v>
       </c>
       <c r="E6">
-        <v>3.3813432792806255E-6</v>
+        <v>2.6400456476396888E-6</v>
       </c>
       <c r="F6">
-        <v>9.8911834106808283E-4</v>
+        <v>9.0741131892469482E-4</v>
       </c>
       <c r="G6">
-        <v>2.5513205040071721E-3</v>
+        <v>2.2804130578253845E-3</v>
       </c>
       <c r="H6">
-        <v>3.3091307441084159E-5</v>
+        <v>3.1458421300258402E-5</v>
       </c>
       <c r="I6">
-        <v>-9.0448633399122999E-7</v>
+        <v>6.0236101421737298E-6</v>
       </c>
       <c r="J6">
-        <v>-1.4788116209223871E-4</v>
+        <v>-1.9179290433165696E-4</v>
       </c>
       <c r="K6">
-        <v>-1.8638502679512326E-4</v>
+        <v>-1.7604567663596828E-4</v>
       </c>
       <c r="L6">
-        <v>6.9851548307857674E-5</v>
+        <v>8.8560979143958735E-5</v>
       </c>
       <c r="M6">
-        <v>1.1474574958697916E-4</v>
+        <v>9.4440222765384044E-5</v>
       </c>
       <c r="N6">
-        <v>6.226835452904228E-5</v>
+        <v>6.7559487316326636E-5</v>
       </c>
       <c r="O6">
-        <v>9.891392417514305E-5</v>
+        <v>7.4737322727571148E-5</v>
       </c>
       <c r="P6">
-        <v>-5.7848382370353471E-5</v>
+        <v>-7.534088914274502E-6</v>
       </c>
       <c r="Q6">
-        <v>4.6274857418761436E-5</v>
+        <v>2.9485245123905203E-5</v>
       </c>
       <c r="R6">
-        <v>-3.9375605330825743E-5</v>
+        <v>-1.2588479992685689E-5</v>
       </c>
       <c r="S6">
-        <v>7.3359991380996881E-5</v>
+        <v>7.9950505298631352E-5</v>
       </c>
       <c r="T6">
-        <v>8.7139043202751239E-5</v>
+        <v>9.3875974443845159E-5</v>
       </c>
       <c r="U6">
-        <v>7.2355979688566892E-6</v>
+        <v>5.9134027520987842E-6</v>
       </c>
       <c r="V6">
-        <v>-5.7542139594381463E-5</v>
+        <v>-4.4511162789488169E-5</v>
       </c>
       <c r="W6">
-        <v>6.3327368176944836E-5</v>
+        <v>2.5114144440440203E-5</v>
       </c>
       <c r="X6">
-        <v>-1.0073389662790819E-4</v>
+        <v>-1.0952295818186125E-4</v>
       </c>
       <c r="Y6">
-        <v>5.034719758341584E-5</v>
+        <v>-5.1463143459226993E-6</v>
       </c>
       <c r="Z6">
-        <v>-5.3271945509654646E-6</v>
+        <v>-1.3919000939627106E-5</v>
       </c>
       <c r="AA6">
-        <v>-3.4634078131885911E-5</v>
+        <v>-2.1925658110142883E-5</v>
       </c>
       <c r="AB6">
-        <v>1.4314840878370053E-4</v>
+        <v>8.8874373863293693E-5</v>
       </c>
       <c r="AC6">
-        <v>2.4634178109774266E-4</v>
+        <v>1.6303727140673172E-4</v>
       </c>
       <c r="AD6">
-        <v>1.4872646000236757E-2</v>
+        <v>1.1411024659940046E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
@@ -2893,91 +2893,91 @@
         <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>6.6272134963745954E-2</v>
+        <v>5.2885363302323643E-2</v>
       </c>
       <c r="C7">
-        <v>-1.137560796917441E-4</v>
+        <v>-1.3462047170082533E-4</v>
       </c>
       <c r="D7">
-        <v>1.6795016510407976E-4</v>
+        <v>8.1903585171010963E-5</v>
       </c>
       <c r="E7">
-        <v>-1.0294211719066425E-6</v>
+        <v>-4.2568870459441522E-7</v>
       </c>
       <c r="F7">
-        <v>-2.5398554261740931E-5</v>
+        <v>1.1733856661157735E-4</v>
       </c>
       <c r="G7">
-        <v>3.3091307441084159E-5</v>
+        <v>3.1458421300258402E-5</v>
       </c>
       <c r="H7">
-        <v>2.6459960357797818E-3</v>
+        <v>2.2243956012727123E-3</v>
       </c>
       <c r="I7">
-        <v>2.4228289195925867E-3</v>
+        <v>2.0200014007549245E-3</v>
       </c>
       <c r="J7">
-        <v>2.0887681557247122E-4</v>
+        <v>1.019883290175036E-4</v>
       </c>
       <c r="K7">
-        <v>-4.2117471181343647E-5</v>
+        <v>-1.3637350589591659E-4</v>
       </c>
       <c r="L7">
-        <v>-2.7182128296096163E-4</v>
+        <v>-1.6130356547071659E-4</v>
       </c>
       <c r="M7">
-        <v>1.0400160737753571E-4</v>
+        <v>8.8336708688888921E-5</v>
       </c>
       <c r="N7">
-        <v>1.6029545366976939E-4</v>
+        <v>1.2361716804417107E-4</v>
       </c>
       <c r="O7">
-        <v>4.050099933091577E-4</v>
+        <v>3.0268690630423211E-4</v>
       </c>
       <c r="P7">
-        <v>9.6895025851312605E-4</v>
+        <v>7.3390649258686961E-4</v>
       </c>
       <c r="Q7">
-        <v>6.5824712246610186E-5</v>
+        <v>7.5145726585203963E-5</v>
       </c>
       <c r="R7">
-        <v>6.880714383995669E-5</v>
+        <v>8.377904535069378E-5</v>
       </c>
       <c r="S7">
-        <v>6.457950495068575E-5</v>
+        <v>5.1155609454321436E-5</v>
       </c>
       <c r="T7">
-        <v>-4.602506740524368E-5</v>
+        <v>-2.0183261454045854E-7</v>
       </c>
       <c r="U7">
-        <v>1.3397700126094786E-4</v>
+        <v>7.2011266837547594E-5</v>
       </c>
       <c r="V7">
-        <v>8.9595977054581906E-5</v>
+        <v>5.3218873450096299E-5</v>
       </c>
       <c r="W7">
-        <v>-2.220870962684447E-5</v>
+        <v>-3.8827624145483763E-5</v>
       </c>
       <c r="X7">
-        <v>-1.0638420984030773E-5</v>
+        <v>-4.4598908025281609E-5</v>
       </c>
       <c r="Y7">
-        <v>9.4819007111315688E-5</v>
+        <v>5.1535617502044751E-5</v>
       </c>
       <c r="Z7">
-        <v>1.2609568671993686E-4</v>
+        <v>1.0105872094033608E-4</v>
       </c>
       <c r="AA7">
-        <v>2.158620754395274E-5</v>
+        <v>1.7375076608549855E-5</v>
       </c>
       <c r="AB7">
-        <v>-3.2856768135186614E-6</v>
+        <v>1.2186040185418932E-6</v>
       </c>
       <c r="AC7">
-        <v>-6.5566030842980271E-5</v>
+        <v>-5.8010567303918369E-5</v>
       </c>
       <c r="AD7">
-        <v>-9.594567664157826E-3</v>
+        <v>-5.9445462667799464E-3</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
@@ -2985,91 +2985,91 @@
         <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>-5.041350407181526E-2</v>
+        <v>-5.9035679980169987E-2</v>
       </c>
       <c r="C8">
-        <v>-1.714630669062613E-5</v>
+        <v>-5.8450276199566837E-5</v>
       </c>
       <c r="D8">
-        <v>3.1784207541556662E-4</v>
+        <v>2.387403542555358E-4</v>
       </c>
       <c r="E8">
-        <v>-2.5206074707530718E-6</v>
+        <v>-1.9118424677530191E-6</v>
       </c>
       <c r="F8">
-        <v>-8.0877092010931458E-5</v>
+        <v>-2.1412298981261357E-5</v>
       </c>
       <c r="G8">
-        <v>-9.0448633399122999E-7</v>
+        <v>6.0236101421737298E-6</v>
       </c>
       <c r="H8">
-        <v>2.4228289195925867E-3</v>
+        <v>2.0200014007549245E-3</v>
       </c>
       <c r="I8">
-        <v>4.2168641475177869E-3</v>
+        <v>3.6602226280522884E-3</v>
       </c>
       <c r="J8">
-        <v>3.6808084250318382E-4</v>
+        <v>2.8199374239040362E-4</v>
       </c>
       <c r="K8">
-        <v>-5.8494508120468037E-5</v>
+        <v>-1.1529726137831026E-4</v>
       </c>
       <c r="L8">
-        <v>-5.0186834866782057E-4</v>
+        <v>-3.9503265002578745E-4</v>
       </c>
       <c r="M8">
-        <v>1.0385968745520916E-4</v>
+        <v>9.4763674631219487E-5</v>
       </c>
       <c r="N8">
-        <v>2.5198381362907232E-4</v>
+        <v>1.8987062602167484E-4</v>
       </c>
       <c r="O8">
-        <v>5.9804238848411967E-4</v>
+        <v>4.9463674912620216E-4</v>
       </c>
       <c r="P8">
-        <v>1.2908010553483462E-3</v>
+        <v>1.0542995877709854E-3</v>
       </c>
       <c r="Q8">
-        <v>2.3202056378522314E-4</v>
+        <v>2.3912161588622038E-4</v>
       </c>
       <c r="R8">
-        <v>1.0758941910364865E-4</v>
+        <v>8.1584044476632728E-5</v>
       </c>
       <c r="S8">
-        <v>2.519553193163648E-6</v>
+        <v>-1.5212372795215422E-5</v>
       </c>
       <c r="T8">
-        <v>-8.4295317165667826E-5</v>
+        <v>-6.2221392322220134E-5</v>
       </c>
       <c r="U8">
-        <v>1.2427969160666797E-4</v>
+        <v>3.9574644989513578E-5</v>
       </c>
       <c r="V8">
-        <v>5.6267233014376113E-5</v>
+        <v>4.6968887024939274E-5</v>
       </c>
       <c r="W8">
-        <v>-1.6789935325235694E-4</v>
+        <v>-1.6511008231171798E-4</v>
       </c>
       <c r="X8">
-        <v>-1.0033633753606103E-4</v>
+        <v>-1.3891222622651602E-4</v>
       </c>
       <c r="Y8">
-        <v>-6.2257058643782454E-5</v>
+        <v>-7.8805103623854223E-5</v>
       </c>
       <c r="Z8">
-        <v>-5.4581456296203998E-5</v>
+        <v>-8.8137421412312096E-5</v>
       </c>
       <c r="AA8">
-        <v>4.4052098610677659E-5</v>
+        <v>3.0262697181533942E-5</v>
       </c>
       <c r="AB8">
-        <v>2.6656359380901242E-5</v>
+        <v>1.1344195733202446E-4</v>
       </c>
       <c r="AC8">
-        <v>-3.1946199197146119E-5</v>
+        <v>5.3407069862678683E-6</v>
       </c>
       <c r="AD8">
-        <v>-1.3753944543983328E-2</v>
+        <v>-1.037822997273978E-2</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
@@ -3077,91 +3077,91 @@
         <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>1.311653388760232</v>
+        <v>1.2895086942826064</v>
       </c>
       <c r="C9">
-        <v>1.3346979276347248E-3</v>
+        <v>1.4333344131114755E-3</v>
       </c>
       <c r="D9">
-        <v>-8.2859175171225131E-4</v>
+        <v>-7.6456502345577729E-4</v>
       </c>
       <c r="E9">
-        <v>5.3635958143188766E-6</v>
+        <v>4.9596405299146083E-6</v>
       </c>
       <c r="F9">
-        <v>-1.0253303693926962E-3</v>
+        <v>-1.7544367072647796E-3</v>
       </c>
       <c r="G9">
-        <v>-1.4788116209223871E-4</v>
+        <v>-1.9179290433165696E-4</v>
       </c>
       <c r="H9">
-        <v>2.0887681557247122E-4</v>
+        <v>1.019883290175036E-4</v>
       </c>
       <c r="I9">
-        <v>3.6808084250318382E-4</v>
+        <v>2.8199374239040362E-4</v>
       </c>
       <c r="J9">
-        <v>3.1507399026541238E-3</v>
+        <v>3.2526119197627467E-3</v>
       </c>
       <c r="K9">
-        <v>1.0332613004693345E-3</v>
+        <v>1.0854416163122863E-3</v>
       </c>
       <c r="L9">
-        <v>-1.6483015104708208E-3</v>
+        <v>-1.6380337647256874E-3</v>
       </c>
       <c r="M9">
-        <v>-1.1733510661922624E-4</v>
+        <v>-9.6190690552108997E-5</v>
       </c>
       <c r="N9">
-        <v>-9.22689985788476E-5</v>
+        <v>-3.6160612919309892E-4</v>
       </c>
       <c r="O9">
-        <v>-2.1260327115156866E-4</v>
+        <v>-6.5605413015894156E-5</v>
       </c>
       <c r="P9">
-        <v>-8.9171976687216648E-5</v>
+        <v>-1.509165369921831E-4</v>
       </c>
       <c r="Q9">
-        <v>-2.6462855588543863E-4</v>
+        <v>-1.9429136353927477E-4</v>
       </c>
       <c r="R9">
-        <v>4.1422320177780716E-5</v>
+        <v>-1.7539058007589887E-4</v>
       </c>
       <c r="S9">
-        <v>-1.6433334802353405E-4</v>
+        <v>-1.323195016357478E-4</v>
       </c>
       <c r="T9">
-        <v>-1.1569794309044309E-4</v>
+        <v>-2.4617182098494712E-4</v>
       </c>
       <c r="U9">
-        <v>-1.2573853956700633E-4</v>
+        <v>-2.7241963645371989E-4</v>
       </c>
       <c r="V9">
-        <v>1.1393979709583158E-4</v>
+        <v>2.4341988672408471E-4</v>
       </c>
       <c r="W9">
-        <v>-1.8848664681634167E-4</v>
+        <v>-9.9255582211676789E-5</v>
       </c>
       <c r="X9">
-        <v>-7.1783130328159465E-5</v>
+        <v>5.7243262684678921E-7</v>
       </c>
       <c r="Y9">
-        <v>-1.8440971098954758E-4</v>
+        <v>-8.8470684447113784E-5</v>
       </c>
       <c r="Z9">
-        <v>-1.1969556213165542E-4</v>
+        <v>-2.3701643682282818E-4</v>
       </c>
       <c r="AA9">
-        <v>7.5095126262969872E-6</v>
+        <v>-3.4354885130066467E-5</v>
       </c>
       <c r="AB9">
-        <v>2.1033097141816021E-4</v>
+        <v>3.2232468323598051E-4</v>
       </c>
       <c r="AC9">
-        <v>6.2567714335125257E-5</v>
+        <v>3.2174971918415111E-4</v>
       </c>
       <c r="AD9">
-        <v>2.8289164559504396E-2</v>
+        <v>2.6791919175330262E-2</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
@@ -3169,91 +3169,91 @@
         <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>9.5804846078469882E-2</v>
+        <v>7.9993958011896155E-2</v>
       </c>
       <c r="C10">
-        <v>5.4664358556355476E-4</v>
+        <v>5.8201769832119958E-4</v>
       </c>
       <c r="D10">
-        <v>-1.7061898544023547E-5</v>
+        <v>9.4585903253827097E-7</v>
       </c>
       <c r="E10">
-        <v>9.1903810397504912E-8</v>
+        <v>-2.1221418287030967E-8</v>
       </c>
       <c r="F10">
-        <v>-3.476740641038756E-4</v>
+        <v>-7.0873077904449805E-4</v>
       </c>
       <c r="G10">
-        <v>-1.8638502679512326E-4</v>
+        <v>-1.7604567663596828E-4</v>
       </c>
       <c r="H10">
-        <v>-4.2117471181343647E-5</v>
+        <v>-1.3637350589591659E-4</v>
       </c>
       <c r="I10">
-        <v>-5.8494508120468037E-5</v>
+        <v>-1.1529726137831026E-4</v>
       </c>
       <c r="J10">
-        <v>1.0332613004693345E-3</v>
+        <v>1.0854416163122863E-3</v>
       </c>
       <c r="K10">
-        <v>3.1608372114805211E-3</v>
+        <v>2.995343295935887E-3</v>
       </c>
       <c r="L10">
-        <v>-1.9732592215362123E-3</v>
+        <v>-1.9182622919458692E-3</v>
       </c>
       <c r="M10">
-        <v>-7.0793508661842584E-5</v>
+        <v>-4.1915650671086327E-5</v>
       </c>
       <c r="N10">
-        <v>6.4629988027894352E-4</v>
+        <v>4.7182690193440287E-4</v>
       </c>
       <c r="O10">
-        <v>9.7411574311293361E-4</v>
+        <v>9.4841418176039272E-4</v>
       </c>
       <c r="P10">
-        <v>1.1984901732489325E-3</v>
+        <v>1.0725749521502863E-3</v>
       </c>
       <c r="Q10">
-        <v>-1.0856526763974011E-3</v>
+        <v>-1.0106434591382167E-3</v>
       </c>
       <c r="R10">
-        <v>2.4323639828949836E-5</v>
+        <v>-1.0679144080364582E-4</v>
       </c>
       <c r="S10">
-        <v>-1.5724671709430331E-4</v>
+        <v>-5.4679450596076371E-5</v>
       </c>
       <c r="T10">
-        <v>4.7765727717183457E-5</v>
+        <v>-2.6135042648314235E-5</v>
       </c>
       <c r="U10">
-        <v>5.694056206094662E-5</v>
+        <v>-1.1165839284151663E-5</v>
       </c>
       <c r="V10">
-        <v>2.0141542710248146E-4</v>
+        <v>2.4252039609296786E-4</v>
       </c>
       <c r="W10">
-        <v>1.3815953928713936E-5</v>
+        <v>-1.7158304461154829E-5</v>
       </c>
       <c r="X10">
-        <v>3.5756348005295657E-5</v>
+        <v>6.921207913606535E-6</v>
       </c>
       <c r="Y10">
-        <v>-6.0023203406786184E-5</v>
+        <v>-9.7114594806233271E-5</v>
       </c>
       <c r="Z10">
-        <v>1.6855460914886461E-4</v>
+        <v>-1.8405582293781238E-5</v>
       </c>
       <c r="AA10">
-        <v>-9.3892566802275296E-8</v>
+        <v>-1.9006955766936448E-5</v>
       </c>
       <c r="AB10">
-        <v>9.042088054999264E-5</v>
+        <v>1.6086110173334223E-4</v>
       </c>
       <c r="AC10">
-        <v>7.537400832253625E-5</v>
+        <v>2.1000598181414526E-4</v>
       </c>
       <c r="AD10">
-        <v>-1.4798125088662855E-3</v>
+        <v>-1.4886325390575245E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
@@ -3261,91 +3261,91 @@
         <v>26</v>
       </c>
       <c r="B11" s="4">
-        <v>0.13190229554263153</v>
+        <v>0.13223978062491082</v>
       </c>
       <c r="C11">
-        <v>-7.3656800436919804E-5</v>
+        <v>-1.7472697626508277E-4</v>
       </c>
       <c r="D11">
-        <v>1.289951751268217E-4</v>
+        <v>9.9117664961559035E-5</v>
       </c>
       <c r="E11">
-        <v>-1.0548539774290384E-6</v>
+        <v>-8.5209272892361801E-7</v>
       </c>
       <c r="F11">
-        <v>1.3854792932606612E-4</v>
+        <v>5.6605800597719544E-4</v>
       </c>
       <c r="G11">
-        <v>6.9851548307857674E-5</v>
+        <v>8.8560979143958735E-5</v>
       </c>
       <c r="H11">
-        <v>-2.7182128296096163E-4</v>
+        <v>-1.6130356547071659E-4</v>
       </c>
       <c r="I11">
-        <v>-5.0186834866782057E-4</v>
+        <v>-3.9503265002578745E-4</v>
       </c>
       <c r="J11">
-        <v>-1.6483015104708208E-3</v>
+        <v>-1.6380337647256874E-3</v>
       </c>
       <c r="K11">
-        <v>-1.9732592215362123E-3</v>
+        <v>-1.9182622919458692E-3</v>
       </c>
       <c r="L11">
-        <v>3.9887913114319109E-3</v>
+        <v>3.7812162078111533E-3</v>
       </c>
       <c r="M11">
-        <v>1.8329253838197176E-4</v>
+        <v>1.5536206476802952E-4</v>
       </c>
       <c r="N11">
-        <v>5.3891494446617696E-4</v>
+        <v>6.5342764178740863E-4</v>
       </c>
       <c r="O11">
-        <v>4.5473436071641045E-4</v>
+        <v>3.6716989801827658E-4</v>
       </c>
       <c r="P11">
-        <v>5.2765431689125045E-4</v>
+        <v>4.8915918916433434E-4</v>
       </c>
       <c r="Q11">
-        <v>5.553184465427951E-5</v>
+        <v>1.7933353220065243E-5</v>
       </c>
       <c r="R11">
-        <v>-3.7696460200550017E-5</v>
+        <v>1.1439255813779054E-4</v>
       </c>
       <c r="S11">
-        <v>1.199907926688875E-4</v>
+        <v>2.7283814574093957E-5</v>
       </c>
       <c r="T11">
-        <v>2.0436324946345417E-5</v>
+        <v>8.9443821451347459E-5</v>
       </c>
       <c r="U11">
-        <v>1.4767971101231061E-4</v>
+        <v>2.0069615242873694E-4</v>
       </c>
       <c r="V11">
-        <v>-1.8015510939777034E-4</v>
+        <v>-2.5013552785383818E-4</v>
       </c>
       <c r="W11">
-        <v>5.677666780217307E-5</v>
+        <v>3.3362421270361365E-5</v>
       </c>
       <c r="X11">
-        <v>2.7442948895848533E-5</v>
+        <v>7.9866966008777579E-6</v>
       </c>
       <c r="Y11">
-        <v>2.8478988280961157E-5</v>
+        <v>2.3235590198675445E-5</v>
       </c>
       <c r="Z11">
-        <v>9.7969378247829593E-6</v>
+        <v>1.4009585377950783E-4</v>
       </c>
       <c r="AA11">
-        <v>2.7889541507846827E-6</v>
+        <v>2.351986218588519E-5</v>
       </c>
       <c r="AB11">
-        <v>-9.6101898954424701E-5</v>
+        <v>-1.7450713973967118E-4</v>
       </c>
       <c r="AC11">
-        <v>-1.2213115451081662E-4</v>
+        <v>-2.5058153014061862E-4</v>
       </c>
       <c r="AD11">
-        <v>-3.4818456379986946E-3</v>
+        <v>-2.9151590101669615E-3</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
@@ -3353,91 +3353,91 @@
         <v>17</v>
       </c>
       <c r="B12" s="4">
-        <v>3.1400253814032268E-2</v>
+        <v>8.2979261003069266E-3</v>
       </c>
       <c r="C12">
-        <v>-1.1945490931137035E-4</v>
+        <v>-1.0598238338953922E-4</v>
       </c>
       <c r="D12">
-        <v>-4.0398912049673281E-5</v>
+        <v>-2.7440640576018548E-5</v>
       </c>
       <c r="E12">
-        <v>2.6039905097843637E-7</v>
+        <v>1.6120274185067257E-7</v>
       </c>
       <c r="F12">
-        <v>1.2036061051109981E-4</v>
+        <v>9.9240079141970435E-5</v>
       </c>
       <c r="G12">
-        <v>1.1474574958697916E-4</v>
+        <v>9.4440222765384044E-5</v>
       </c>
       <c r="H12">
-        <v>1.0400160737753571E-4</v>
+        <v>8.8336708688888921E-5</v>
       </c>
       <c r="I12">
-        <v>1.0385968745520916E-4</v>
+        <v>9.4763674631219487E-5</v>
       </c>
       <c r="J12">
-        <v>-1.1733510661922624E-4</v>
+        <v>-9.6190690552108997E-5</v>
       </c>
       <c r="K12">
-        <v>-7.0793508661842584E-5</v>
+        <v>-4.1915650671086327E-5</v>
       </c>
       <c r="L12">
-        <v>1.8329253838197176E-4</v>
+        <v>1.5536206476802952E-4</v>
       </c>
       <c r="M12">
-        <v>3.6766435673826858E-3</v>
+        <v>3.6090238425499042E-3</v>
       </c>
       <c r="N12">
-        <v>1.9264224707409815E-3</v>
+        <v>1.8917471726779917E-3</v>
       </c>
       <c r="O12">
-        <v>1.932190015930507E-3</v>
+        <v>1.9072554478237133E-3</v>
       </c>
       <c r="P12">
-        <v>1.9877112034514207E-3</v>
+        <v>1.9585514335853254E-3</v>
       </c>
       <c r="Q12">
-        <v>-8.6045085979662457E-5</v>
+        <v>-7.3059785904031055E-5</v>
       </c>
       <c r="R12">
-        <v>1.3068222682406308E-4</v>
+        <v>1.0997341996359145E-4</v>
       </c>
       <c r="S12">
-        <v>1.7261480280003128E-5</v>
+        <v>1.5171397537326014E-5</v>
       </c>
       <c r="T12">
-        <v>7.7525586923886961E-5</v>
+        <v>7.0228643840069196E-5</v>
       </c>
       <c r="U12">
-        <v>3.5728549538109009E-5</v>
+        <v>4.558927174047966E-5</v>
       </c>
       <c r="V12">
-        <v>7.3004716322148815E-6</v>
+        <v>1.1882944242108997E-5</v>
       </c>
       <c r="W12">
-        <v>6.3690751866836607E-5</v>
+        <v>5.8706372003354665E-5</v>
       </c>
       <c r="X12">
-        <v>-7.7511952547065622E-5</v>
+        <v>-5.848259982244814E-5</v>
       </c>
       <c r="Y12">
-        <v>9.7432355254204687E-5</v>
+        <v>9.190594323640689E-5</v>
       </c>
       <c r="Z12">
-        <v>9.7359359236362121E-5</v>
+        <v>8.2246656586812208E-5</v>
       </c>
       <c r="AA12">
-        <v>-1.3451182783617916E-6</v>
+        <v>-1.8613485823371137E-6</v>
       </c>
       <c r="AB12">
-        <v>5.6438593401842479E-5</v>
+        <v>5.3051461264878416E-5</v>
       </c>
       <c r="AC12">
-        <v>3.1738115555601986E-5</v>
+        <v>3.6524291445780403E-5</v>
       </c>
       <c r="AD12">
-        <v>-5.5607806808546446E-4</v>
+        <v>-9.3416955262896407E-4</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
@@ -3445,91 +3445,91 @@
         <v>18</v>
       </c>
       <c r="B13" s="4">
-        <v>6.1665491976496623E-2</v>
+        <v>5.5974546324766977E-2</v>
       </c>
       <c r="C13">
-        <v>-2.2684754990251018E-4</v>
+        <v>-3.2421178064628056E-4</v>
       </c>
       <c r="D13">
-        <v>-2.4575211523787405E-4</v>
+        <v>-1.5185173199025459E-4</v>
       </c>
       <c r="E13">
-        <v>1.9961524487383281E-6</v>
+        <v>1.2854223154350354E-6</v>
       </c>
       <c r="F13">
-        <v>-9.6967926467986308E-6</v>
+        <v>3.5020524910467105E-4</v>
       </c>
       <c r="G13">
-        <v>6.226835452904228E-5</v>
+        <v>6.7559487316326636E-5</v>
       </c>
       <c r="H13">
-        <v>1.6029545366976939E-4</v>
+        <v>1.2361716804417107E-4</v>
       </c>
       <c r="I13">
-        <v>2.5198381362907232E-4</v>
+        <v>1.8987062602167484E-4</v>
       </c>
       <c r="J13">
-        <v>-9.22689985788476E-5</v>
+        <v>-3.6160612919309892E-4</v>
       </c>
       <c r="K13">
-        <v>6.4629988027894352E-4</v>
+        <v>4.7182690193440287E-4</v>
       </c>
       <c r="L13">
-        <v>5.3891494446617696E-4</v>
+        <v>6.5342764178740863E-4</v>
       </c>
       <c r="M13">
-        <v>1.9264224707409815E-3</v>
+        <v>1.8917471726779917E-3</v>
       </c>
       <c r="N13">
-        <v>3.6176631496839216E-3</v>
+        <v>3.5293042739493667E-3</v>
       </c>
       <c r="O13">
-        <v>3.126127422753359E-3</v>
+        <v>2.9485803790894193E-3</v>
       </c>
       <c r="P13">
-        <v>3.4235377933323698E-3</v>
+        <v>3.2564690781601755E-3</v>
       </c>
       <c r="Q13">
-        <v>1.027688666151533E-4</v>
+        <v>7.2353818321076107E-5</v>
       </c>
       <c r="R13">
-        <v>1.3848170123920505E-4</v>
+        <v>2.0693843517814562E-4</v>
       </c>
       <c r="S13">
-        <v>-2.0614986370736142E-4</v>
+        <v>-1.8220764828616188E-4</v>
       </c>
       <c r="T13">
-        <v>-9.9132348560489674E-5</v>
+        <v>-4.9566238101488483E-5</v>
       </c>
       <c r="U13">
-        <v>6.3704253461629794E-4</v>
+        <v>6.2801061833890018E-4</v>
       </c>
       <c r="V13">
-        <v>-2.1798984252324871E-4</v>
+        <v>-2.6970514440185752E-4</v>
       </c>
       <c r="W13">
-        <v>-1.2052260892515515E-4</v>
+        <v>-1.1406301577190095E-4</v>
       </c>
       <c r="X13">
-        <v>-3.7904350000199935E-4</v>
+        <v>-3.4266100819235713E-4</v>
       </c>
       <c r="Y13">
-        <v>-1.6707375004891201E-4</v>
+        <v>-1.6320484686426474E-4</v>
       </c>
       <c r="Z13">
-        <v>3.2286317383788625E-5</v>
+        <v>7.30046122418212E-5</v>
       </c>
       <c r="AA13">
-        <v>-5.883299305443019E-6</v>
+        <v>1.2213572819311466E-5</v>
       </c>
       <c r="AB13">
-        <v>4.7842798898285003E-5</v>
+        <v>-5.0480222038985252E-5</v>
       </c>
       <c r="AC13">
-        <v>-2.4905292108071296E-5</v>
+        <v>-1.4669476305043992E-4</v>
       </c>
       <c r="AD13">
-        <v>4.06192954059891E-3</v>
+        <v>1.0271345560211747E-3</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
@@ -3537,91 +3537,91 @@
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>6.5234702661796859E-2</v>
+        <v>5.713665661729727E-2</v>
       </c>
       <c r="C14">
-        <v>-3.4075982836438804E-4</v>
+        <v>-2.0983155588325908E-4</v>
       </c>
       <c r="D14">
-        <v>-3.2473227312822955E-5</v>
+        <v>-9.5596832627227349E-5</v>
       </c>
       <c r="E14">
-        <v>4.8732222499458833E-7</v>
+        <v>9.3290036390889064E-7</v>
       </c>
       <c r="F14">
-        <v>6.7701017060305731E-5</v>
+        <v>-1.0455658193429487E-4</v>
       </c>
       <c r="G14">
-        <v>9.891392417514305E-5</v>
+        <v>7.4737322727571148E-5</v>
       </c>
       <c r="H14">
-        <v>4.050099933091577E-4</v>
+        <v>3.0268690630423211E-4</v>
       </c>
       <c r="I14">
-        <v>5.9804238848411967E-4</v>
+        <v>4.9463674912620216E-4</v>
       </c>
       <c r="J14">
-        <v>-2.1260327115156866E-4</v>
+        <v>-6.5605413015894156E-5</v>
       </c>
       <c r="K14">
-        <v>9.7411574311293361E-4</v>
+        <v>9.4841418176039272E-4</v>
       </c>
       <c r="L14">
-        <v>4.5473436071641045E-4</v>
+        <v>3.6716989801827658E-4</v>
       </c>
       <c r="M14">
-        <v>1.932190015930507E-3</v>
+        <v>1.9072554478237133E-3</v>
       </c>
       <c r="N14">
-        <v>3.126127422753359E-3</v>
+        <v>2.9485803790894193E-3</v>
       </c>
       <c r="O14">
-        <v>4.5463526666117615E-3</v>
+        <v>4.1981566897571054E-3</v>
       </c>
       <c r="P14">
-        <v>3.9506942748472659E-3</v>
+        <v>3.7075893818901778E-3</v>
       </c>
       <c r="Q14">
-        <v>1.9575983388072995E-4</v>
+        <v>1.5846772047639455E-4</v>
       </c>
       <c r="R14">
-        <v>1.0439753731182521E-4</v>
+        <v>6.0468036211832345E-5</v>
       </c>
       <c r="S14">
-        <v>-2.8320639648721083E-4</v>
+        <v>-1.9320837066656824E-4</v>
       </c>
       <c r="T14">
-        <v>-1.3652373681698134E-4</v>
+        <v>-8.5893438060492868E-5</v>
       </c>
       <c r="U14">
-        <v>7.9372050292902236E-4</v>
+        <v>6.559901005875967E-4</v>
       </c>
       <c r="V14">
-        <v>-1.5187702162030301E-4</v>
+        <v>-1.1971320635747577E-4</v>
       </c>
       <c r="W14">
-        <v>-3.3263944891970951E-5</v>
+        <v>-4.1705962644330644E-5</v>
       </c>
       <c r="X14">
-        <v>-3.7603791272367221E-4</v>
+        <v>-3.3572535816878905E-4</v>
       </c>
       <c r="Y14">
-        <v>-1.3266572451699844E-4</v>
+        <v>-1.3064646822236504E-4</v>
       </c>
       <c r="Z14">
-        <v>1.2545141075769387E-4</v>
+        <v>6.103160377827963E-5</v>
       </c>
       <c r="AA14">
-        <v>4.3408715528034357E-6</v>
+        <v>-6.7215733700893941E-6</v>
       </c>
       <c r="AB14">
-        <v>-4.053804781635901E-6</v>
+        <v>4.664616439460115E-5</v>
       </c>
       <c r="AC14">
-        <v>-1.3827189038713867E-4</v>
+        <v>-5.1681169110135924E-5</v>
       </c>
       <c r="AD14">
-        <v>-4.1530341371285636E-3</v>
+        <v>-1.5030337911851382E-3</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
@@ -3629,91 +3629,91 @@
         <v>20</v>
       </c>
       <c r="B15" s="4">
-        <v>-2.522766883252062E-2</v>
+        <v>-4.8783911622783151E-2</v>
       </c>
       <c r="C15">
-        <v>-3.2916046473410157E-5</v>
+        <v>-1.1171967814567695E-4</v>
       </c>
       <c r="D15">
-        <v>-2.2064422740607041E-4</v>
+        <v>-1.3902028479349663E-4</v>
       </c>
       <c r="E15">
-        <v>1.8873349193993843E-6</v>
+        <v>1.2791728390481435E-6</v>
       </c>
       <c r="F15">
-        <v>-2.173540987021555E-4</v>
+        <v>-1.5422155624574685E-4</v>
       </c>
       <c r="G15">
-        <v>-5.7848382370353471E-5</v>
+        <v>-7.534088914274502E-6</v>
       </c>
       <c r="H15">
-        <v>9.6895025851312605E-4</v>
+        <v>7.3390649258686961E-4</v>
       </c>
       <c r="I15">
-        <v>1.2908010553483462E-3</v>
+        <v>1.0542995877709854E-3</v>
       </c>
       <c r="J15">
-        <v>-8.9171976687216648E-5</v>
+        <v>-1.509165369921831E-4</v>
       </c>
       <c r="K15">
-        <v>1.1984901732489325E-3</v>
+        <v>1.0725749521502863E-3</v>
       </c>
       <c r="L15">
-        <v>5.2765431689125045E-4</v>
+        <v>4.8915918916433434E-4</v>
       </c>
       <c r="M15">
-        <v>1.9877112034514207E-3</v>
+        <v>1.9585514335853254E-3</v>
       </c>
       <c r="N15">
-        <v>3.4235377933323698E-3</v>
+        <v>3.2564690781601755E-3</v>
       </c>
       <c r="O15">
-        <v>3.9506942748472659E-3</v>
+        <v>3.7075893818901778E-3</v>
       </c>
       <c r="P15">
-        <v>5.5762579001822432E-3</v>
+        <v>5.1029986213978152E-3</v>
       </c>
       <c r="Q15">
-        <v>1.8583018960906342E-4</v>
+        <v>1.7654115088536662E-4</v>
       </c>
       <c r="R15">
-        <v>1.248284451830166E-4</v>
+        <v>9.2818083717914387E-5</v>
       </c>
       <c r="S15">
-        <v>-1.9871271103466981E-4</v>
+        <v>-1.7929022879356845E-4</v>
       </c>
       <c r="T15">
-        <v>-6.4896189554699868E-5</v>
+        <v>6.5427083993441297E-6</v>
       </c>
       <c r="U15">
-        <v>1.0930475459618608E-3</v>
+        <v>9.4642507874961727E-4</v>
       </c>
       <c r="V15">
-        <v>2.2694625826732989E-5</v>
+        <v>-9.6309731293083166E-6</v>
       </c>
       <c r="W15">
-        <v>-5.375320057457683E-5</v>
+        <v>-1.1110473511152453E-4</v>
       </c>
       <c r="X15">
-        <v>-2.0290783879375979E-4</v>
+        <v>-2.7546744608097879E-4</v>
       </c>
       <c r="Y15">
-        <v>-7.8723408202364324E-5</v>
+        <v>-1.4443453478243015E-4</v>
       </c>
       <c r="Z15">
-        <v>1.6495382335241166E-4</v>
+        <v>2.2957341918358983E-5</v>
       </c>
       <c r="AA15">
-        <v>1.321860000002212E-5</v>
+        <v>3.4330402264518938E-6</v>
       </c>
       <c r="AB15">
-        <v>1.9598134068997235E-5</v>
+        <v>8.3259101799032945E-5</v>
       </c>
       <c r="AC15">
-        <v>-1.1221497851073562E-4</v>
+        <v>-4.8012866210581528E-5</v>
       </c>
       <c r="AD15">
-        <v>5.4168730659966157E-4</v>
+        <v>-1.2930376256462804E-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
@@ -3721,91 +3721,91 @@
         <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>-7.6537362366442985E-2</v>
+        <v>-8.0941970740667959E-2</v>
       </c>
       <c r="C16">
-        <v>-6.4864614223925175E-4</v>
+        <v>-5.3800566034262556E-4</v>
       </c>
       <c r="D16">
-        <v>-2.690762011121361E-4</v>
+        <v>-2.234659537241924E-4</v>
       </c>
       <c r="E16">
-        <v>2.190447376197419E-6</v>
+        <v>1.8454807501943858E-6</v>
       </c>
       <c r="F16">
-        <v>1.4676234036893078E-4</v>
+        <v>5.9349516997347979E-5</v>
       </c>
       <c r="G16">
-        <v>4.6274857418761436E-5</v>
+        <v>2.9485245123905203E-5</v>
       </c>
       <c r="H16">
-        <v>6.5824712246610186E-5</v>
+        <v>7.5145726585203963E-5</v>
       </c>
       <c r="I16">
-        <v>2.3202056378522314E-4</v>
+        <v>2.3912161588622038E-4</v>
       </c>
       <c r="J16">
-        <v>-2.6462855588543863E-4</v>
+        <v>-1.9429136353927477E-4</v>
       </c>
       <c r="K16">
-        <v>-1.0856526763974011E-3</v>
+        <v>-1.0106434591382167E-3</v>
       </c>
       <c r="L16">
-        <v>5.553184465427951E-5</v>
+        <v>1.7933353220065243E-5</v>
       </c>
       <c r="M16">
-        <v>-8.6045085979662457E-5</v>
+        <v>-7.3059785904031055E-5</v>
       </c>
       <c r="N16">
-        <v>1.027688666151533E-4</v>
+        <v>7.2353818321076107E-5</v>
       </c>
       <c r="O16">
-        <v>1.9575983388072995E-4</v>
+        <v>1.5846772047639455E-4</v>
       </c>
       <c r="P16">
-        <v>1.8583018960906342E-4</v>
+        <v>1.7654115088536662E-4</v>
       </c>
       <c r="Q16">
-        <v>2.4546922188595972E-3</v>
+        <v>2.3363076028689251E-3</v>
       </c>
       <c r="R16">
-        <v>2.096441018017048E-5</v>
+        <v>-6.5462926223466432E-6</v>
       </c>
       <c r="S16">
-        <v>-8.3820428580042082E-5</v>
+        <v>-8.3977818949783421E-5</v>
       </c>
       <c r="T16">
-        <v>-1.8957603577217646E-4</v>
+        <v>-1.3337655526353181E-4</v>
       </c>
       <c r="U16">
-        <v>1.287945913820404E-4</v>
+        <v>1.104315907786309E-4</v>
       </c>
       <c r="V16">
-        <v>-1.4051068303962101E-4</v>
+        <v>-1.020519664954822E-4</v>
       </c>
       <c r="W16">
-        <v>-8.0009568975215385E-5</v>
+        <v>-5.653202421927999E-5</v>
       </c>
       <c r="X16">
-        <v>-5.8015759805530795E-5</v>
+        <v>-3.7911758061467884E-5</v>
       </c>
       <c r="Y16">
-        <v>1.7169893151604363E-5</v>
+        <v>3.0437751538011097E-5</v>
       </c>
       <c r="Z16">
-        <v>-8.0146747705291739E-5</v>
+        <v>-6.8374622187699616E-5</v>
       </c>
       <c r="AA16">
-        <v>1.6110497326314523E-5</v>
+        <v>1.1067812563149952E-5</v>
       </c>
       <c r="AB16">
-        <v>-6.0726219862523682E-5</v>
+        <v>-2.5378545422404235E-5</v>
       </c>
       <c r="AC16">
-        <v>-6.796368317117012E-5</v>
+        <v>-3.3332294734626962E-5</v>
       </c>
       <c r="AD16">
-        <v>8.2214206895028508E-3</v>
+        <v>6.7264183222607741E-3</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.45">
@@ -3813,91 +3813,91 @@
         <v>27</v>
       </c>
       <c r="B17" s="4">
-        <v>-5.0044485788388646E-2</v>
+        <v>-3.4997827709622349E-3</v>
       </c>
       <c r="C17">
-        <v>-1.9215348374986241E-4</v>
+        <v>-2.478741427454379E-4</v>
       </c>
       <c r="D17">
-        <v>-1.9368503058245917E-4</v>
+        <v>-1.5469338216407731E-4</v>
       </c>
       <c r="E17">
-        <v>8.3661011585772771E-7</v>
+        <v>6.0771688077465181E-7</v>
       </c>
       <c r="F17">
-        <v>-4.4641219092691684E-5</v>
+        <v>3.1993894182171672E-4</v>
       </c>
       <c r="G17">
-        <v>-3.9375605330825743E-5</v>
+        <v>-1.2588479992685689E-5</v>
       </c>
       <c r="H17">
-        <v>6.880714383995669E-5</v>
+        <v>8.377904535069378E-5</v>
       </c>
       <c r="I17">
-        <v>1.0758941910364865E-4</v>
+        <v>8.1584044476632728E-5</v>
       </c>
       <c r="J17">
-        <v>4.1422320177780716E-5</v>
+        <v>-1.7539058007589887E-4</v>
       </c>
       <c r="K17">
-        <v>2.4323639828949836E-5</v>
+        <v>-1.0679144080364582E-4</v>
       </c>
       <c r="L17">
-        <v>-3.7696460200550017E-5</v>
+        <v>1.1439255813779054E-4</v>
       </c>
       <c r="M17">
-        <v>1.3068222682406308E-4</v>
+        <v>1.0997341996359145E-4</v>
       </c>
       <c r="N17">
-        <v>1.3848170123920505E-4</v>
+        <v>2.0693843517814562E-4</v>
       </c>
       <c r="O17">
-        <v>1.0439753731182521E-4</v>
+        <v>6.0468036211832345E-5</v>
       </c>
       <c r="P17">
-        <v>1.248284451830166E-4</v>
+        <v>9.2818083717914387E-5</v>
       </c>
       <c r="Q17">
-        <v>2.096441018017048E-5</v>
+        <v>-6.5462926223466432E-6</v>
       </c>
       <c r="R17">
-        <v>1.6747042168053527E-3</v>
+        <v>1.5762753051083414E-3</v>
       </c>
       <c r="S17">
-        <v>-3.6686261525962252E-4</v>
+        <v>-3.300726887807354E-4</v>
       </c>
       <c r="T17">
-        <v>-1.6905251795315014E-4</v>
+        <v>-1.4874567519345701E-4</v>
       </c>
       <c r="U17">
-        <v>-4.4685582306657357E-4</v>
+        <v>-3.7487864741313681E-4</v>
       </c>
       <c r="V17">
-        <v>3.3774909840198375E-4</v>
+        <v>2.4100651304006658E-4</v>
       </c>
       <c r="W17">
-        <v>6.8438386275748025E-6</v>
+        <v>-1.3436179327516295E-5</v>
       </c>
       <c r="X17">
-        <v>1.4647613672552455E-5</v>
+        <v>-1.7528105067789862E-5</v>
       </c>
       <c r="Y17">
-        <v>2.9177626024552315E-5</v>
+        <v>-5.7590483616071827E-6</v>
       </c>
       <c r="Z17">
-        <v>1.1600401186374768E-5</v>
+        <v>7.1078295700124135E-5</v>
       </c>
       <c r="AA17">
-        <v>-1.3251658380575914E-5</v>
+        <v>6.7695233030124434E-6</v>
       </c>
       <c r="AB17">
-        <v>-4.019690382143018E-5</v>
+        <v>-1.4001522593270403E-4</v>
       </c>
       <c r="AC17">
-        <v>-2.3239041850958014E-5</v>
+        <v>-1.5266083285691602E-4</v>
       </c>
       <c r="AD17">
-        <v>8.3880985039023089E-3</v>
+        <v>6.6769879789826108E-3</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.45">
@@ -3905,91 +3905,91 @@
         <v>37</v>
       </c>
       <c r="B18" s="4">
-        <v>0.1668141209361827</v>
+        <v>0.15366683427594111</v>
       </c>
       <c r="C18">
-        <v>7.152169098655185E-4</v>
+        <v>6.1427279594138432E-4</v>
       </c>
       <c r="D18">
-        <v>-3.274704188904274E-4</v>
+        <v>-3.3067803239834187E-4</v>
       </c>
       <c r="E18">
-        <v>2.8769056127447859E-6</v>
+        <v>2.8590179296312574E-6</v>
       </c>
       <c r="F18">
-        <v>1.0040336223996718E-4</v>
+        <v>8.9292672279733115E-5</v>
       </c>
       <c r="G18">
-        <v>7.3359991380996881E-5</v>
+        <v>7.9950505298631352E-5</v>
       </c>
       <c r="H18">
-        <v>6.457950495068575E-5</v>
+        <v>5.1155609454321436E-5</v>
       </c>
       <c r="I18">
-        <v>2.519553193163648E-6</v>
+        <v>-1.5212372795215422E-5</v>
       </c>
       <c r="J18">
-        <v>-1.6433334802353405E-4</v>
+        <v>-1.323195016357478E-4</v>
       </c>
       <c r="K18">
-        <v>-1.5724671709430331E-4</v>
+        <v>-5.4679450596076371E-5</v>
       </c>
       <c r="L18">
-        <v>1.199907926688875E-4</v>
+        <v>2.7283814574093957E-5</v>
       </c>
       <c r="M18">
-        <v>1.7261480280003128E-5</v>
+        <v>1.5171397537326014E-5</v>
       </c>
       <c r="N18">
-        <v>-2.0614986370736142E-4</v>
+        <v>-1.8220764828616188E-4</v>
       </c>
       <c r="O18">
-        <v>-2.8320639648721083E-4</v>
+        <v>-1.9320837066656824E-4</v>
       </c>
       <c r="P18">
-        <v>-1.9871271103466981E-4</v>
+        <v>-1.7929022879356845E-4</v>
       </c>
       <c r="Q18">
-        <v>-8.3820428580042082E-5</v>
+        <v>-8.3977818949783421E-5</v>
       </c>
       <c r="R18">
-        <v>-3.6686261525962252E-4</v>
+        <v>-3.300726887807354E-4</v>
       </c>
       <c r="S18">
-        <v>4.246380385085141E-3</v>
+        <v>3.8173349384536003E-3</v>
       </c>
       <c r="T18">
-        <v>8.2946948098566254E-4</v>
+        <v>7.4371893374084082E-4</v>
       </c>
       <c r="U18">
-        <v>1.3033232868109171E-4</v>
+        <v>1.0923277628792426E-4</v>
       </c>
       <c r="V18">
-        <v>-9.2914376061402544E-5</v>
+        <v>-9.1522287950639809E-5</v>
       </c>
       <c r="W18">
-        <v>3.1056584944640911E-5</v>
+        <v>-7.0630198159846516E-6</v>
       </c>
       <c r="X18">
-        <v>5.6220150052026089E-5</v>
+        <v>1.1910474475766686E-5</v>
       </c>
       <c r="Y18">
-        <v>1.1410848532865522E-4</v>
+        <v>5.8663311544334198E-5</v>
       </c>
       <c r="Z18">
-        <v>8.4517338890181966E-5</v>
+        <v>3.4770534328209656E-5</v>
       </c>
       <c r="AA18">
-        <v>-3.5651052120841729E-6</v>
+        <v>-5.8638096900432519E-6</v>
       </c>
       <c r="AB18">
-        <v>-2.1327045118989078E-5</v>
+        <v>-3.8233516207175893E-5</v>
       </c>
       <c r="AC18">
-        <v>-4.8497688590319089E-5</v>
+        <v>-2.0782078275869732E-5</v>
       </c>
       <c r="AD18">
-        <v>8.8046943887240981E-3</v>
+        <v>9.1862895541709351E-3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.45">
@@ -3997,91 +3997,91 @@
         <v>38</v>
       </c>
       <c r="B19" s="4">
-        <v>0.13598328913646732</v>
+        <v>0.1246558894631655</v>
       </c>
       <c r="C19">
-        <v>7.0748871991933241E-4</v>
+        <v>5.5466772504872257E-4</v>
       </c>
       <c r="D19">
-        <v>-3.5472592236630678E-4</v>
+        <v>-3.3319941634982501E-4</v>
       </c>
       <c r="E19">
-        <v>3.0064943041682398E-6</v>
+        <v>2.8419259205187364E-6</v>
       </c>
       <c r="F19">
-        <v>1.335601824071983E-4</v>
+        <v>2.0840183636636764E-4</v>
       </c>
       <c r="G19">
-        <v>8.7139043202751239E-5</v>
+        <v>9.3875974443845159E-5</v>
       </c>
       <c r="H19">
-        <v>-4.602506740524368E-5</v>
+        <v>-2.0183261454045854E-7</v>
       </c>
       <c r="I19">
-        <v>-8.4295317165667826E-5</v>
+        <v>-6.2221392322220134E-5</v>
       </c>
       <c r="J19">
-        <v>-1.1569794309044309E-4</v>
+        <v>-2.4617182098494712E-4</v>
       </c>
       <c r="K19">
-        <v>4.7765727717183457E-5</v>
+        <v>-2.6135042648314235E-5</v>
       </c>
       <c r="L19">
-        <v>2.0436324946345417E-5</v>
+        <v>8.9443821451347459E-5</v>
       </c>
       <c r="M19">
-        <v>7.7525586923886961E-5</v>
+        <v>7.0228643840069196E-5</v>
       </c>
       <c r="N19">
-        <v>-9.9132348560489674E-5</v>
+        <v>-4.9566238101488483E-5</v>
       </c>
       <c r="O19">
-        <v>-1.3652373681698134E-4</v>
+        <v>-8.5893438060492868E-5</v>
       </c>
       <c r="P19">
-        <v>-6.4896189554699868E-5</v>
+        <v>6.5427083993441297E-6</v>
       </c>
       <c r="Q19">
-        <v>-1.8957603577217646E-4</v>
+        <v>-1.3337655526353181E-4</v>
       </c>
       <c r="R19">
-        <v>-1.6905251795315014E-4</v>
+        <v>-1.4874567519345701E-4</v>
       </c>
       <c r="S19">
-        <v>8.2946948098566254E-4</v>
+        <v>7.4371893374084082E-4</v>
       </c>
       <c r="T19">
-        <v>3.7140291863548324E-3</v>
+        <v>3.4936607476696757E-3</v>
       </c>
       <c r="U19">
-        <v>-1.4454141001601028E-5</v>
+        <v>4.8423944443180692E-5</v>
       </c>
       <c r="V19">
-        <v>-4.6104830267748803E-5</v>
+        <v>-8.7184348245534973E-5</v>
       </c>
       <c r="W19">
-        <v>4.5883356893960166E-5</v>
+        <v>-3.2975212339121738E-5</v>
       </c>
       <c r="X19">
-        <v>-2.6121354569969999E-5</v>
+        <v>-9.5141647576126921E-5</v>
       </c>
       <c r="Y19">
-        <v>1.3830675008246179E-5</v>
+        <v>-6.7065280275297595E-5</v>
       </c>
       <c r="Z19">
-        <v>9.9814271947077206E-6</v>
+        <v>-4.8973262859037061E-5</v>
       </c>
       <c r="AA19">
-        <v>-2.8111578916397827E-6</v>
+        <v>-4.8937315467659898E-6</v>
       </c>
       <c r="AB19">
-        <v>6.4328062494123373E-5</v>
+        <v>7.3534887910118359E-5</v>
       </c>
       <c r="AC19">
-        <v>1.181050903408384E-4</v>
+        <v>1.0589810000322369E-4</v>
       </c>
       <c r="AD19">
-        <v>9.917673602330257E-3</v>
+        <v>9.3784556867295976E-3</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.45">
@@ -4089,91 +4089,91 @@
         <v>28</v>
       </c>
       <c r="B20" s="4">
-        <v>9.6569028734105999E-2</v>
+        <v>9.091129616241489E-2</v>
       </c>
       <c r="C20">
-        <v>-9.4018786993695059E-5</v>
+        <v>-1.5677121331265714E-4</v>
       </c>
       <c r="D20">
-        <v>-8.5601786893998999E-5</v>
+        <v>-2.3659332545406669E-5</v>
       </c>
       <c r="E20">
-        <v>7.016464870789773E-7</v>
+        <v>2.3564734219994542E-7</v>
       </c>
       <c r="F20">
-        <v>-4.4506262107149933E-5</v>
+        <v>1.6147596058271744E-4</v>
       </c>
       <c r="G20">
-        <v>7.2355979688566892E-6</v>
+        <v>5.9134027520987842E-6</v>
       </c>
       <c r="H20">
-        <v>1.3397700126094786E-4</v>
+        <v>7.2011266837547594E-5</v>
       </c>
       <c r="I20">
-        <v>1.2427969160666797E-4</v>
+        <v>3.9574644989513578E-5</v>
       </c>
       <c r="J20">
-        <v>-1.2573853956700633E-4</v>
+        <v>-2.7241963645371989E-4</v>
       </c>
       <c r="K20">
-        <v>5.694056206094662E-5</v>
+        <v>-1.1165839284151663E-5</v>
       </c>
       <c r="L20">
-        <v>1.4767971101231061E-4</v>
+        <v>2.0069615242873694E-4</v>
       </c>
       <c r="M20">
-        <v>3.5728549538109009E-5</v>
+        <v>4.558927174047966E-5</v>
       </c>
       <c r="N20">
-        <v>6.3704253461629794E-4</v>
+        <v>6.2801061833890018E-4</v>
       </c>
       <c r="O20">
-        <v>7.9372050292902236E-4</v>
+        <v>6.559901005875967E-4</v>
       </c>
       <c r="P20">
-        <v>1.0930475459618608E-3</v>
+        <v>9.4642507874961727E-4</v>
       </c>
       <c r="Q20">
-        <v>1.287945913820404E-4</v>
+        <v>1.104315907786309E-4</v>
       </c>
       <c r="R20">
-        <v>-4.4685582306657357E-4</v>
+        <v>-3.7487864741313681E-4</v>
       </c>
       <c r="S20">
-        <v>1.3033232868109171E-4</v>
+        <v>1.0923277628792426E-4</v>
       </c>
       <c r="T20">
-        <v>-1.4454141001601028E-5</v>
+        <v>4.8423944443180692E-5</v>
       </c>
       <c r="U20">
-        <v>1.5903454197261496E-3</v>
+        <v>1.4350014054332675E-3</v>
       </c>
       <c r="V20">
-        <v>-7.0317947126415494E-4</v>
+        <v>-6.8631139953777244E-4</v>
       </c>
       <c r="W20">
-        <v>-1.3243169171963152E-4</v>
+        <v>-1.1028045464205345E-4</v>
       </c>
       <c r="X20">
-        <v>-2.1374946962131024E-4</v>
+        <v>-1.6557649409661791E-4</v>
       </c>
       <c r="Y20">
-        <v>-1.2023721632831722E-4</v>
+        <v>-1.0101514991632649E-4</v>
       </c>
       <c r="Z20">
-        <v>1.0337981996922858E-4</v>
+        <v>1.1873078140548151E-4</v>
       </c>
       <c r="AA20">
-        <v>1.0302552885721844E-5</v>
+        <v>2.2494318755295086E-5</v>
       </c>
       <c r="AB20">
-        <v>7.3328544476929146E-6</v>
+        <v>-4.3729037356283378E-5</v>
       </c>
       <c r="AC20">
-        <v>-3.0127687701478193E-5</v>
+        <v>-1.0870711282057795E-4</v>
       </c>
       <c r="AD20">
-        <v>1.0770164195535227E-3</v>
+        <v>-8.6221236392767684E-4</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.45">
@@ -4181,91 +4181,91 @@
         <v>29</v>
       </c>
       <c r="B21" s="4">
-        <v>5.552468844137879E-2</v>
+        <v>4.7885198829616442E-2</v>
       </c>
       <c r="C21">
-        <v>1.2315586087774356E-4</v>
+        <v>1.5920863486497524E-4</v>
       </c>
       <c r="D21">
-        <v>-4.5335928127530206E-6</v>
+        <v>-2.3546741053537268E-5</v>
       </c>
       <c r="E21">
-        <v>1.4171235038341705E-7</v>
+        <v>2.7838880913184927E-7</v>
       </c>
       <c r="F21">
-        <v>-2.1757922856644688E-5</v>
+        <v>-2.2830257504989106E-4</v>
       </c>
       <c r="G21">
-        <v>-5.7542139594381463E-5</v>
+        <v>-4.4511162789488169E-5</v>
       </c>
       <c r="H21">
-        <v>8.9595977054581906E-5</v>
+        <v>5.3218873450096299E-5</v>
       </c>
       <c r="I21">
-        <v>5.6267233014376113E-5</v>
+        <v>4.6968887024939274E-5</v>
       </c>
       <c r="J21">
-        <v>1.1393979709583158E-4</v>
+        <v>2.4341988672408471E-4</v>
       </c>
       <c r="K21">
-        <v>2.0141542710248146E-4</v>
+        <v>2.4252039609296786E-4</v>
       </c>
       <c r="L21">
-        <v>-1.8015510939777034E-4</v>
+        <v>-2.5013552785383818E-4</v>
       </c>
       <c r="M21">
-        <v>7.3004716322148815E-6</v>
+        <v>1.1882944242108997E-5</v>
       </c>
       <c r="N21">
-        <v>-2.1798984252324871E-4</v>
+        <v>-2.6970514440185752E-4</v>
       </c>
       <c r="O21">
-        <v>-1.5187702162030301E-4</v>
+        <v>-1.1971320635747577E-4</v>
       </c>
       <c r="P21">
-        <v>2.2694625826732989E-5</v>
+        <v>-9.6309731293083166E-6</v>
       </c>
       <c r="Q21">
-        <v>-1.4051068303962101E-4</v>
+        <v>-1.020519664954822E-4</v>
       </c>
       <c r="R21">
-        <v>3.3774909840198375E-4</v>
+        <v>2.4100651304006658E-4</v>
       </c>
       <c r="S21">
-        <v>-9.2914376061402544E-5</v>
+        <v>-9.1522287950639809E-5</v>
       </c>
       <c r="T21">
-        <v>-4.6104830267748803E-5</v>
+        <v>-8.7184348245534973E-5</v>
       </c>
       <c r="U21">
-        <v>-7.0317947126415494E-4</v>
+        <v>-6.8631139953777244E-4</v>
       </c>
       <c r="V21">
-        <v>2.8428379675893519E-3</v>
+        <v>2.7057287053403761E-3</v>
       </c>
       <c r="W21">
-        <v>7.8298847784035439E-5</v>
+        <v>6.4534245765817788E-5</v>
       </c>
       <c r="X21">
-        <v>2.6929851716091631E-4</v>
+        <v>2.1969469202214807E-4</v>
       </c>
       <c r="Y21">
-        <v>4.7738871756601147E-5</v>
+        <v>2.6249194021832941E-5</v>
       </c>
       <c r="Z21">
-        <v>-3.5395337221875731E-5</v>
+        <v>-9.4380453457757469E-5</v>
       </c>
       <c r="AA21">
-        <v>-9.8188667275766315E-7</v>
+        <v>-1.2115890182293189E-5</v>
       </c>
       <c r="AB21">
-        <v>2.2197477540434989E-5</v>
+        <v>6.8799396829530041E-5</v>
       </c>
       <c r="AC21">
-        <v>6.3866880267276593E-5</v>
+        <v>1.4958669920582524E-4</v>
       </c>
       <c r="AD21">
-        <v>-4.2473761483027513E-4</v>
+        <v>4.4626317628550889E-4</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.45">
@@ -4273,91 +4273,91 @@
         <v>30</v>
       </c>
       <c r="B22" s="4">
-        <v>-8.5088088076488128E-2</v>
+        <v>-0.10356934212609739</v>
       </c>
       <c r="C22">
-        <v>-1.3983304214127269E-4</v>
+        <v>-8.5817286168784275E-5</v>
       </c>
       <c r="D22">
-        <v>1.3067177520545079E-4</v>
+        <v>7.7873862657812376E-5</v>
       </c>
       <c r="E22">
-        <v>-8.1741691621809061E-7</v>
+        <v>-4.7265588234288104E-7</v>
       </c>
       <c r="F22">
-        <v>1.0260984940214067E-4</v>
+        <v>4.5787869085019486E-5</v>
       </c>
       <c r="G22">
-        <v>6.3327368176944836E-5</v>
+        <v>2.5114144440440203E-5</v>
       </c>
       <c r="H22">
-        <v>-2.220870962684447E-5</v>
+        <v>-3.8827624145483763E-5</v>
       </c>
       <c r="I22">
-        <v>-1.6789935325235694E-4</v>
+        <v>-1.6511008231171798E-4</v>
       </c>
       <c r="J22">
-        <v>-1.8848664681634167E-4</v>
+        <v>-9.9255582211676789E-5</v>
       </c>
       <c r="K22">
-        <v>1.3815953928713936E-5</v>
+        <v>-1.7158304461154829E-5</v>
       </c>
       <c r="L22">
-        <v>5.677666780217307E-5</v>
+        <v>3.3362421270361365E-5</v>
       </c>
       <c r="M22">
-        <v>6.3690751866836607E-5</v>
+        <v>5.8706372003354665E-5</v>
       </c>
       <c r="N22">
-        <v>-1.2052260892515515E-4</v>
+        <v>-1.1406301577190095E-4</v>
       </c>
       <c r="O22">
-        <v>-3.3263944891970951E-5</v>
+        <v>-4.1705962644330644E-5</v>
       </c>
       <c r="P22">
-        <v>-5.375320057457683E-5</v>
+        <v>-1.1110473511152453E-4</v>
       </c>
       <c r="Q22">
-        <v>-8.0009568975215385E-5</v>
+        <v>-5.653202421927999E-5</v>
       </c>
       <c r="R22">
-        <v>6.8438386275748025E-6</v>
+        <v>-1.3436179327516295E-5</v>
       </c>
       <c r="S22">
-        <v>3.1056584944640911E-5</v>
+        <v>-7.0630198159846516E-6</v>
       </c>
       <c r="T22">
-        <v>4.5883356893960166E-5</v>
+        <v>-3.2975212339121738E-5</v>
       </c>
       <c r="U22">
-        <v>-1.3243169171963152E-4</v>
+        <v>-1.1028045464205345E-4</v>
       </c>
       <c r="V22">
-        <v>7.8298847784035439E-5</v>
+        <v>6.4534245765817788E-5</v>
       </c>
       <c r="W22">
-        <v>2.5138991745874322E-3</v>
+        <v>2.1760800977880003E-3</v>
       </c>
       <c r="X22">
-        <v>1.3243098511110222E-3</v>
+        <v>1.1196525804420363E-3</v>
       </c>
       <c r="Y22">
-        <v>1.3052554134367384E-3</v>
+        <v>1.102309475884777E-3</v>
       </c>
       <c r="Z22">
-        <v>1.3159528022380477E-3</v>
+        <v>1.1028218747268545E-3</v>
       </c>
       <c r="AA22">
-        <v>-7.5152258544560159E-6</v>
+        <v>-5.7090357573773861E-6</v>
       </c>
       <c r="AB22">
-        <v>-2.7611529088403464E-5</v>
+        <v>-4.8719394921323154E-5</v>
       </c>
       <c r="AC22">
-        <v>1.363256222193518E-5</v>
+        <v>8.9707692788211903E-6</v>
       </c>
       <c r="AD22">
-        <v>-5.8091846191435977E-3</v>
+        <v>-3.7109114793377022E-3</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.45">
@@ -4365,91 +4365,91 @@
         <v>31</v>
       </c>
       <c r="B23" s="4">
-        <v>4.7027894859929663E-2</v>
+        <v>2.8485467897695252E-2</v>
       </c>
       <c r="C23">
-        <v>7.9391890456625698E-5</v>
+        <v>1.0156104627540754E-4</v>
       </c>
       <c r="D23">
-        <v>3.2084219687431373E-5</v>
+        <v>-7.1675353142093903E-6</v>
       </c>
       <c r="E23">
-        <v>-2.2354844636251765E-7</v>
+        <v>4.5962854604265045E-8</v>
       </c>
       <c r="F23">
-        <v>1.1448851824977539E-4</v>
+        <v>3.8135466088274868E-5</v>
       </c>
       <c r="G23">
-        <v>-1.0073389662790819E-4</v>
+        <v>-1.0952295818186125E-4</v>
       </c>
       <c r="H23">
-        <v>-1.0638420984030773E-5</v>
+        <v>-4.4598908025281609E-5</v>
       </c>
       <c r="I23">
-        <v>-1.0033633753606103E-4</v>
+        <v>-1.3891222622651602E-4</v>
       </c>
       <c r="J23">
-        <v>-7.1783130328159465E-5</v>
+        <v>5.7243262684678921E-7</v>
       </c>
       <c r="K23">
-        <v>3.5756348005295657E-5</v>
+        <v>6.921207913606535E-6</v>
       </c>
       <c r="L23">
-        <v>2.7442948895848533E-5</v>
+        <v>7.9866966008777579E-6</v>
       </c>
       <c r="M23">
-        <v>-7.7511952547065622E-5</v>
+        <v>-5.848259982244814E-5</v>
       </c>
       <c r="N23">
-        <v>-3.7904350000199935E-4</v>
+        <v>-3.4266100819235713E-4</v>
       </c>
       <c r="O23">
-        <v>-3.7603791272367221E-4</v>
+        <v>-3.3572535816878905E-4</v>
       </c>
       <c r="P23">
-        <v>-2.0290783879375979E-4</v>
+        <v>-2.7546744608097879E-4</v>
       </c>
       <c r="Q23">
-        <v>-5.8015759805530795E-5</v>
+        <v>-3.7911758061467884E-5</v>
       </c>
       <c r="R23">
-        <v>1.4647613672552455E-5</v>
+        <v>-1.7528105067789862E-5</v>
       </c>
       <c r="S23">
-        <v>5.6220150052026089E-5</v>
+        <v>1.1910474475766686E-5</v>
       </c>
       <c r="T23">
-        <v>-2.6121354569969999E-5</v>
+        <v>-9.5141647576126921E-5</v>
       </c>
       <c r="U23">
-        <v>-2.1374946962131024E-4</v>
+        <v>-1.6557649409661791E-4</v>
       </c>
       <c r="V23">
-        <v>2.6929851716091631E-4</v>
+        <v>2.1969469202214807E-4</v>
       </c>
       <c r="W23">
-        <v>1.3243098511110222E-3</v>
+        <v>1.1196525804420363E-3</v>
       </c>
       <c r="X23">
-        <v>3.9673465257280896E-3</v>
+        <v>3.3870022465209947E-3</v>
       </c>
       <c r="Y23">
-        <v>1.32271123774696E-3</v>
+        <v>1.118894349564005E-3</v>
       </c>
       <c r="Z23">
-        <v>1.3307830416067227E-3</v>
+        <v>1.1150468027512257E-3</v>
       </c>
       <c r="AA23">
-        <v>4.8844598935186989E-6</v>
+        <v>4.8545870228533804E-6</v>
       </c>
       <c r="AB23">
-        <v>-1.9224244668870625E-4</v>
+        <v>-1.8629015663200498E-4</v>
       </c>
       <c r="AC23">
-        <v>-1.6415603213919364E-4</v>
+        <v>-1.2097161861534855E-4</v>
       </c>
       <c r="AD23">
-        <v>-2.1468867144989945E-3</v>
+        <v>-5.561380232454369E-4</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.45">
@@ -4457,91 +4457,91 @@
         <v>32</v>
       </c>
       <c r="B24" s="4">
-        <v>-5.1803317942048226E-2</v>
+        <v>-6.9692231796347676E-2</v>
       </c>
       <c r="C24">
-        <v>-1.0687789952157096E-4</v>
+        <v>-3.3521403284949712E-5</v>
       </c>
       <c r="D24">
-        <v>2.0301421374443671E-4</v>
+        <v>1.1212773813667684E-4</v>
       </c>
       <c r="E24">
-        <v>-1.3789079779402702E-6</v>
+        <v>-7.5455006679457648E-7</v>
       </c>
       <c r="F24">
-        <v>3.1804392972987778E-5</v>
+        <v>-1.8488770561471499E-5</v>
       </c>
       <c r="G24">
-        <v>5.034719758341584E-5</v>
+        <v>-5.1463143459226993E-6</v>
       </c>
       <c r="H24">
-        <v>9.4819007111315688E-5</v>
+        <v>5.1535617502044751E-5</v>
       </c>
       <c r="I24">
-        <v>-6.2257058643782454E-5</v>
+        <v>-7.8805103623854223E-5</v>
       </c>
       <c r="J24">
-        <v>-1.8440971098954758E-4</v>
+        <v>-8.8470684447113784E-5</v>
       </c>
       <c r="K24">
-        <v>-6.0023203406786184E-5</v>
+        <v>-9.7114594806233271E-5</v>
       </c>
       <c r="L24">
-        <v>2.8478988280961157E-5</v>
+        <v>2.3235590198675445E-5</v>
       </c>
       <c r="M24">
-        <v>9.7432355254204687E-5</v>
+        <v>9.190594323640689E-5</v>
       </c>
       <c r="N24">
-        <v>-1.6707375004891201E-4</v>
+        <v>-1.6320484686426474E-4</v>
       </c>
       <c r="O24">
-        <v>-1.3266572451699844E-4</v>
+        <v>-1.3064646822236504E-4</v>
       </c>
       <c r="P24">
-        <v>-7.8723408202364324E-5</v>
+        <v>-1.4443453478243015E-4</v>
       </c>
       <c r="Q24">
-        <v>1.7169893151604363E-5</v>
+        <v>3.0437751538011097E-5</v>
       </c>
       <c r="R24">
-        <v>2.9177626024552315E-5</v>
+        <v>-5.7590483616071827E-6</v>
       </c>
       <c r="S24">
-        <v>1.1410848532865522E-4</v>
+        <v>5.8663311544334198E-5</v>
       </c>
       <c r="T24">
-        <v>1.3830675008246179E-5</v>
+        <v>-6.7065280275297595E-5</v>
       </c>
       <c r="U24">
-        <v>-1.2023721632831722E-4</v>
+        <v>-1.0101514991632649E-4</v>
       </c>
       <c r="V24">
-        <v>4.7738871756601147E-5</v>
+        <v>2.6249194021832941E-5</v>
       </c>
       <c r="W24">
-        <v>1.3052554134367384E-3</v>
+        <v>1.102309475884777E-3</v>
       </c>
       <c r="X24">
-        <v>1.32271123774696E-3</v>
+        <v>1.118894349564005E-3</v>
       </c>
       <c r="Y24">
-        <v>2.5045315264040731E-3</v>
+        <v>2.2167282524817246E-3</v>
       </c>
       <c r="Z24">
-        <v>1.3260289876310268E-3</v>
+        <v>1.1116278749998684E-3</v>
       </c>
       <c r="AA24">
-        <v>-7.117419464257543E-6</v>
+        <v>-2.5018214780577292E-6</v>
       </c>
       <c r="AB24">
-        <v>-3.680044130819577E-5</v>
+        <v>-6.8499929378805166E-5</v>
       </c>
       <c r="AC24">
-        <v>6.0362063904719192E-5</v>
+        <v>3.0694742162410413E-5</v>
       </c>
       <c r="AD24">
-        <v>-8.2021630375990612E-3</v>
+        <v>-4.8499570315652489E-3</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.45">
@@ -4549,91 +4549,91 @@
         <v>34</v>
       </c>
       <c r="B25" s="4">
-        <v>-4.0382804461078121E-2</v>
+        <v>-4.5130675473809737E-2</v>
       </c>
       <c r="C25">
-        <v>-1.4536206869101442E-4</v>
+        <v>-1.5688205116323162E-4</v>
       </c>
       <c r="D25">
-        <v>7.4476721325910863E-5</v>
+        <v>-1.3917052107153671E-5</v>
       </c>
       <c r="E25">
-        <v>-3.9882146781958097E-7</v>
+        <v>1.9600890451548775E-7</v>
       </c>
       <c r="F25">
-        <v>1.5160437994200804E-4</v>
+        <v>3.997399335774948E-4</v>
       </c>
       <c r="G25">
-        <v>-5.3271945509654646E-6</v>
+        <v>-1.3919000939627106E-5</v>
       </c>
       <c r="H25">
-        <v>1.2609568671993686E-4</v>
+        <v>1.0105872094033608E-4</v>
       </c>
       <c r="I25">
-        <v>-5.4581456296203998E-5</v>
+        <v>-8.8137421412312096E-5</v>
       </c>
       <c r="J25">
-        <v>-1.1969556213165542E-4</v>
+        <v>-2.3701643682282818E-4</v>
       </c>
       <c r="K25">
-        <v>1.6855460914886461E-4</v>
+        <v>-1.8405582293781238E-5</v>
       </c>
       <c r="L25">
-        <v>9.7969378247829593E-6</v>
+        <v>1.4009585377950783E-4</v>
       </c>
       <c r="M25">
-        <v>9.7359359236362121E-5</v>
+        <v>8.2246656586812208E-5</v>
       </c>
       <c r="N25">
-        <v>3.2286317383788625E-5</v>
+        <v>7.30046122418212E-5</v>
       </c>
       <c r="O25">
-        <v>1.2545141075769387E-4</v>
+        <v>6.103160377827963E-5</v>
       </c>
       <c r="P25">
-        <v>1.6495382335241166E-4</v>
+        <v>2.2957341918358983E-5</v>
       </c>
       <c r="Q25">
-        <v>-8.0146747705291739E-5</v>
+        <v>-6.8374622187699616E-5</v>
       </c>
       <c r="R25">
-        <v>1.1600401186374768E-5</v>
+        <v>7.1078295700124135E-5</v>
       </c>
       <c r="S25">
-        <v>8.4517338890181966E-5</v>
+        <v>3.4770534328209656E-5</v>
       </c>
       <c r="T25">
-        <v>9.9814271947077206E-6</v>
+        <v>-4.8973262859037061E-5</v>
       </c>
       <c r="U25">
-        <v>1.0337981996922858E-4</v>
+        <v>1.1873078140548151E-4</v>
       </c>
       <c r="V25">
-        <v>-3.5395337221875731E-5</v>
+        <v>-9.4380453457757469E-5</v>
       </c>
       <c r="W25">
-        <v>1.3159528022380477E-3</v>
+        <v>1.1028218747268545E-3</v>
       </c>
       <c r="X25">
-        <v>1.3307830416067227E-3</v>
+        <v>1.1150468027512257E-3</v>
       </c>
       <c r="Y25">
-        <v>1.3260289876310268E-3</v>
+        <v>1.1116278749998684E-3</v>
       </c>
       <c r="Z25">
-        <v>1.9596404821801208E-3</v>
+        <v>1.7519035202233145E-3</v>
       </c>
       <c r="AA25">
-        <v>-7.2545670802808236E-6</v>
+        <v>1.4762133781142026E-5</v>
       </c>
       <c r="AB25">
-        <v>-3.3923619363158248E-5</v>
+        <v>-1.7972366124449938E-4</v>
       </c>
       <c r="AC25">
-        <v>-4.3490262861341016E-5</v>
+        <v>-1.765913351190519E-4</v>
       </c>
       <c r="AD25">
-        <v>-4.4417252440840296E-3</v>
+        <v>-1.272986976051561E-3</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.45">
@@ -4641,91 +4641,91 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>1.5466089527976532E-3</v>
+        <v>2.7964587419416968E-3</v>
       </c>
       <c r="C26">
-        <v>2.5597709760130632E-5</v>
+        <v>-1.9736096650505703E-6</v>
       </c>
       <c r="D26">
-        <v>-2.9788152968964528E-6</v>
+        <v>-2.828757844919056E-6</v>
       </c>
       <c r="E26">
-        <v>2.3908169472729282E-8</v>
+        <v>2.003233718119105E-8</v>
       </c>
       <c r="F26">
-        <v>-3.5783729996368807E-5</v>
+        <v>4.208968378236963E-5</v>
       </c>
       <c r="G26">
-        <v>-3.4634078131885911E-5</v>
+        <v>-2.1925658110142883E-5</v>
       </c>
       <c r="H26">
-        <v>2.158620754395274E-5</v>
+        <v>1.7375076608549855E-5</v>
       </c>
       <c r="I26">
-        <v>4.4052098610677659E-5</v>
+        <v>3.0262697181533942E-5</v>
       </c>
       <c r="J26">
-        <v>7.5095126262969872E-6</v>
+        <v>-3.4354885130066467E-5</v>
       </c>
       <c r="K26">
-        <v>-9.3892566802275296E-8</v>
+        <v>-1.9006955766936448E-5</v>
       </c>
       <c r="L26">
-        <v>2.7889541507846827E-6</v>
+        <v>2.351986218588519E-5</v>
       </c>
       <c r="M26">
-        <v>-1.3451182783617916E-6</v>
+        <v>-1.8613485823371137E-6</v>
       </c>
       <c r="N26">
-        <v>-5.883299305443019E-6</v>
+        <v>1.2213572819311466E-5</v>
       </c>
       <c r="O26">
-        <v>4.3408715528034357E-6</v>
+        <v>-6.7215733700893941E-6</v>
       </c>
       <c r="P26">
-        <v>1.321860000002212E-5</v>
+        <v>3.4330402264518938E-6</v>
       </c>
       <c r="Q26">
-        <v>1.6110497326314523E-5</v>
+        <v>1.1067812563149952E-5</v>
       </c>
       <c r="R26">
-        <v>-1.3251658380575914E-5</v>
+        <v>6.7695233030124434E-6</v>
       </c>
       <c r="S26">
-        <v>-3.5651052120841729E-6</v>
+        <v>-5.8638096900432519E-6</v>
       </c>
       <c r="T26">
-        <v>-2.8111578916397827E-6</v>
+        <v>-4.8937315467659898E-6</v>
       </c>
       <c r="U26">
-        <v>1.0302552885721844E-5</v>
+        <v>2.2494318755295086E-5</v>
       </c>
       <c r="V26">
-        <v>-9.8188667275766315E-7</v>
+        <v>-1.2115890182293189E-5</v>
       </c>
       <c r="W26">
-        <v>-7.5152258544560159E-6</v>
+        <v>-5.7090357573773861E-6</v>
       </c>
       <c r="X26">
-        <v>4.8844598935186989E-6</v>
+        <v>4.8545870228533804E-6</v>
       </c>
       <c r="Y26">
-        <v>-7.117419464257543E-6</v>
+        <v>-2.5018214780577292E-6</v>
       </c>
       <c r="Z26">
-        <v>-7.2545670802808236E-6</v>
+        <v>1.4762133781142026E-5</v>
       </c>
       <c r="AA26">
-        <v>2.0231474679134354E-5</v>
+        <v>2.1130317308718572E-5</v>
       </c>
       <c r="AB26">
-        <v>-7.6302320520424223E-5</v>
+        <v>-8.0033766838765567E-5</v>
       </c>
       <c r="AC26">
-        <v>-9.1858429286125989E-5</v>
+        <v>-1.0048548789039693E-4</v>
       </c>
       <c r="AD26">
-        <v>-2.7094826980585238E-4</v>
+        <v>-2.6607548019418905E-4</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.45">
@@ -4733,91 +4733,91 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>0.20548007271060009</v>
+        <v>0.18973731482379352</v>
       </c>
       <c r="C27">
-        <v>-1.4609064984194835E-4</v>
+        <v>-4.7449604074645312E-5</v>
       </c>
       <c r="D27">
-        <v>1.2684642857219153E-4</v>
+        <v>1.4090163746053111E-4</v>
       </c>
       <c r="E27">
-        <v>-9.5757320576724588E-7</v>
+        <v>-1.0294716363322767E-6</v>
       </c>
       <c r="F27">
-        <v>1.113879786736327E-4</v>
+        <v>-2.6422282860934232E-4</v>
       </c>
       <c r="G27">
-        <v>1.4314840878370053E-4</v>
+        <v>8.8874373863293693E-5</v>
       </c>
       <c r="H27">
-        <v>-3.2856768135186614E-6</v>
+        <v>1.2186040185418932E-6</v>
       </c>
       <c r="I27">
-        <v>2.6656359380901242E-5</v>
+        <v>1.1344195733202446E-4</v>
       </c>
       <c r="J27">
-        <v>2.1033097141816021E-4</v>
+        <v>3.2232468323598051E-4</v>
       </c>
       <c r="K27">
-        <v>9.042088054999264E-5</v>
+        <v>1.6086110173334223E-4</v>
       </c>
       <c r="L27">
-        <v>-9.6101898954424701E-5</v>
+        <v>-1.7450713973967118E-4</v>
       </c>
       <c r="M27">
-        <v>5.6438593401842479E-5</v>
+        <v>5.3051461264878416E-5</v>
       </c>
       <c r="N27">
-        <v>4.7842798898285003E-5</v>
+        <v>-5.0480222038985252E-5</v>
       </c>
       <c r="O27">
-        <v>-4.053804781635901E-6</v>
+        <v>4.664616439460115E-5</v>
       </c>
       <c r="P27">
-        <v>1.9598134068997235E-5</v>
+        <v>8.3259101799032945E-5</v>
       </c>
       <c r="Q27">
-        <v>-6.0726219862523682E-5</v>
+        <v>-2.5378545422404235E-5</v>
       </c>
       <c r="R27">
-        <v>-4.019690382143018E-5</v>
+        <v>-1.4001522593270403E-4</v>
       </c>
       <c r="S27">
-        <v>-2.1327045118989078E-5</v>
+        <v>-3.8233516207175893E-5</v>
       </c>
       <c r="T27">
-        <v>6.4328062494123373E-5</v>
+        <v>7.3534887910118359E-5</v>
       </c>
       <c r="U27">
-        <v>7.3328544476929146E-6</v>
+        <v>-4.3729037356283378E-5</v>
       </c>
       <c r="V27">
-        <v>2.2197477540434989E-5</v>
+        <v>6.8799396829530041E-5</v>
       </c>
       <c r="W27">
-        <v>-2.7611529088403464E-5</v>
+        <v>-4.8719394921323154E-5</v>
       </c>
       <c r="X27">
-        <v>-1.9224244668870625E-4</v>
+        <v>-1.8629015663200498E-4</v>
       </c>
       <c r="Y27">
-        <v>-3.680044130819577E-5</v>
+        <v>-6.8499929378805166E-5</v>
       </c>
       <c r="Z27">
-        <v>-3.3923619363158248E-5</v>
+        <v>-1.7972366124449938E-4</v>
       </c>
       <c r="AA27">
-        <v>-7.6302320520424223E-5</v>
+        <v>-8.0033766838765567E-5</v>
       </c>
       <c r="AB27">
-        <v>2.2274766398901087E-3</v>
+        <v>2.057505110128869E-3</v>
       </c>
       <c r="AC27">
-        <v>6.4956149564120147E-4</v>
+        <v>6.7602924030992287E-4</v>
       </c>
       <c r="AD27">
-        <v>-3.2460770064219103E-3</v>
+        <v>-3.7313973756243173E-3</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.45">
@@ -4825,91 +4825,91 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>8.6301880045749194E-2</v>
+        <v>6.5977847346881391E-2</v>
       </c>
       <c r="C28">
-        <v>-1.449541498768402E-4</v>
+        <v>2.3455745983574309E-5</v>
       </c>
       <c r="D28">
-        <v>8.2000951430516444E-5</v>
+        <v>9.0805900671418749E-5</v>
       </c>
       <c r="E28">
-        <v>-6.2268695963705158E-7</v>
+        <v>-6.5860031041157542E-7</v>
       </c>
       <c r="F28">
-        <v>6.732948909530731E-5</v>
+        <v>-4.4303037884616502E-4</v>
       </c>
       <c r="G28">
-        <v>2.4634178109774266E-4</v>
+        <v>1.6303727140673172E-4</v>
       </c>
       <c r="H28">
-        <v>-6.5566030842980271E-5</v>
+        <v>-5.8010567303918369E-5</v>
       </c>
       <c r="I28">
-        <v>-3.1946199197146119E-5</v>
+        <v>5.3407069862678683E-6</v>
       </c>
       <c r="J28">
-        <v>6.2567714335125257E-5</v>
+        <v>3.2174971918415111E-4</v>
       </c>
       <c r="K28">
-        <v>7.537400832253625E-5</v>
+        <v>2.1000598181414526E-4</v>
       </c>
       <c r="L28">
-        <v>-1.2213115451081662E-4</v>
+        <v>-2.5058153014061862E-4</v>
       </c>
       <c r="M28">
-        <v>3.1738115555601986E-5</v>
+        <v>3.6524291445780403E-5</v>
       </c>
       <c r="N28">
-        <v>-2.4905292108071296E-5</v>
+        <v>-1.4669476305043992E-4</v>
       </c>
       <c r="O28">
-        <v>-1.3827189038713867E-4</v>
+        <v>-5.1681169110135924E-5</v>
       </c>
       <c r="P28">
-        <v>-1.1221497851073562E-4</v>
+        <v>-4.8012866210581528E-5</v>
       </c>
       <c r="Q28">
-        <v>-6.796368317117012E-5</v>
+        <v>-3.3332294734626962E-5</v>
       </c>
       <c r="R28">
-        <v>-2.3239041850958014E-5</v>
+        <v>-1.5266083285691602E-4</v>
       </c>
       <c r="S28">
-        <v>-4.8497688590319089E-5</v>
+        <v>-2.0782078275869732E-5</v>
       </c>
       <c r="T28">
-        <v>1.181050903408384E-4</v>
+        <v>1.0589810000322369E-4</v>
       </c>
       <c r="U28">
-        <v>-3.0127687701478193E-5</v>
+        <v>-1.0870711282057795E-4</v>
       </c>
       <c r="V28">
-        <v>6.3866880267276593E-5</v>
+        <v>1.4958669920582524E-4</v>
       </c>
       <c r="W28">
-        <v>1.363256222193518E-5</v>
+        <v>8.9707692788211903E-6</v>
       </c>
       <c r="X28">
-        <v>-1.6415603213919364E-4</v>
+        <v>-1.2097161861534855E-4</v>
       </c>
       <c r="Y28">
-        <v>6.0362063904719192E-5</v>
+        <v>3.0694742162410413E-5</v>
       </c>
       <c r="Z28">
-        <v>-4.3490262861341016E-5</v>
+        <v>-1.765913351190519E-4</v>
       </c>
       <c r="AA28">
-        <v>-9.1858429286125989E-5</v>
+        <v>-1.0048548789039693E-4</v>
       </c>
       <c r="AB28">
-        <v>6.4956149564120147E-4</v>
+        <v>6.7602924030992287E-4</v>
       </c>
       <c r="AC28">
-        <v>2.9316610027832644E-3</v>
+        <v>2.6721078677265399E-3</v>
       </c>
       <c r="AD28">
-        <v>-1.2976226724340911E-3</v>
+        <v>-1.6168139900143591E-3</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.45">
@@ -4917,91 +4917,91 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>-22.295687052165892</v>
+        <v>-21.812429440667948</v>
       </c>
       <c r="C29">
-        <v>1.4569300867883279E-2</v>
+        <v>1.6857530957748779E-2</v>
       </c>
       <c r="D29">
-        <v>-8.4753965055573616E-2</v>
+        <v>-7.5836301001550976E-2</v>
       </c>
       <c r="E29">
-        <v>6.4708408438976343E-4</v>
+        <v>5.7973829599509454E-4</v>
       </c>
       <c r="F29">
-        <v>7.2483919945956488E-3</v>
+        <v>2.7579245401921013E-3</v>
       </c>
       <c r="G29">
-        <v>1.4872646000236757E-2</v>
+        <v>1.1411024659940046E-2</v>
       </c>
       <c r="H29">
-        <v>-9.594567664157826E-3</v>
+        <v>-5.9445462667799464E-3</v>
       </c>
       <c r="I29">
-        <v>-1.3753944543983328E-2</v>
+        <v>-1.037822997273978E-2</v>
       </c>
       <c r="J29">
-        <v>2.8289164559504396E-2</v>
+        <v>2.6791919175330262E-2</v>
       </c>
       <c r="K29">
-        <v>-1.4798125088662855E-3</v>
+        <v>-1.4886325390575245E-3</v>
       </c>
       <c r="L29">
-        <v>-3.4818456379986946E-3</v>
+        <v>-2.9151590101669615E-3</v>
       </c>
       <c r="M29">
-        <v>-5.5607806808546446E-4</v>
+        <v>-9.3416955262896407E-4</v>
       </c>
       <c r="N29">
-        <v>4.06192954059891E-3</v>
+        <v>1.0271345560211747E-3</v>
       </c>
       <c r="O29">
-        <v>-4.1530341371285636E-3</v>
+        <v>-1.5030337911851382E-3</v>
       </c>
       <c r="P29">
-        <v>5.4168730659966157E-4</v>
+        <v>-1.2930376256462804E-3</v>
       </c>
       <c r="Q29">
-        <v>8.2214206895028508E-3</v>
+        <v>6.7264183222607741E-3</v>
       </c>
       <c r="R29">
-        <v>8.3880985039023089E-3</v>
+        <v>6.6769879789826108E-3</v>
       </c>
       <c r="S29">
-        <v>8.8046943887240981E-3</v>
+        <v>9.1862895541709351E-3</v>
       </c>
       <c r="T29">
-        <v>9.917673602330257E-3</v>
+        <v>9.3784556867295976E-3</v>
       </c>
       <c r="U29">
-        <v>1.0770164195535227E-3</v>
+        <v>-8.6221236392767684E-4</v>
       </c>
       <c r="V29">
-        <v>-4.2473761483027513E-4</v>
+        <v>4.4626317628550889E-4</v>
       </c>
       <c r="W29">
-        <v>-5.8091846191435977E-3</v>
+        <v>-3.7109114793377022E-3</v>
       </c>
       <c r="X29">
-        <v>-2.1468867144989945E-3</v>
+        <v>-5.561380232454369E-4</v>
       </c>
       <c r="Y29">
-        <v>-8.2021630375990612E-3</v>
+        <v>-4.8499570315652489E-3</v>
       </c>
       <c r="Z29">
-        <v>-4.4417252440840296E-3</v>
+        <v>-1.272986976051561E-3</v>
       </c>
       <c r="AA29">
-        <v>-2.7094826980585238E-4</v>
+        <v>-2.6607548019418905E-4</v>
       </c>
       <c r="AB29">
-        <v>-3.2460770064219103E-3</v>
+        <v>-3.7313973756243173E-3</v>
       </c>
       <c r="AC29">
-        <v>-1.2976226724340911E-3</v>
+        <v>-1.6168139900143591E-3</v>
       </c>
       <c r="AD29">
-        <v>2.7376818669016272</v>
+        <v>2.4434118645062464</v>
       </c>
     </row>
   </sheetData>
